--- a/documentation/Manual_Testing.xlsx
+++ b/documentation/Manual_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhan.dang/Coder_Academy/terminal_app/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1087BD5A-FAAE-A44E-86C9-55DD9E2CE157}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC07C6C-F833-8B4E-98B5-A41C63B42B5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -165,23 +165,132 @@
     <t>no error messages, questions will load successfully</t>
   </si>
   <si>
-    <t>error message dispalys warning user that record cannot be saved.
-Prompt user to continue or not</t>
-  </si>
-  <si>
     <t>Continue = y</t>
-  </si>
-  <si>
-    <t>Questions will load</t>
   </si>
   <si>
     <t>continue = n</t>
   </si>
   <si>
-    <t>return to main menu</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>error message displays and asks if user wants to continue</t>
+  </si>
+  <si>
+    <t>calculator opens</t>
+  </si>
+  <si>
+    <t>All questions load and able to receive answers</t>
+  </si>
+  <si>
+    <t>CHADS-VASc score calculates correctly</t>
+  </si>
+  <si>
+    <t>error message displays warning user that record cannot be saved.
+Prompt user to continue or not</t>
+  </si>
+  <si>
+    <t>User enters invalid input for prompts - instead of y/n enters something else</t>
+  </si>
+  <si>
+    <t>enter a key that is not y/n for y/n question</t>
+  </si>
+  <si>
+    <t>rescue message displays and appliation terminates</t>
+  </si>
+  <si>
+    <t>name = santa clause
+age range = &gt; 75
+gender = male
+CHF Hx = No
+hypertension = no
+stroke = no
+vascular disease = yes
+diabetes = yes</t>
+  </si>
+  <si>
+    <t>Risk rating (low/med/high) will display correctly depending on the CV Score</t>
+  </si>
+  <si>
+    <t>questions loaded successfully</t>
+  </si>
+  <si>
+    <t>Questions loaded successfully, answers accepted</t>
+  </si>
+  <si>
+    <t>questions loaded successfully &amp; answers accepted</t>
+  </si>
+  <si>
+    <t>Risk rating for above scenario should be high. High should be coloured red</t>
+  </si>
+  <si>
+    <t>CV score = 4</t>
+  </si>
+  <si>
+    <t>Score = 4</t>
+  </si>
+  <si>
+    <t>risk rating = high</t>
+  </si>
+  <si>
+    <t>first question will load</t>
+  </si>
+  <si>
+    <t>first question loads</t>
+  </si>
+  <si>
+    <t>ask if want to exit or return to main menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displays statement for low risk. </t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>Fixed Y/N</t>
+  </si>
+  <si>
+    <t>Date Fixed</t>
+  </si>
+  <si>
+    <t>inappropriate result</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>5/9/19 - removed .to_i from method in main program</t>
+  </si>
+  <si>
+    <t>rescue messagse displays and application terminates</t>
+  </si>
+  <si>
+    <t>Result viewer able to be accessed from main menu</t>
+  </si>
+  <si>
+    <t>select option 2 from main menu</t>
+  </si>
+  <si>
+    <t>user is prompted for patient name</t>
+  </si>
+  <si>
+    <t>user prompted for a patient name</t>
+  </si>
+  <si>
+    <t>results display correctly for a patient with recorded results</t>
+  </si>
+  <si>
+    <t>patient name = john candy</t>
+  </si>
+  <si>
+    <t>CHADS-VASc results display</t>
+  </si>
+  <si>
+    <t>CHADS-VASc results display but date of viewing displays rather than date that result was recorded</t>
+  </si>
+  <si>
+    <t>record not accurate</t>
   </si>
 </sst>
 </file>
@@ -212,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +382,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -286,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -335,6 +450,18 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +779,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -698,7 +825,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -779,7 +906,9 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3771,21 +3900,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="55.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="11" max="11" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3798,7 +3929,7 @@
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -3814,10 +3945,14 @@
         <v>8</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
@@ -3834,7 +3969,7 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3844,7 +3979,7 @@
       <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -3876,7 +4011,7 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3886,7 +4021,7 @@
       <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -3918,7 +4053,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3928,7 +4063,7 @@
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3962,7 +4097,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3972,7 +4107,7 @@
       <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
@@ -4002,11 +4137,13 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
       <c r="B6" s="13"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="13"/>
@@ -4032,7 +4169,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -4040,14 +4177,18 @@
       <c r="C7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -4070,7 +4211,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -4078,14 +4219,18 @@
       <c r="C8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -4106,24 +4251,28 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:26" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="112" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>41</v>
+      <c r="D9" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -4144,22 +4293,26 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13" t="s">
-        <v>45</v>
+      <c r="C10" s="16" t="s">
+        <v>50</v>
       </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -4180,22 +4333,26 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13" t="s">
-        <v>47</v>
+      <c r="C11" s="16" t="s">
+        <v>56</v>
       </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4216,14 +4373,28 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="13"/>
+    <row r="12" spans="1:26" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -4245,13 +4416,25 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -4273,17 +4456,37 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="25">
+        <v>43713</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -4300,14 +4503,28 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
+    <row r="15" spans="1:26" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -4332,7 +4549,7 @@
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="13"/>
@@ -4358,11 +4575,21 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -4384,16 +4611,30 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="C18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="25">
+        <v>43713</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -4416,7 +4657,7 @@
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="13"/>
@@ -4444,7 +4685,7 @@
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="13"/>
@@ -4472,7 +4713,7 @@
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="13"/>
@@ -4500,7 +4741,7 @@
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="13"/>
@@ -4528,7 +4769,7 @@
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
@@ -4556,7 +4797,7 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="13"/>
@@ -4584,7 +4825,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="13"/>
@@ -4612,7 +4853,7 @@
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="13"/>
@@ -4640,7 +4881,7 @@
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="13"/>
@@ -4668,7 +4909,7 @@
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
@@ -4696,7 +4937,7 @@
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
@@ -4724,7 +4965,7 @@
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
@@ -4752,7 +4993,7 @@
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="13"/>
@@ -4780,7 +5021,7 @@
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
@@ -4808,7 +5049,7 @@
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
@@ -4836,7 +5077,7 @@
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="13"/>
@@ -4864,7 +5105,7 @@
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
@@ -4892,7 +5133,7 @@
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
@@ -4920,7 +5161,7 @@
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="13"/>
@@ -4948,7 +5189,7 @@
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="13"/>
@@ -4976,7 +5217,7 @@
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="13"/>
@@ -5004,7 +5245,7 @@
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="13"/>
@@ -5032,7 +5273,7 @@
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="13"/>
@@ -5060,7 +5301,7 @@
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="13"/>
@@ -5088,7 +5329,7 @@
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="13"/>
@@ -5116,7 +5357,7 @@
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="13"/>
@@ -5144,7 +5385,7 @@
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="13"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="13"/>
@@ -5172,7 +5413,7 @@
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="13"/>
@@ -5200,7 +5441,7 @@
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="13"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="13"/>
@@ -5228,7 +5469,7 @@
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="13"/>
@@ -5256,7 +5497,7 @@
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="13"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="13"/>
@@ -5284,7 +5525,7 @@
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="13"/>
@@ -5312,7 +5553,7 @@
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="13"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="13"/>
@@ -5340,7 +5581,7 @@
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="13"/>
@@ -5368,7 +5609,7 @@
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="13"/>
@@ -5396,7 +5637,7 @@
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="13"/>
@@ -5420,11 +5661,11 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
     </row>
-    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="13"/>
@@ -5448,11 +5689,11 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
     </row>
-    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="16"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="13"/>
@@ -5476,11 +5717,11 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
-    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="16"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="13"/>
@@ -5508,7 +5749,7 @@
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="16"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="13"/>
@@ -5536,7 +5777,7 @@
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="13"/>
@@ -5564,7 +5805,7 @@
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="13"/>
@@ -5592,7 +5833,7 @@
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="13"/>
@@ -5620,7 +5861,7 @@
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="13"/>
@@ -5648,7 +5889,7 @@
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="13"/>
@@ -5676,7 +5917,7 @@
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="13"/>
@@ -5704,7 +5945,7 @@
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="13"/>
@@ -5732,7 +5973,7 @@
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="13"/>
@@ -5760,7 +6001,7 @@
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="13"/>
@@ -5788,7 +6029,7 @@
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="13"/>
@@ -5816,7 +6057,7 @@
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="16"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="13"/>
@@ -5844,7 +6085,7 @@
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="13"/>
@@ -5872,7 +6113,7 @@
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="13"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="13"/>
@@ -5900,7 +6141,7 @@
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="13"/>
@@ -5928,7 +6169,7 @@
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="13"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="13"/>
@@ -5956,7 +6197,7 @@
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="16"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="13"/>
@@ -5984,7 +6225,7 @@
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="16"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="13"/>
@@ -6012,7 +6253,7 @@
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="16"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="13"/>
@@ -6040,7 +6281,7 @@
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="16"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="13"/>
@@ -6068,7 +6309,7 @@
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="16"/>
-      <c r="D78" s="13"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="13"/>
@@ -6096,7 +6337,7 @@
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="16"/>
-      <c r="D79" s="13"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="13"/>
@@ -6124,7 +6365,7 @@
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="16"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="13"/>
@@ -6152,7 +6393,7 @@
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="16"/>
-      <c r="D81" s="13"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="13"/>
@@ -6180,7 +6421,7 @@
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="16"/>
-      <c r="D82" s="13"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="13"/>
@@ -6208,7 +6449,7 @@
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="16"/>
-      <c r="D83" s="13"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="13"/>
@@ -6236,7 +6477,7 @@
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="16"/>
-      <c r="D84" s="13"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="13"/>
@@ -6264,7 +6505,7 @@
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="16"/>
-      <c r="D85" s="13"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="13"/>
@@ -6292,7 +6533,7 @@
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="16"/>
-      <c r="D86" s="13"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="13"/>
@@ -6320,7 +6561,7 @@
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="16"/>
-      <c r="D87" s="13"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="13"/>
@@ -6348,7 +6589,7 @@
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="16"/>
-      <c r="D88" s="13"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="13"/>
@@ -6376,7 +6617,7 @@
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="13"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="13"/>
@@ -6404,7 +6645,7 @@
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="13"/>
@@ -6432,7 +6673,7 @@
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="16"/>
-      <c r="D91" s="13"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="13"/>
@@ -6460,7 +6701,7 @@
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="16"/>
-      <c r="D92" s="13"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="13"/>
@@ -6488,7 +6729,7 @@
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="13"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="13"/>
@@ -6516,7 +6757,7 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="13"/>
+      <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="13"/>
@@ -6544,7 +6785,7 @@
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="16"/>
-      <c r="D95" s="13"/>
+      <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="13"/>
@@ -6572,7 +6813,7 @@
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="13"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="13"/>
@@ -6600,7 +6841,7 @@
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="16"/>
-      <c r="D97" s="13"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="13"/>
@@ -6628,7 +6869,7 @@
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="16"/>
-      <c r="D98" s="13"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="13"/>
@@ -6656,7 +6897,7 @@
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="16"/>
-      <c r="D99" s="13"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="13"/>
@@ -6684,7 +6925,7 @@
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="16"/>
-      <c r="D100" s="13"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="13"/>
@@ -6712,7 +6953,7 @@
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="16"/>
-      <c r="D101" s="13"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="13"/>
@@ -6740,7 +6981,7 @@
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="16"/>
-      <c r="D102" s="13"/>
+      <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
       <c r="G102" s="13"/>
@@ -6768,7 +7009,7 @@
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="16"/>
-      <c r="D103" s="13"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
       <c r="G103" s="13"/>
@@ -6796,7 +7037,7 @@
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="16"/>
-      <c r="D104" s="13"/>
+      <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="13"/>
@@ -6824,7 +7065,7 @@
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="16"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
       <c r="G105" s="13"/>
@@ -6852,7 +7093,7 @@
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="16"/>
-      <c r="D106" s="13"/>
+      <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
       <c r="G106" s="13"/>
@@ -6880,7 +7121,7 @@
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="16"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="13"/>
@@ -6908,7 +7149,7 @@
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="16"/>
-      <c r="D108" s="13"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
       <c r="G108" s="13"/>
@@ -6936,7 +7177,7 @@
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="16"/>
-      <c r="D109" s="13"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="13"/>
@@ -6964,7 +7205,7 @@
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="16"/>
-      <c r="D110" s="13"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="13"/>
@@ -6992,7 +7233,7 @@
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="16"/>
-      <c r="D111" s="13"/>
+      <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
       <c r="G111" s="13"/>
@@ -7020,7 +7261,7 @@
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="16"/>
-      <c r="D112" s="13"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="13"/>
@@ -7048,7 +7289,7 @@
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="16"/>
-      <c r="D113" s="13"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="13"/>
@@ -7076,7 +7317,7 @@
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="16"/>
-      <c r="D114" s="13"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="13"/>
@@ -7104,7 +7345,7 @@
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="16"/>
-      <c r="D115" s="13"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="13"/>
@@ -7132,7 +7373,7 @@
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="16"/>
-      <c r="D116" s="13"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="13"/>
@@ -7160,7 +7401,7 @@
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="16"/>
-      <c r="D117" s="13"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="13"/>
@@ -7188,7 +7429,7 @@
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="16"/>
-      <c r="D118" s="13"/>
+      <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="13"/>
@@ -7216,7 +7457,7 @@
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="16"/>
-      <c r="D119" s="13"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="13"/>
@@ -7244,7 +7485,7 @@
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="16"/>
-      <c r="D120" s="13"/>
+      <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="13"/>
@@ -7272,7 +7513,7 @@
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="16"/>
-      <c r="D121" s="13"/>
+      <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="13"/>
@@ -7300,7 +7541,7 @@
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="16"/>
-      <c r="D122" s="13"/>
+      <c r="D122" s="16"/>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="13"/>
@@ -7328,7 +7569,7 @@
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="16"/>
-      <c r="D123" s="13"/>
+      <c r="D123" s="16"/>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="13"/>
@@ -7356,7 +7597,7 @@
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="16"/>
-      <c r="D124" s="13"/>
+      <c r="D124" s="16"/>
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
       <c r="G124" s="13"/>
@@ -7384,7 +7625,7 @@
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="16"/>
-      <c r="D125" s="13"/>
+      <c r="D125" s="16"/>
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
       <c r="G125" s="13"/>
@@ -7412,7 +7653,7 @@
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="16"/>
-      <c r="D126" s="13"/>
+      <c r="D126" s="16"/>
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
       <c r="G126" s="13"/>
@@ -7440,7 +7681,7 @@
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="16"/>
-      <c r="D127" s="13"/>
+      <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
       <c r="G127" s="13"/>
@@ -7468,7 +7709,7 @@
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="16"/>
-      <c r="D128" s="13"/>
+      <c r="D128" s="16"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
       <c r="G128" s="13"/>
@@ -7496,7 +7737,7 @@
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="16"/>
-      <c r="D129" s="13"/>
+      <c r="D129" s="16"/>
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
       <c r="G129" s="13"/>
@@ -7524,7 +7765,7 @@
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="16"/>
-      <c r="D130" s="13"/>
+      <c r="D130" s="16"/>
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
       <c r="G130" s="13"/>
@@ -7552,7 +7793,7 @@
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="16"/>
-      <c r="D131" s="13"/>
+      <c r="D131" s="16"/>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
       <c r="G131" s="13"/>
@@ -7580,7 +7821,7 @@
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="16"/>
-      <c r="D132" s="13"/>
+      <c r="D132" s="16"/>
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
       <c r="G132" s="13"/>
@@ -7608,7 +7849,7 @@
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="16"/>
-      <c r="D133" s="13"/>
+      <c r="D133" s="16"/>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
       <c r="G133" s="13"/>
@@ -7636,7 +7877,7 @@
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="16"/>
-      <c r="D134" s="13"/>
+      <c r="D134" s="16"/>
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
       <c r="G134" s="13"/>
@@ -7664,7 +7905,7 @@
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="16"/>
-      <c r="D135" s="13"/>
+      <c r="D135" s="16"/>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
       <c r="G135" s="13"/>
@@ -7692,7 +7933,7 @@
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="16"/>
-      <c r="D136" s="13"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
       <c r="G136" s="13"/>
@@ -7720,7 +7961,7 @@
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="16"/>
-      <c r="D137" s="13"/>
+      <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
       <c r="G137" s="13"/>
@@ -7748,7 +7989,7 @@
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="16"/>
-      <c r="D138" s="13"/>
+      <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="13"/>
@@ -7776,7 +8017,7 @@
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="16"/>
-      <c r="D139" s="13"/>
+      <c r="D139" s="16"/>
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="13"/>
@@ -7804,7 +8045,7 @@
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="16"/>
-      <c r="D140" s="13"/>
+      <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
       <c r="G140" s="13"/>
@@ -7832,7 +8073,7 @@
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="16"/>
-      <c r="D141" s="13"/>
+      <c r="D141" s="16"/>
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
       <c r="G141" s="13"/>
@@ -7860,7 +8101,7 @@
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="16"/>
-      <c r="D142" s="13"/>
+      <c r="D142" s="16"/>
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
       <c r="G142" s="13"/>
@@ -7888,7 +8129,7 @@
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="16"/>
-      <c r="D143" s="13"/>
+      <c r="D143" s="16"/>
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
       <c r="G143" s="13"/>
@@ -7916,7 +8157,7 @@
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="16"/>
-      <c r="D144" s="13"/>
+      <c r="D144" s="16"/>
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
       <c r="G144" s="13"/>
@@ -7944,7 +8185,7 @@
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="16"/>
-      <c r="D145" s="13"/>
+      <c r="D145" s="16"/>
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
       <c r="G145" s="13"/>
@@ -7972,7 +8213,7 @@
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="16"/>
-      <c r="D146" s="13"/>
+      <c r="D146" s="16"/>
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
       <c r="G146" s="13"/>
@@ -8000,7 +8241,7 @@
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="16"/>
-      <c r="D147" s="13"/>
+      <c r="D147" s="16"/>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
       <c r="G147" s="13"/>
@@ -8028,7 +8269,7 @@
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="16"/>
-      <c r="D148" s="13"/>
+      <c r="D148" s="16"/>
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
       <c r="G148" s="13"/>
@@ -8056,7 +8297,7 @@
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="16"/>
-      <c r="D149" s="13"/>
+      <c r="D149" s="16"/>
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
       <c r="G149" s="13"/>
@@ -8084,7 +8325,7 @@
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="16"/>
-      <c r="D150" s="13"/>
+      <c r="D150" s="16"/>
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
       <c r="G150" s="13"/>
@@ -8112,7 +8353,7 @@
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="16"/>
-      <c r="D151" s="13"/>
+      <c r="D151" s="16"/>
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
       <c r="G151" s="13"/>
@@ -8140,7 +8381,7 @@
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="16"/>
-      <c r="D152" s="13"/>
+      <c r="D152" s="16"/>
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
       <c r="G152" s="13"/>
@@ -8168,7 +8409,7 @@
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="16"/>
-      <c r="D153" s="13"/>
+      <c r="D153" s="16"/>
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
       <c r="G153" s="13"/>
@@ -8196,7 +8437,7 @@
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="16"/>
-      <c r="D154" s="13"/>
+      <c r="D154" s="16"/>
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
       <c r="G154" s="13"/>
@@ -8224,7 +8465,7 @@
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="16"/>
-      <c r="D155" s="13"/>
+      <c r="D155" s="16"/>
       <c r="E155" s="16"/>
       <c r="F155" s="16"/>
       <c r="G155" s="13"/>
@@ -8252,7 +8493,7 @@
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="16"/>
-      <c r="D156" s="13"/>
+      <c r="D156" s="16"/>
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
       <c r="G156" s="13"/>
@@ -8280,7 +8521,7 @@
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="16"/>
-      <c r="D157" s="13"/>
+      <c r="D157" s="16"/>
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
       <c r="G157" s="13"/>
@@ -8308,7 +8549,7 @@
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="16"/>
-      <c r="D158" s="13"/>
+      <c r="D158" s="16"/>
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
       <c r="G158" s="13"/>
@@ -8336,7 +8577,7 @@
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="16"/>
-      <c r="D159" s="13"/>
+      <c r="D159" s="16"/>
       <c r="E159" s="16"/>
       <c r="F159" s="16"/>
       <c r="G159" s="13"/>
@@ -8364,7 +8605,7 @@
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="16"/>
-      <c r="D160" s="13"/>
+      <c r="D160" s="16"/>
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
       <c r="G160" s="13"/>
@@ -8392,7 +8633,7 @@
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="16"/>
-      <c r="D161" s="13"/>
+      <c r="D161" s="16"/>
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
       <c r="G161" s="13"/>
@@ -8420,7 +8661,7 @@
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="16"/>
-      <c r="D162" s="13"/>
+      <c r="D162" s="16"/>
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
       <c r="G162" s="13"/>
@@ -8448,7 +8689,7 @@
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="16"/>
-      <c r="D163" s="13"/>
+      <c r="D163" s="16"/>
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
       <c r="G163" s="13"/>
@@ -8476,7 +8717,7 @@
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="16"/>
-      <c r="D164" s="13"/>
+      <c r="D164" s="16"/>
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
       <c r="G164" s="13"/>
@@ -8504,7 +8745,7 @@
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="16"/>
-      <c r="D165" s="13"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
       <c r="G165" s="13"/>
@@ -8532,7 +8773,7 @@
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="16"/>
-      <c r="D166" s="13"/>
+      <c r="D166" s="16"/>
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
       <c r="G166" s="13"/>
@@ -8560,7 +8801,7 @@
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="16"/>
-      <c r="D167" s="13"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
       <c r="G167" s="13"/>
@@ -8588,7 +8829,7 @@
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="16"/>
-      <c r="D168" s="13"/>
+      <c r="D168" s="16"/>
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
       <c r="G168" s="13"/>
@@ -8616,7 +8857,7 @@
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="16"/>
-      <c r="D169" s="13"/>
+      <c r="D169" s="16"/>
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
       <c r="G169" s="13"/>
@@ -8644,7 +8885,7 @@
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="16"/>
-      <c r="D170" s="13"/>
+      <c r="D170" s="16"/>
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
       <c r="G170" s="13"/>
@@ -8672,7 +8913,7 @@
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="16"/>
-      <c r="D171" s="13"/>
+      <c r="D171" s="16"/>
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
       <c r="G171" s="13"/>
@@ -8700,7 +8941,7 @@
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="16"/>
-      <c r="D172" s="13"/>
+      <c r="D172" s="16"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
       <c r="G172" s="13"/>
@@ -8728,7 +8969,7 @@
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="16"/>
-      <c r="D173" s="13"/>
+      <c r="D173" s="16"/>
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
       <c r="G173" s="13"/>
@@ -8756,7 +8997,7 @@
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="16"/>
-      <c r="D174" s="13"/>
+      <c r="D174" s="16"/>
       <c r="E174" s="16"/>
       <c r="F174" s="16"/>
       <c r="G174" s="13"/>
@@ -8784,7 +9025,7 @@
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="16"/>
-      <c r="D175" s="13"/>
+      <c r="D175" s="16"/>
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
       <c r="G175" s="13"/>
@@ -8812,7 +9053,7 @@
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="16"/>
-      <c r="D176" s="13"/>
+      <c r="D176" s="16"/>
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
       <c r="G176" s="13"/>
@@ -8840,7 +9081,7 @@
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="16"/>
-      <c r="D177" s="13"/>
+      <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
       <c r="G177" s="13"/>
@@ -8868,7 +9109,7 @@
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="16"/>
-      <c r="D178" s="13"/>
+      <c r="D178" s="16"/>
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
       <c r="G178" s="13"/>
@@ -8896,7 +9137,7 @@
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="16"/>
-      <c r="D179" s="13"/>
+      <c r="D179" s="16"/>
       <c r="E179" s="16"/>
       <c r="F179" s="16"/>
       <c r="G179" s="13"/>
@@ -8924,7 +9165,7 @@
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="16"/>
-      <c r="D180" s="13"/>
+      <c r="D180" s="16"/>
       <c r="E180" s="16"/>
       <c r="F180" s="16"/>
       <c r="G180" s="13"/>
@@ -8952,7 +9193,7 @@
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="16"/>
-      <c r="D181" s="13"/>
+      <c r="D181" s="16"/>
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
       <c r="G181" s="13"/>
@@ -8980,7 +9221,7 @@
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="16"/>
-      <c r="D182" s="13"/>
+      <c r="D182" s="16"/>
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
       <c r="G182" s="13"/>
@@ -9008,7 +9249,7 @@
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="16"/>
-      <c r="D183" s="13"/>
+      <c r="D183" s="16"/>
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
       <c r="G183" s="13"/>
@@ -9036,7 +9277,7 @@
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="16"/>
-      <c r="D184" s="13"/>
+      <c r="D184" s="16"/>
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
       <c r="G184" s="13"/>
@@ -9064,7 +9305,7 @@
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="16"/>
-      <c r="D185" s="13"/>
+      <c r="D185" s="16"/>
       <c r="E185" s="16"/>
       <c r="F185" s="16"/>
       <c r="G185" s="13"/>
@@ -9092,7 +9333,7 @@
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="16"/>
-      <c r="D186" s="13"/>
+      <c r="D186" s="16"/>
       <c r="E186" s="16"/>
       <c r="F186" s="16"/>
       <c r="G186" s="13"/>
@@ -9120,7 +9361,7 @@
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="16"/>
-      <c r="D187" s="13"/>
+      <c r="D187" s="16"/>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
       <c r="G187" s="13"/>
@@ -9148,7 +9389,7 @@
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="16"/>
-      <c r="D188" s="13"/>
+      <c r="D188" s="16"/>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
       <c r="G188" s="13"/>
@@ -9176,7 +9417,7 @@
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="16"/>
-      <c r="D189" s="13"/>
+      <c r="D189" s="16"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
       <c r="G189" s="13"/>
@@ -9204,7 +9445,7 @@
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="16"/>
-      <c r="D190" s="13"/>
+      <c r="D190" s="16"/>
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
       <c r="G190" s="13"/>
@@ -9232,7 +9473,7 @@
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="16"/>
-      <c r="D191" s="13"/>
+      <c r="D191" s="16"/>
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
       <c r="G191" s="13"/>
@@ -9260,7 +9501,7 @@
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="16"/>
-      <c r="D192" s="13"/>
+      <c r="D192" s="16"/>
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
       <c r="G192" s="13"/>
@@ -9288,7 +9529,7 @@
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="16"/>
-      <c r="D193" s="13"/>
+      <c r="D193" s="16"/>
       <c r="E193" s="16"/>
       <c r="F193" s="16"/>
       <c r="G193" s="13"/>
@@ -9316,7 +9557,7 @@
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="16"/>
-      <c r="D194" s="13"/>
+      <c r="D194" s="16"/>
       <c r="E194" s="16"/>
       <c r="F194" s="16"/>
       <c r="G194" s="13"/>
@@ -9344,7 +9585,7 @@
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="16"/>
-      <c r="D195" s="13"/>
+      <c r="D195" s="16"/>
       <c r="E195" s="16"/>
       <c r="F195" s="16"/>
       <c r="G195" s="13"/>
@@ -9372,7 +9613,7 @@
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="16"/>
-      <c r="D196" s="13"/>
+      <c r="D196" s="16"/>
       <c r="E196" s="16"/>
       <c r="F196" s="16"/>
       <c r="G196" s="13"/>
@@ -9400,7 +9641,7 @@
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="16"/>
-      <c r="D197" s="13"/>
+      <c r="D197" s="16"/>
       <c r="E197" s="16"/>
       <c r="F197" s="16"/>
       <c r="G197" s="13"/>
@@ -9428,7 +9669,7 @@
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="16"/>
-      <c r="D198" s="13"/>
+      <c r="D198" s="16"/>
       <c r="E198" s="16"/>
       <c r="F198" s="16"/>
       <c r="G198" s="13"/>
@@ -9456,7 +9697,7 @@
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="16"/>
-      <c r="D199" s="13"/>
+      <c r="D199" s="16"/>
       <c r="E199" s="16"/>
       <c r="F199" s="16"/>
       <c r="G199" s="13"/>
@@ -9484,7 +9725,7 @@
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="16"/>
-      <c r="D200" s="13"/>
+      <c r="D200" s="16"/>
       <c r="E200" s="16"/>
       <c r="F200" s="16"/>
       <c r="G200" s="13"/>
@@ -9512,7 +9753,7 @@
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="16"/>
-      <c r="D201" s="13"/>
+      <c r="D201" s="16"/>
       <c r="E201" s="16"/>
       <c r="F201" s="16"/>
       <c r="G201" s="13"/>
@@ -9540,7 +9781,7 @@
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="16"/>
-      <c r="D202" s="13"/>
+      <c r="D202" s="16"/>
       <c r="E202" s="16"/>
       <c r="F202" s="16"/>
       <c r="G202" s="13"/>
@@ -9568,7 +9809,7 @@
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="16"/>
-      <c r="D203" s="13"/>
+      <c r="D203" s="16"/>
       <c r="E203" s="16"/>
       <c r="F203" s="16"/>
       <c r="G203" s="13"/>
@@ -9596,7 +9837,7 @@
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="16"/>
-      <c r="D204" s="13"/>
+      <c r="D204" s="16"/>
       <c r="E204" s="16"/>
       <c r="F204" s="16"/>
       <c r="G204" s="13"/>
@@ -9624,7 +9865,7 @@
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="16"/>
-      <c r="D205" s="13"/>
+      <c r="D205" s="16"/>
       <c r="E205" s="16"/>
       <c r="F205" s="16"/>
       <c r="G205" s="13"/>
@@ -9652,7 +9893,7 @@
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="16"/>
-      <c r="D206" s="13"/>
+      <c r="D206" s="16"/>
       <c r="E206" s="16"/>
       <c r="F206" s="16"/>
       <c r="G206" s="13"/>
@@ -9680,7 +9921,7 @@
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="16"/>
-      <c r="D207" s="13"/>
+      <c r="D207" s="16"/>
       <c r="E207" s="16"/>
       <c r="F207" s="16"/>
       <c r="G207" s="13"/>
@@ -9708,7 +9949,7 @@
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="16"/>
-      <c r="D208" s="13"/>
+      <c r="D208" s="16"/>
       <c r="E208" s="16"/>
       <c r="F208" s="16"/>
       <c r="G208" s="13"/>
@@ -9736,7 +9977,7 @@
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="16"/>
-      <c r="D209" s="13"/>
+      <c r="D209" s="16"/>
       <c r="E209" s="16"/>
       <c r="F209" s="16"/>
       <c r="G209" s="13"/>
@@ -9764,7 +10005,7 @@
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="16"/>
-      <c r="D210" s="13"/>
+      <c r="D210" s="16"/>
       <c r="E210" s="16"/>
       <c r="F210" s="16"/>
       <c r="G210" s="13"/>
@@ -9792,7 +10033,7 @@
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="16"/>
-      <c r="D211" s="13"/>
+      <c r="D211" s="16"/>
       <c r="E211" s="16"/>
       <c r="F211" s="16"/>
       <c r="G211" s="13"/>
@@ -9820,7 +10061,7 @@
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="16"/>
-      <c r="D212" s="13"/>
+      <c r="D212" s="16"/>
       <c r="E212" s="16"/>
       <c r="F212" s="16"/>
       <c r="G212" s="13"/>
@@ -9848,7 +10089,7 @@
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="16"/>
-      <c r="D213" s="13"/>
+      <c r="D213" s="16"/>
       <c r="E213" s="16"/>
       <c r="F213" s="16"/>
       <c r="G213" s="13"/>
@@ -9876,7 +10117,7 @@
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="16"/>
-      <c r="D214" s="13"/>
+      <c r="D214" s="16"/>
       <c r="E214" s="16"/>
       <c r="F214" s="16"/>
       <c r="G214" s="13"/>
@@ -9904,7 +10145,7 @@
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="16"/>
-      <c r="D215" s="13"/>
+      <c r="D215" s="16"/>
       <c r="E215" s="16"/>
       <c r="F215" s="16"/>
       <c r="G215" s="13"/>
@@ -9932,7 +10173,7 @@
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="16"/>
-      <c r="D216" s="13"/>
+      <c r="D216" s="16"/>
       <c r="E216" s="16"/>
       <c r="F216" s="16"/>
       <c r="G216" s="13"/>
@@ -9960,7 +10201,7 @@
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="16"/>
-      <c r="D217" s="13"/>
+      <c r="D217" s="16"/>
       <c r="E217" s="16"/>
       <c r="F217" s="16"/>
       <c r="G217" s="13"/>
@@ -9988,7 +10229,7 @@
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="16"/>
-      <c r="D218" s="13"/>
+      <c r="D218" s="16"/>
       <c r="E218" s="16"/>
       <c r="F218" s="16"/>
       <c r="G218" s="13"/>
@@ -10016,7 +10257,7 @@
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="16"/>
-      <c r="D219" s="13"/>
+      <c r="D219" s="16"/>
       <c r="E219" s="16"/>
       <c r="F219" s="16"/>
       <c r="G219" s="13"/>
@@ -10044,7 +10285,7 @@
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="16"/>
-      <c r="D220" s="13"/>
+      <c r="D220" s="16"/>
       <c r="E220" s="16"/>
       <c r="F220" s="16"/>
       <c r="G220" s="13"/>
@@ -10072,7 +10313,7 @@
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="16"/>
-      <c r="D221" s="13"/>
+      <c r="D221" s="16"/>
       <c r="E221" s="16"/>
       <c r="F221" s="16"/>
       <c r="G221" s="13"/>
@@ -10100,7 +10341,7 @@
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="16"/>
-      <c r="D222" s="13"/>
+      <c r="D222" s="16"/>
       <c r="E222" s="16"/>
       <c r="F222" s="16"/>
       <c r="G222" s="13"/>
@@ -10128,7 +10369,7 @@
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="16"/>
-      <c r="D223" s="13"/>
+      <c r="D223" s="16"/>
       <c r="E223" s="16"/>
       <c r="F223" s="16"/>
       <c r="G223" s="13"/>
@@ -10156,7 +10397,7 @@
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="16"/>
-      <c r="D224" s="13"/>
+      <c r="D224" s="16"/>
       <c r="E224" s="16"/>
       <c r="F224" s="16"/>
       <c r="G224" s="13"/>
@@ -10184,7 +10425,7 @@
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="16"/>
-      <c r="D225" s="13"/>
+      <c r="D225" s="16"/>
       <c r="E225" s="16"/>
       <c r="F225" s="16"/>
       <c r="G225" s="13"/>
@@ -10212,7 +10453,7 @@
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="16"/>
-      <c r="D226" s="13"/>
+      <c r="D226" s="16"/>
       <c r="E226" s="16"/>
       <c r="F226" s="16"/>
       <c r="G226" s="13"/>
@@ -10240,7 +10481,7 @@
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="16"/>
-      <c r="D227" s="13"/>
+      <c r="D227" s="16"/>
       <c r="E227" s="16"/>
       <c r="F227" s="16"/>
       <c r="G227" s="13"/>
@@ -10268,7 +10509,7 @@
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="16"/>
-      <c r="D228" s="13"/>
+      <c r="D228" s="16"/>
       <c r="E228" s="16"/>
       <c r="F228" s="16"/>
       <c r="G228" s="13"/>
@@ -10296,7 +10537,7 @@
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="16"/>
-      <c r="D229" s="13"/>
+      <c r="D229" s="16"/>
       <c r="E229" s="16"/>
       <c r="F229" s="16"/>
       <c r="G229" s="13"/>
@@ -10324,7 +10565,7 @@
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="16"/>
-      <c r="D230" s="13"/>
+      <c r="D230" s="16"/>
       <c r="E230" s="16"/>
       <c r="F230" s="16"/>
       <c r="G230" s="13"/>
@@ -10352,7 +10593,7 @@
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="16"/>
-      <c r="D231" s="13"/>
+      <c r="D231" s="16"/>
       <c r="E231" s="16"/>
       <c r="F231" s="16"/>
       <c r="G231" s="13"/>
@@ -10380,7 +10621,7 @@
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="16"/>
-      <c r="D232" s="13"/>
+      <c r="D232" s="16"/>
       <c r="E232" s="16"/>
       <c r="F232" s="16"/>
       <c r="G232" s="13"/>
@@ -10408,7 +10649,7 @@
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="16"/>
-      <c r="D233" s="13"/>
+      <c r="D233" s="16"/>
       <c r="E233" s="16"/>
       <c r="F233" s="16"/>
       <c r="G233" s="13"/>
@@ -10436,7 +10677,7 @@
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="16"/>
-      <c r="D234" s="13"/>
+      <c r="D234" s="16"/>
       <c r="E234" s="16"/>
       <c r="F234" s="16"/>
       <c r="G234" s="13"/>
@@ -10464,7 +10705,7 @@
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="16"/>
-      <c r="D235" s="13"/>
+      <c r="D235" s="16"/>
       <c r="E235" s="16"/>
       <c r="F235" s="16"/>
       <c r="G235" s="13"/>
@@ -10492,7 +10733,7 @@
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="16"/>
-      <c r="D236" s="13"/>
+      <c r="D236" s="16"/>
       <c r="E236" s="16"/>
       <c r="F236" s="16"/>
       <c r="G236" s="13"/>
@@ -10520,7 +10761,7 @@
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="16"/>
-      <c r="D237" s="13"/>
+      <c r="D237" s="16"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
       <c r="G237" s="13"/>
@@ -10548,7 +10789,7 @@
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="16"/>
-      <c r="D238" s="13"/>
+      <c r="D238" s="16"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
       <c r="G238" s="13"/>
@@ -10576,7 +10817,7 @@
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="16"/>
-      <c r="D239" s="13"/>
+      <c r="D239" s="16"/>
       <c r="E239" s="16"/>
       <c r="F239" s="16"/>
       <c r="G239" s="13"/>
@@ -10604,7 +10845,7 @@
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="16"/>
-      <c r="D240" s="13"/>
+      <c r="D240" s="16"/>
       <c r="E240" s="16"/>
       <c r="F240" s="16"/>
       <c r="G240" s="13"/>
@@ -10632,7 +10873,7 @@
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="16"/>
-      <c r="D241" s="13"/>
+      <c r="D241" s="16"/>
       <c r="E241" s="16"/>
       <c r="F241" s="16"/>
       <c r="G241" s="13"/>
@@ -10660,7 +10901,7 @@
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="16"/>
-      <c r="D242" s="13"/>
+      <c r="D242" s="16"/>
       <c r="E242" s="16"/>
       <c r="F242" s="16"/>
       <c r="G242" s="13"/>
@@ -10688,7 +10929,7 @@
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="16"/>
-      <c r="D243" s="13"/>
+      <c r="D243" s="16"/>
       <c r="E243" s="16"/>
       <c r="F243" s="16"/>
       <c r="G243" s="13"/>
@@ -10716,7 +10957,7 @@
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="16"/>
-      <c r="D244" s="13"/>
+      <c r="D244" s="16"/>
       <c r="E244" s="16"/>
       <c r="F244" s="16"/>
       <c r="G244" s="13"/>
@@ -10744,7 +10985,7 @@
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="16"/>
-      <c r="D245" s="13"/>
+      <c r="D245" s="16"/>
       <c r="E245" s="16"/>
       <c r="F245" s="16"/>
       <c r="G245" s="13"/>
@@ -10772,7 +11013,7 @@
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="16"/>
-      <c r="D246" s="13"/>
+      <c r="D246" s="16"/>
       <c r="E246" s="16"/>
       <c r="F246" s="16"/>
       <c r="G246" s="13"/>
@@ -10800,7 +11041,7 @@
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="16"/>
-      <c r="D247" s="13"/>
+      <c r="D247" s="16"/>
       <c r="E247" s="16"/>
       <c r="F247" s="16"/>
       <c r="G247" s="13"/>
@@ -10828,7 +11069,7 @@
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="16"/>
-      <c r="D248" s="13"/>
+      <c r="D248" s="16"/>
       <c r="E248" s="16"/>
       <c r="F248" s="16"/>
       <c r="G248" s="13"/>
@@ -10856,7 +11097,7 @@
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="16"/>
-      <c r="D249" s="13"/>
+      <c r="D249" s="16"/>
       <c r="E249" s="16"/>
       <c r="F249" s="16"/>
       <c r="G249" s="13"/>
@@ -10884,7 +11125,7 @@
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="16"/>
-      <c r="D250" s="13"/>
+      <c r="D250" s="16"/>
       <c r="E250" s="16"/>
       <c r="F250" s="16"/>
       <c r="G250" s="13"/>
@@ -10912,7 +11153,7 @@
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="16"/>
-      <c r="D251" s="13"/>
+      <c r="D251" s="16"/>
       <c r="E251" s="16"/>
       <c r="F251" s="16"/>
       <c r="G251" s="13"/>
@@ -10940,7 +11181,7 @@
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="16"/>
-      <c r="D252" s="13"/>
+      <c r="D252" s="16"/>
       <c r="E252" s="16"/>
       <c r="F252" s="16"/>
       <c r="G252" s="13"/>
@@ -10968,7 +11209,7 @@
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="16"/>
-      <c r="D253" s="13"/>
+      <c r="D253" s="16"/>
       <c r="E253" s="16"/>
       <c r="F253" s="16"/>
       <c r="G253" s="13"/>
@@ -10996,7 +11237,7 @@
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="16"/>
-      <c r="D254" s="13"/>
+      <c r="D254" s="16"/>
       <c r="E254" s="16"/>
       <c r="F254" s="16"/>
       <c r="G254" s="13"/>
@@ -11024,7 +11265,7 @@
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="16"/>
-      <c r="D255" s="13"/>
+      <c r="D255" s="16"/>
       <c r="E255" s="16"/>
       <c r="F255" s="16"/>
       <c r="G255" s="13"/>
@@ -11052,7 +11293,7 @@
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="16"/>
-      <c r="D256" s="13"/>
+      <c r="D256" s="16"/>
       <c r="E256" s="16"/>
       <c r="F256" s="16"/>
       <c r="G256" s="13"/>
@@ -11080,7 +11321,7 @@
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="16"/>
-      <c r="D257" s="13"/>
+      <c r="D257" s="16"/>
       <c r="E257" s="16"/>
       <c r="F257" s="16"/>
       <c r="G257" s="13"/>
@@ -11108,7 +11349,7 @@
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="16"/>
-      <c r="D258" s="13"/>
+      <c r="D258" s="16"/>
       <c r="E258" s="16"/>
       <c r="F258" s="16"/>
       <c r="G258" s="13"/>
@@ -11136,7 +11377,7 @@
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="16"/>
-      <c r="D259" s="13"/>
+      <c r="D259" s="16"/>
       <c r="E259" s="16"/>
       <c r="F259" s="16"/>
       <c r="G259" s="13"/>
@@ -11164,7 +11405,7 @@
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="16"/>
-      <c r="D260" s="13"/>
+      <c r="D260" s="16"/>
       <c r="E260" s="16"/>
       <c r="F260" s="16"/>
       <c r="G260" s="13"/>
@@ -11192,7 +11433,7 @@
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="16"/>
-      <c r="D261" s="13"/>
+      <c r="D261" s="16"/>
       <c r="E261" s="16"/>
       <c r="F261" s="16"/>
       <c r="G261" s="13"/>
@@ -11220,7 +11461,7 @@
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="16"/>
-      <c r="D262" s="13"/>
+      <c r="D262" s="16"/>
       <c r="E262" s="16"/>
       <c r="F262" s="16"/>
       <c r="G262" s="13"/>
@@ -11248,7 +11489,7 @@
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="16"/>
-      <c r="D263" s="13"/>
+      <c r="D263" s="16"/>
       <c r="E263" s="16"/>
       <c r="F263" s="16"/>
       <c r="G263" s="13"/>
@@ -11276,7 +11517,7 @@
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="16"/>
-      <c r="D264" s="13"/>
+      <c r="D264" s="16"/>
       <c r="E264" s="16"/>
       <c r="F264" s="16"/>
       <c r="G264" s="13"/>
@@ -11304,7 +11545,7 @@
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="16"/>
-      <c r="D265" s="13"/>
+      <c r="D265" s="16"/>
       <c r="E265" s="16"/>
       <c r="F265" s="16"/>
       <c r="G265" s="13"/>
@@ -11332,7 +11573,7 @@
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="16"/>
-      <c r="D266" s="13"/>
+      <c r="D266" s="16"/>
       <c r="E266" s="16"/>
       <c r="F266" s="16"/>
       <c r="G266" s="13"/>
@@ -11360,7 +11601,7 @@
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="16"/>
-      <c r="D267" s="13"/>
+      <c r="D267" s="16"/>
       <c r="E267" s="16"/>
       <c r="F267" s="16"/>
       <c r="G267" s="13"/>
@@ -11388,7 +11629,7 @@
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="16"/>
-      <c r="D268" s="13"/>
+      <c r="D268" s="16"/>
       <c r="E268" s="16"/>
       <c r="F268" s="16"/>
       <c r="G268" s="13"/>
@@ -11416,7 +11657,7 @@
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="16"/>
-      <c r="D269" s="13"/>
+      <c r="D269" s="16"/>
       <c r="E269" s="16"/>
       <c r="F269" s="16"/>
       <c r="G269" s="13"/>
@@ -11444,7 +11685,7 @@
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="16"/>
-      <c r="D270" s="13"/>
+      <c r="D270" s="16"/>
       <c r="E270" s="16"/>
       <c r="F270" s="16"/>
       <c r="G270" s="13"/>
@@ -11472,7 +11713,7 @@
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="16"/>
-      <c r="D271" s="13"/>
+      <c r="D271" s="16"/>
       <c r="E271" s="16"/>
       <c r="F271" s="16"/>
       <c r="G271" s="13"/>
@@ -11500,7 +11741,7 @@
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="16"/>
-      <c r="D272" s="13"/>
+      <c r="D272" s="16"/>
       <c r="E272" s="16"/>
       <c r="F272" s="16"/>
       <c r="G272" s="13"/>
@@ -11528,7 +11769,7 @@
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="16"/>
-      <c r="D273" s="13"/>
+      <c r="D273" s="16"/>
       <c r="E273" s="16"/>
       <c r="F273" s="16"/>
       <c r="G273" s="13"/>
@@ -11556,7 +11797,7 @@
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="16"/>
-      <c r="D274" s="13"/>
+      <c r="D274" s="16"/>
       <c r="E274" s="16"/>
       <c r="F274" s="16"/>
       <c r="G274" s="13"/>
@@ -11584,7 +11825,7 @@
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="16"/>
-      <c r="D275" s="13"/>
+      <c r="D275" s="16"/>
       <c r="E275" s="16"/>
       <c r="F275" s="16"/>
       <c r="G275" s="13"/>
@@ -11612,7 +11853,7 @@
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="16"/>
-      <c r="D276" s="13"/>
+      <c r="D276" s="16"/>
       <c r="E276" s="16"/>
       <c r="F276" s="16"/>
       <c r="G276" s="13"/>
@@ -11640,7 +11881,7 @@
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="16"/>
-      <c r="D277" s="13"/>
+      <c r="D277" s="16"/>
       <c r="E277" s="16"/>
       <c r="F277" s="16"/>
       <c r="G277" s="13"/>
@@ -11668,7 +11909,7 @@
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="16"/>
-      <c r="D278" s="13"/>
+      <c r="D278" s="16"/>
       <c r="E278" s="16"/>
       <c r="F278" s="16"/>
       <c r="G278" s="13"/>
@@ -11696,7 +11937,7 @@
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="16"/>
-      <c r="D279" s="13"/>
+      <c r="D279" s="16"/>
       <c r="E279" s="16"/>
       <c r="F279" s="16"/>
       <c r="G279" s="13"/>
@@ -11724,7 +11965,7 @@
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="16"/>
-      <c r="D280" s="13"/>
+      <c r="D280" s="16"/>
       <c r="E280" s="16"/>
       <c r="F280" s="16"/>
       <c r="G280" s="13"/>
@@ -11752,7 +11993,7 @@
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="16"/>
-      <c r="D281" s="13"/>
+      <c r="D281" s="16"/>
       <c r="E281" s="16"/>
       <c r="F281" s="16"/>
       <c r="G281" s="13"/>
@@ -11780,7 +12021,7 @@
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="16"/>
-      <c r="D282" s="13"/>
+      <c r="D282" s="16"/>
       <c r="E282" s="16"/>
       <c r="F282" s="16"/>
       <c r="G282" s="13"/>
@@ -11808,7 +12049,7 @@
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="16"/>
-      <c r="D283" s="13"/>
+      <c r="D283" s="16"/>
       <c r="E283" s="16"/>
       <c r="F283" s="16"/>
       <c r="G283" s="13"/>
@@ -11836,7 +12077,7 @@
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="16"/>
-      <c r="D284" s="13"/>
+      <c r="D284" s="16"/>
       <c r="E284" s="16"/>
       <c r="F284" s="16"/>
       <c r="G284" s="13"/>
@@ -11864,7 +12105,7 @@
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="16"/>
-      <c r="D285" s="13"/>
+      <c r="D285" s="16"/>
       <c r="E285" s="16"/>
       <c r="F285" s="16"/>
       <c r="G285" s="13"/>
@@ -11892,7 +12133,7 @@
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="16"/>
-      <c r="D286" s="13"/>
+      <c r="D286" s="16"/>
       <c r="E286" s="16"/>
       <c r="F286" s="16"/>
       <c r="G286" s="13"/>
@@ -11920,7 +12161,7 @@
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="16"/>
-      <c r="D287" s="13"/>
+      <c r="D287" s="16"/>
       <c r="E287" s="16"/>
       <c r="F287" s="16"/>
       <c r="G287" s="13"/>
@@ -11948,7 +12189,7 @@
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="16"/>
-      <c r="D288" s="13"/>
+      <c r="D288" s="16"/>
       <c r="E288" s="16"/>
       <c r="F288" s="16"/>
       <c r="G288" s="13"/>
@@ -11976,7 +12217,7 @@
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="16"/>
-      <c r="D289" s="13"/>
+      <c r="D289" s="16"/>
       <c r="E289" s="16"/>
       <c r="F289" s="16"/>
       <c r="G289" s="13"/>
@@ -12004,7 +12245,7 @@
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="16"/>
-      <c r="D290" s="13"/>
+      <c r="D290" s="16"/>
       <c r="E290" s="16"/>
       <c r="F290" s="16"/>
       <c r="G290" s="13"/>
@@ -12032,7 +12273,7 @@
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="16"/>
-      <c r="D291" s="13"/>
+      <c r="D291" s="16"/>
       <c r="E291" s="16"/>
       <c r="F291" s="16"/>
       <c r="G291" s="13"/>
@@ -12060,7 +12301,7 @@
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="16"/>
-      <c r="D292" s="13"/>
+      <c r="D292" s="16"/>
       <c r="E292" s="16"/>
       <c r="F292" s="16"/>
       <c r="G292" s="13"/>
@@ -12088,7 +12329,7 @@
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="16"/>
-      <c r="D293" s="13"/>
+      <c r="D293" s="16"/>
       <c r="E293" s="16"/>
       <c r="F293" s="16"/>
       <c r="G293" s="13"/>
@@ -12116,7 +12357,7 @@
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="16"/>
-      <c r="D294" s="13"/>
+      <c r="D294" s="16"/>
       <c r="E294" s="16"/>
       <c r="F294" s="16"/>
       <c r="G294" s="13"/>
@@ -12144,7 +12385,7 @@
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="16"/>
-      <c r="D295" s="13"/>
+      <c r="D295" s="16"/>
       <c r="E295" s="16"/>
       <c r="F295" s="16"/>
       <c r="G295" s="13"/>
@@ -12172,7 +12413,7 @@
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="16"/>
-      <c r="D296" s="13"/>
+      <c r="D296" s="16"/>
       <c r="E296" s="16"/>
       <c r="F296" s="16"/>
       <c r="G296" s="13"/>
@@ -12200,7 +12441,7 @@
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="16"/>
-      <c r="D297" s="13"/>
+      <c r="D297" s="16"/>
       <c r="E297" s="16"/>
       <c r="F297" s="16"/>
       <c r="G297" s="13"/>
@@ -12228,7 +12469,7 @@
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="16"/>
-      <c r="D298" s="13"/>
+      <c r="D298" s="16"/>
       <c r="E298" s="16"/>
       <c r="F298" s="16"/>
       <c r="G298" s="13"/>
@@ -12256,7 +12497,7 @@
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="16"/>
-      <c r="D299" s="13"/>
+      <c r="D299" s="16"/>
       <c r="E299" s="16"/>
       <c r="F299" s="16"/>
       <c r="G299" s="13"/>
@@ -12284,7 +12525,7 @@
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="16"/>
-      <c r="D300" s="13"/>
+      <c r="D300" s="16"/>
       <c r="E300" s="16"/>
       <c r="F300" s="16"/>
       <c r="G300" s="13"/>
@@ -12312,7 +12553,7 @@
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="16"/>
-      <c r="D301" s="13"/>
+      <c r="D301" s="16"/>
       <c r="E301" s="16"/>
       <c r="F301" s="16"/>
       <c r="G301" s="13"/>
@@ -12340,7 +12581,7 @@
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="16"/>
-      <c r="D302" s="13"/>
+      <c r="D302" s="16"/>
       <c r="E302" s="16"/>
       <c r="F302" s="16"/>
       <c r="G302" s="13"/>
@@ -12368,7 +12609,7 @@
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="16"/>
-      <c r="D303" s="13"/>
+      <c r="D303" s="16"/>
       <c r="E303" s="16"/>
       <c r="F303" s="16"/>
       <c r="G303" s="13"/>
@@ -12396,7 +12637,7 @@
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="16"/>
-      <c r="D304" s="13"/>
+      <c r="D304" s="16"/>
       <c r="E304" s="16"/>
       <c r="F304" s="16"/>
       <c r="G304" s="13"/>
@@ -12424,7 +12665,7 @@
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="16"/>
-      <c r="D305" s="13"/>
+      <c r="D305" s="16"/>
       <c r="E305" s="16"/>
       <c r="F305" s="16"/>
       <c r="G305" s="13"/>
@@ -12452,7 +12693,7 @@
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="16"/>
-      <c r="D306" s="13"/>
+      <c r="D306" s="16"/>
       <c r="E306" s="16"/>
       <c r="F306" s="16"/>
       <c r="G306" s="13"/>
@@ -12480,7 +12721,7 @@
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="16"/>
-      <c r="D307" s="13"/>
+      <c r="D307" s="16"/>
       <c r="E307" s="16"/>
       <c r="F307" s="16"/>
       <c r="G307" s="13"/>
@@ -12508,7 +12749,7 @@
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="16"/>
-      <c r="D308" s="13"/>
+      <c r="D308" s="16"/>
       <c r="E308" s="16"/>
       <c r="F308" s="16"/>
       <c r="G308" s="13"/>
@@ -12536,7 +12777,7 @@
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="16"/>
-      <c r="D309" s="13"/>
+      <c r="D309" s="16"/>
       <c r="E309" s="16"/>
       <c r="F309" s="16"/>
       <c r="G309" s="13"/>
@@ -12564,7 +12805,7 @@
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="16"/>
-      <c r="D310" s="13"/>
+      <c r="D310" s="16"/>
       <c r="E310" s="16"/>
       <c r="F310" s="16"/>
       <c r="G310" s="13"/>
@@ -12592,7 +12833,7 @@
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="16"/>
-      <c r="D311" s="13"/>
+      <c r="D311" s="16"/>
       <c r="E311" s="16"/>
       <c r="F311" s="16"/>
       <c r="G311" s="13"/>
@@ -12620,7 +12861,7 @@
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="16"/>
-      <c r="D312" s="13"/>
+      <c r="D312" s="16"/>
       <c r="E312" s="16"/>
       <c r="F312" s="16"/>
       <c r="G312" s="13"/>
@@ -12648,7 +12889,7 @@
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="16"/>
-      <c r="D313" s="13"/>
+      <c r="D313" s="16"/>
       <c r="E313" s="16"/>
       <c r="F313" s="16"/>
       <c r="G313" s="13"/>
@@ -12676,7 +12917,7 @@
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="16"/>
-      <c r="D314" s="13"/>
+      <c r="D314" s="16"/>
       <c r="E314" s="16"/>
       <c r="F314" s="16"/>
       <c r="G314" s="13"/>
@@ -12704,7 +12945,7 @@
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="16"/>
-      <c r="D315" s="13"/>
+      <c r="D315" s="16"/>
       <c r="E315" s="16"/>
       <c r="F315" s="16"/>
       <c r="G315" s="13"/>
@@ -12732,7 +12973,7 @@
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="16"/>
-      <c r="D316" s="13"/>
+      <c r="D316" s="16"/>
       <c r="E316" s="16"/>
       <c r="F316" s="16"/>
       <c r="G316" s="13"/>
@@ -12760,7 +13001,7 @@
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="16"/>
-      <c r="D317" s="13"/>
+      <c r="D317" s="16"/>
       <c r="E317" s="16"/>
       <c r="F317" s="16"/>
       <c r="G317" s="13"/>
@@ -12788,7 +13029,7 @@
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="16"/>
-      <c r="D318" s="13"/>
+      <c r="D318" s="16"/>
       <c r="E318" s="16"/>
       <c r="F318" s="16"/>
       <c r="G318" s="13"/>
@@ -12816,7 +13057,7 @@
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="16"/>
-      <c r="D319" s="13"/>
+      <c r="D319" s="16"/>
       <c r="E319" s="16"/>
       <c r="F319" s="16"/>
       <c r="G319" s="13"/>
@@ -12844,7 +13085,7 @@
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="16"/>
-      <c r="D320" s="13"/>
+      <c r="D320" s="16"/>
       <c r="E320" s="16"/>
       <c r="F320" s="16"/>
       <c r="G320" s="13"/>
@@ -12872,7 +13113,7 @@
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="16"/>
-      <c r="D321" s="13"/>
+      <c r="D321" s="16"/>
       <c r="E321" s="16"/>
       <c r="F321" s="16"/>
       <c r="G321" s="13"/>
@@ -12900,7 +13141,7 @@
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="16"/>
-      <c r="D322" s="13"/>
+      <c r="D322" s="16"/>
       <c r="E322" s="16"/>
       <c r="F322" s="16"/>
       <c r="G322" s="13"/>
@@ -12928,7 +13169,7 @@
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="16"/>
-      <c r="D323" s="13"/>
+      <c r="D323" s="16"/>
       <c r="E323" s="16"/>
       <c r="F323" s="16"/>
       <c r="G323" s="13"/>
@@ -12956,7 +13197,7 @@
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="16"/>
-      <c r="D324" s="13"/>
+      <c r="D324" s="16"/>
       <c r="E324" s="16"/>
       <c r="F324" s="16"/>
       <c r="G324" s="13"/>
@@ -12984,7 +13225,7 @@
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="16"/>
-      <c r="D325" s="13"/>
+      <c r="D325" s="16"/>
       <c r="E325" s="16"/>
       <c r="F325" s="16"/>
       <c r="G325" s="13"/>
@@ -13012,7 +13253,7 @@
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="16"/>
-      <c r="D326" s="13"/>
+      <c r="D326" s="16"/>
       <c r="E326" s="16"/>
       <c r="F326" s="16"/>
       <c r="G326" s="13"/>
@@ -13040,7 +13281,7 @@
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="16"/>
-      <c r="D327" s="13"/>
+      <c r="D327" s="16"/>
       <c r="E327" s="16"/>
       <c r="F327" s="16"/>
       <c r="G327" s="13"/>
@@ -13068,7 +13309,7 @@
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="16"/>
-      <c r="D328" s="13"/>
+      <c r="D328" s="16"/>
       <c r="E328" s="16"/>
       <c r="F328" s="16"/>
       <c r="G328" s="13"/>
@@ -13096,7 +13337,7 @@
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="16"/>
-      <c r="D329" s="13"/>
+      <c r="D329" s="16"/>
       <c r="E329" s="16"/>
       <c r="F329" s="16"/>
       <c r="G329" s="13"/>
@@ -13124,7 +13365,7 @@
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="16"/>
-      <c r="D330" s="13"/>
+      <c r="D330" s="16"/>
       <c r="E330" s="16"/>
       <c r="F330" s="16"/>
       <c r="G330" s="13"/>
@@ -13152,7 +13393,7 @@
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="16"/>
-      <c r="D331" s="13"/>
+      <c r="D331" s="16"/>
       <c r="E331" s="16"/>
       <c r="F331" s="16"/>
       <c r="G331" s="13"/>
@@ -13180,7 +13421,7 @@
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="16"/>
-      <c r="D332" s="13"/>
+      <c r="D332" s="16"/>
       <c r="E332" s="16"/>
       <c r="F332" s="16"/>
       <c r="G332" s="13"/>
@@ -13208,7 +13449,7 @@
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="16"/>
-      <c r="D333" s="13"/>
+      <c r="D333" s="16"/>
       <c r="E333" s="16"/>
       <c r="F333" s="16"/>
       <c r="G333" s="13"/>
@@ -13236,7 +13477,7 @@
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="16"/>
-      <c r="D334" s="13"/>
+      <c r="D334" s="16"/>
       <c r="E334" s="16"/>
       <c r="F334" s="16"/>
       <c r="G334" s="13"/>
@@ -13264,7 +13505,7 @@
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="16"/>
-      <c r="D335" s="13"/>
+      <c r="D335" s="16"/>
       <c r="E335" s="16"/>
       <c r="F335" s="16"/>
       <c r="G335" s="13"/>
@@ -13292,7 +13533,7 @@
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="16"/>
-      <c r="D336" s="13"/>
+      <c r="D336" s="16"/>
       <c r="E336" s="16"/>
       <c r="F336" s="16"/>
       <c r="G336" s="13"/>
@@ -13320,7 +13561,7 @@
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="16"/>
-      <c r="D337" s="13"/>
+      <c r="D337" s="16"/>
       <c r="E337" s="16"/>
       <c r="F337" s="16"/>
       <c r="G337" s="13"/>
@@ -13348,7 +13589,7 @@
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="16"/>
-      <c r="D338" s="13"/>
+      <c r="D338" s="16"/>
       <c r="E338" s="16"/>
       <c r="F338" s="16"/>
       <c r="G338" s="13"/>
@@ -13376,7 +13617,7 @@
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="16"/>
-      <c r="D339" s="13"/>
+      <c r="D339" s="16"/>
       <c r="E339" s="16"/>
       <c r="F339" s="16"/>
       <c r="G339" s="13"/>
@@ -13404,7 +13645,7 @@
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="16"/>
-      <c r="D340" s="13"/>
+      <c r="D340" s="16"/>
       <c r="E340" s="16"/>
       <c r="F340" s="16"/>
       <c r="G340" s="13"/>
@@ -13432,7 +13673,7 @@
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="16"/>
-      <c r="D341" s="13"/>
+      <c r="D341" s="16"/>
       <c r="E341" s="16"/>
       <c r="F341" s="16"/>
       <c r="G341" s="13"/>
@@ -13460,7 +13701,7 @@
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="16"/>
-      <c r="D342" s="13"/>
+      <c r="D342" s="16"/>
       <c r="E342" s="16"/>
       <c r="F342" s="16"/>
       <c r="G342" s="13"/>
@@ -13488,7 +13729,7 @@
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="16"/>
-      <c r="D343" s="13"/>
+      <c r="D343" s="16"/>
       <c r="E343" s="16"/>
       <c r="F343" s="16"/>
       <c r="G343" s="13"/>
@@ -13516,7 +13757,7 @@
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="16"/>
-      <c r="D344" s="13"/>
+      <c r="D344" s="16"/>
       <c r="E344" s="16"/>
       <c r="F344" s="16"/>
       <c r="G344" s="13"/>
@@ -13544,7 +13785,7 @@
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="16"/>
-      <c r="D345" s="13"/>
+      <c r="D345" s="16"/>
       <c r="E345" s="16"/>
       <c r="F345" s="16"/>
       <c r="G345" s="13"/>
@@ -13572,7 +13813,7 @@
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="16"/>
-      <c r="D346" s="13"/>
+      <c r="D346" s="16"/>
       <c r="E346" s="16"/>
       <c r="F346" s="16"/>
       <c r="G346" s="13"/>
@@ -13600,7 +13841,7 @@
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="16"/>
-      <c r="D347" s="13"/>
+      <c r="D347" s="16"/>
       <c r="E347" s="16"/>
       <c r="F347" s="16"/>
       <c r="G347" s="13"/>
@@ -13628,7 +13869,7 @@
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="16"/>
-      <c r="D348" s="13"/>
+      <c r="D348" s="16"/>
       <c r="E348" s="16"/>
       <c r="F348" s="16"/>
       <c r="G348" s="13"/>
@@ -13656,7 +13897,7 @@
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="16"/>
-      <c r="D349" s="13"/>
+      <c r="D349" s="16"/>
       <c r="E349" s="16"/>
       <c r="F349" s="16"/>
       <c r="G349" s="13"/>
@@ -13684,7 +13925,7 @@
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="16"/>
-      <c r="D350" s="13"/>
+      <c r="D350" s="16"/>
       <c r="E350" s="16"/>
       <c r="F350" s="16"/>
       <c r="G350" s="13"/>
@@ -13712,7 +13953,7 @@
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="16"/>
-      <c r="D351" s="13"/>
+      <c r="D351" s="16"/>
       <c r="E351" s="16"/>
       <c r="F351" s="16"/>
       <c r="G351" s="13"/>
@@ -13740,7 +13981,7 @@
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="16"/>
-      <c r="D352" s="13"/>
+      <c r="D352" s="16"/>
       <c r="E352" s="16"/>
       <c r="F352" s="16"/>
       <c r="G352" s="13"/>
@@ -13768,7 +14009,7 @@
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="16"/>
-      <c r="D353" s="13"/>
+      <c r="D353" s="16"/>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
       <c r="G353" s="13"/>
@@ -13796,7 +14037,7 @@
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="16"/>
-      <c r="D354" s="13"/>
+      <c r="D354" s="16"/>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
       <c r="G354" s="13"/>
@@ -13824,7 +14065,7 @@
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="16"/>
-      <c r="D355" s="13"/>
+      <c r="D355" s="16"/>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
       <c r="G355" s="13"/>
@@ -13852,7 +14093,7 @@
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="16"/>
-      <c r="D356" s="13"/>
+      <c r="D356" s="16"/>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
       <c r="G356" s="13"/>
@@ -13880,7 +14121,7 @@
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="16"/>
-      <c r="D357" s="13"/>
+      <c r="D357" s="16"/>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
       <c r="G357" s="13"/>
@@ -13908,7 +14149,7 @@
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="16"/>
-      <c r="D358" s="13"/>
+      <c r="D358" s="16"/>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
       <c r="G358" s="13"/>
@@ -13936,7 +14177,7 @@
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="16"/>
-      <c r="D359" s="13"/>
+      <c r="D359" s="16"/>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
       <c r="G359" s="13"/>
@@ -13964,7 +14205,7 @@
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="16"/>
-      <c r="D360" s="13"/>
+      <c r="D360" s="16"/>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
       <c r="G360" s="13"/>
@@ -13992,7 +14233,7 @@
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="16"/>
-      <c r="D361" s="13"/>
+      <c r="D361" s="16"/>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
       <c r="G361" s="13"/>
@@ -14020,7 +14261,7 @@
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="16"/>
-      <c r="D362" s="13"/>
+      <c r="D362" s="16"/>
       <c r="E362" s="16"/>
       <c r="F362" s="16"/>
       <c r="G362" s="13"/>
@@ -14048,7 +14289,7 @@
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="16"/>
-      <c r="D363" s="13"/>
+      <c r="D363" s="16"/>
       <c r="E363" s="16"/>
       <c r="F363" s="16"/>
       <c r="G363" s="13"/>
@@ -14076,7 +14317,7 @@
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="16"/>
-      <c r="D364" s="13"/>
+      <c r="D364" s="16"/>
       <c r="E364" s="16"/>
       <c r="F364" s="16"/>
       <c r="G364" s="13"/>
@@ -14104,7 +14345,7 @@
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="16"/>
-      <c r="D365" s="13"/>
+      <c r="D365" s="16"/>
       <c r="E365" s="16"/>
       <c r="F365" s="16"/>
       <c r="G365" s="13"/>
@@ -14132,7 +14373,7 @@
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="16"/>
-      <c r="D366" s="13"/>
+      <c r="D366" s="16"/>
       <c r="E366" s="16"/>
       <c r="F366" s="16"/>
       <c r="G366" s="13"/>
@@ -14160,7 +14401,7 @@
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="16"/>
-      <c r="D367" s="13"/>
+      <c r="D367" s="16"/>
       <c r="E367" s="16"/>
       <c r="F367" s="16"/>
       <c r="G367" s="13"/>
@@ -14188,7 +14429,7 @@
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="16"/>
-      <c r="D368" s="13"/>
+      <c r="D368" s="16"/>
       <c r="E368" s="16"/>
       <c r="F368" s="16"/>
       <c r="G368" s="13"/>
@@ -14216,7 +14457,7 @@
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="16"/>
-      <c r="D369" s="13"/>
+      <c r="D369" s="16"/>
       <c r="E369" s="16"/>
       <c r="F369" s="16"/>
       <c r="G369" s="13"/>
@@ -14244,7 +14485,7 @@
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="16"/>
-      <c r="D370" s="13"/>
+      <c r="D370" s="16"/>
       <c r="E370" s="16"/>
       <c r="F370" s="16"/>
       <c r="G370" s="13"/>
@@ -14272,7 +14513,7 @@
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="16"/>
-      <c r="D371" s="13"/>
+      <c r="D371" s="16"/>
       <c r="E371" s="16"/>
       <c r="F371" s="16"/>
       <c r="G371" s="13"/>
@@ -14300,7 +14541,7 @@
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="16"/>
-      <c r="D372" s="13"/>
+      <c r="D372" s="16"/>
       <c r="E372" s="16"/>
       <c r="F372" s="16"/>
       <c r="G372" s="13"/>
@@ -14328,7 +14569,7 @@
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="16"/>
-      <c r="D373" s="13"/>
+      <c r="D373" s="16"/>
       <c r="E373" s="16"/>
       <c r="F373" s="16"/>
       <c r="G373" s="13"/>
@@ -14356,7 +14597,7 @@
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="16"/>
-      <c r="D374" s="13"/>
+      <c r="D374" s="16"/>
       <c r="E374" s="16"/>
       <c r="F374" s="16"/>
       <c r="G374" s="13"/>
@@ -14384,7 +14625,7 @@
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="16"/>
-      <c r="D375" s="13"/>
+      <c r="D375" s="16"/>
       <c r="E375" s="16"/>
       <c r="F375" s="16"/>
       <c r="G375" s="13"/>
@@ -14412,7 +14653,7 @@
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="16"/>
-      <c r="D376" s="13"/>
+      <c r="D376" s="16"/>
       <c r="E376" s="16"/>
       <c r="F376" s="16"/>
       <c r="G376" s="13"/>
@@ -14440,7 +14681,7 @@
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="16"/>
-      <c r="D377" s="13"/>
+      <c r="D377" s="16"/>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
       <c r="G377" s="13"/>
@@ -14468,7 +14709,7 @@
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="16"/>
-      <c r="D378" s="13"/>
+      <c r="D378" s="16"/>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
       <c r="G378" s="13"/>
@@ -14496,7 +14737,7 @@
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="16"/>
-      <c r="D379" s="13"/>
+      <c r="D379" s="16"/>
       <c r="E379" s="16"/>
       <c r="F379" s="16"/>
       <c r="G379" s="13"/>
@@ -14524,7 +14765,7 @@
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="16"/>
-      <c r="D380" s="13"/>
+      <c r="D380" s="16"/>
       <c r="E380" s="16"/>
       <c r="F380" s="16"/>
       <c r="G380" s="13"/>
@@ -14552,7 +14793,7 @@
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="16"/>
-      <c r="D381" s="13"/>
+      <c r="D381" s="16"/>
       <c r="E381" s="16"/>
       <c r="F381" s="16"/>
       <c r="G381" s="13"/>
@@ -14580,7 +14821,7 @@
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="16"/>
-      <c r="D382" s="13"/>
+      <c r="D382" s="16"/>
       <c r="E382" s="16"/>
       <c r="F382" s="16"/>
       <c r="G382" s="13"/>
@@ -14608,7 +14849,7 @@
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="16"/>
-      <c r="D383" s="13"/>
+      <c r="D383" s="16"/>
       <c r="E383" s="16"/>
       <c r="F383" s="16"/>
       <c r="G383" s="13"/>
@@ -14636,7 +14877,7 @@
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="16"/>
-      <c r="D384" s="13"/>
+      <c r="D384" s="16"/>
       <c r="E384" s="16"/>
       <c r="F384" s="16"/>
       <c r="G384" s="13"/>
@@ -14664,7 +14905,7 @@
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="16"/>
-      <c r="D385" s="13"/>
+      <c r="D385" s="16"/>
       <c r="E385" s="16"/>
       <c r="F385" s="16"/>
       <c r="G385" s="13"/>
@@ -14692,7 +14933,7 @@
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="16"/>
-      <c r="D386" s="13"/>
+      <c r="D386" s="16"/>
       <c r="E386" s="16"/>
       <c r="F386" s="16"/>
       <c r="G386" s="13"/>
@@ -14720,7 +14961,7 @@
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="16"/>
-      <c r="D387" s="13"/>
+      <c r="D387" s="16"/>
       <c r="E387" s="16"/>
       <c r="F387" s="16"/>
       <c r="G387" s="13"/>
@@ -14748,7 +14989,7 @@
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="16"/>
-      <c r="D388" s="13"/>
+      <c r="D388" s="16"/>
       <c r="E388" s="16"/>
       <c r="F388" s="16"/>
       <c r="G388" s="13"/>
@@ -14776,7 +15017,7 @@
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="16"/>
-      <c r="D389" s="13"/>
+      <c r="D389" s="16"/>
       <c r="E389" s="16"/>
       <c r="F389" s="16"/>
       <c r="G389" s="13"/>
@@ -14804,7 +15045,7 @@
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="16"/>
-      <c r="D390" s="13"/>
+      <c r="D390" s="16"/>
       <c r="E390" s="16"/>
       <c r="F390" s="16"/>
       <c r="G390" s="13"/>
@@ -14832,7 +15073,7 @@
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="16"/>
-      <c r="D391" s="13"/>
+      <c r="D391" s="16"/>
       <c r="E391" s="16"/>
       <c r="F391" s="16"/>
       <c r="G391" s="13"/>
@@ -14860,7 +15101,7 @@
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="16"/>
-      <c r="D392" s="13"/>
+      <c r="D392" s="16"/>
       <c r="E392" s="16"/>
       <c r="F392" s="16"/>
       <c r="G392" s="13"/>
@@ -14888,7 +15129,7 @@
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="16"/>
-      <c r="D393" s="13"/>
+      <c r="D393" s="16"/>
       <c r="E393" s="16"/>
       <c r="F393" s="16"/>
       <c r="G393" s="13"/>
@@ -14916,7 +15157,7 @@
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="16"/>
-      <c r="D394" s="13"/>
+      <c r="D394" s="16"/>
       <c r="E394" s="16"/>
       <c r="F394" s="16"/>
       <c r="G394" s="13"/>
@@ -14944,7 +15185,7 @@
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="16"/>
-      <c r="D395" s="13"/>
+      <c r="D395" s="16"/>
       <c r="E395" s="16"/>
       <c r="F395" s="16"/>
       <c r="G395" s="13"/>
@@ -14972,7 +15213,7 @@
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="16"/>
-      <c r="D396" s="13"/>
+      <c r="D396" s="16"/>
       <c r="E396" s="16"/>
       <c r="F396" s="16"/>
       <c r="G396" s="13"/>
@@ -15000,7 +15241,7 @@
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="16"/>
-      <c r="D397" s="13"/>
+      <c r="D397" s="16"/>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
       <c r="G397" s="13"/>
@@ -15028,7 +15269,7 @@
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="16"/>
-      <c r="D398" s="13"/>
+      <c r="D398" s="16"/>
       <c r="E398" s="16"/>
       <c r="F398" s="16"/>
       <c r="G398" s="13"/>
@@ -15056,7 +15297,7 @@
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="16"/>
-      <c r="D399" s="13"/>
+      <c r="D399" s="16"/>
       <c r="E399" s="16"/>
       <c r="F399" s="16"/>
       <c r="G399" s="13"/>
@@ -15084,7 +15325,7 @@
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="16"/>
-      <c r="D400" s="13"/>
+      <c r="D400" s="16"/>
       <c r="E400" s="16"/>
       <c r="F400" s="16"/>
       <c r="G400" s="13"/>
@@ -15112,7 +15353,7 @@
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="16"/>
-      <c r="D401" s="13"/>
+      <c r="D401" s="16"/>
       <c r="E401" s="16"/>
       <c r="F401" s="16"/>
       <c r="G401" s="13"/>
@@ -15140,7 +15381,7 @@
       <c r="A402" s="13"/>
       <c r="B402" s="13"/>
       <c r="C402" s="16"/>
-      <c r="D402" s="13"/>
+      <c r="D402" s="16"/>
       <c r="E402" s="16"/>
       <c r="F402" s="16"/>
       <c r="G402" s="13"/>
@@ -15168,7 +15409,7 @@
       <c r="A403" s="13"/>
       <c r="B403" s="13"/>
       <c r="C403" s="16"/>
-      <c r="D403" s="13"/>
+      <c r="D403" s="16"/>
       <c r="E403" s="16"/>
       <c r="F403" s="16"/>
       <c r="G403" s="13"/>
@@ -15196,7 +15437,7 @@
       <c r="A404" s="13"/>
       <c r="B404" s="13"/>
       <c r="C404" s="16"/>
-      <c r="D404" s="13"/>
+      <c r="D404" s="16"/>
       <c r="E404" s="16"/>
       <c r="F404" s="16"/>
       <c r="G404" s="13"/>
@@ -15224,7 +15465,7 @@
       <c r="A405" s="13"/>
       <c r="B405" s="13"/>
       <c r="C405" s="16"/>
-      <c r="D405" s="13"/>
+      <c r="D405" s="16"/>
       <c r="E405" s="16"/>
       <c r="F405" s="16"/>
       <c r="G405" s="13"/>
@@ -15252,7 +15493,7 @@
       <c r="A406" s="13"/>
       <c r="B406" s="13"/>
       <c r="C406" s="16"/>
-      <c r="D406" s="13"/>
+      <c r="D406" s="16"/>
       <c r="E406" s="16"/>
       <c r="F406" s="16"/>
       <c r="G406" s="13"/>
@@ -15280,7 +15521,7 @@
       <c r="A407" s="13"/>
       <c r="B407" s="13"/>
       <c r="C407" s="16"/>
-      <c r="D407" s="13"/>
+      <c r="D407" s="16"/>
       <c r="E407" s="16"/>
       <c r="F407" s="16"/>
       <c r="G407" s="13"/>
@@ -15308,7 +15549,7 @@
       <c r="A408" s="13"/>
       <c r="B408" s="13"/>
       <c r="C408" s="16"/>
-      <c r="D408" s="13"/>
+      <c r="D408" s="16"/>
       <c r="E408" s="16"/>
       <c r="F408" s="16"/>
       <c r="G408" s="13"/>
@@ -15336,7 +15577,7 @@
       <c r="A409" s="13"/>
       <c r="B409" s="13"/>
       <c r="C409" s="16"/>
-      <c r="D409" s="13"/>
+      <c r="D409" s="16"/>
       <c r="E409" s="16"/>
       <c r="F409" s="16"/>
       <c r="G409" s="13"/>
@@ -15364,7 +15605,7 @@
       <c r="A410" s="13"/>
       <c r="B410" s="13"/>
       <c r="C410" s="16"/>
-      <c r="D410" s="13"/>
+      <c r="D410" s="16"/>
       <c r="E410" s="16"/>
       <c r="F410" s="16"/>
       <c r="G410" s="13"/>
@@ -15392,7 +15633,7 @@
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="16"/>
-      <c r="D411" s="13"/>
+      <c r="D411" s="16"/>
       <c r="E411" s="16"/>
       <c r="F411" s="16"/>
       <c r="G411" s="13"/>
@@ -15420,7 +15661,7 @@
       <c r="A412" s="13"/>
       <c r="B412" s="13"/>
       <c r="C412" s="16"/>
-      <c r="D412" s="13"/>
+      <c r="D412" s="16"/>
       <c r="E412" s="16"/>
       <c r="F412" s="16"/>
       <c r="G412" s="13"/>
@@ -15448,7 +15689,7 @@
       <c r="A413" s="13"/>
       <c r="B413" s="13"/>
       <c r="C413" s="16"/>
-      <c r="D413" s="13"/>
+      <c r="D413" s="16"/>
       <c r="E413" s="16"/>
       <c r="F413" s="16"/>
       <c r="G413" s="13"/>
@@ -15476,7 +15717,7 @@
       <c r="A414" s="13"/>
       <c r="B414" s="13"/>
       <c r="C414" s="16"/>
-      <c r="D414" s="13"/>
+      <c r="D414" s="16"/>
       <c r="E414" s="16"/>
       <c r="F414" s="16"/>
       <c r="G414" s="13"/>
@@ -15504,7 +15745,7 @@
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="16"/>
-      <c r="D415" s="13"/>
+      <c r="D415" s="16"/>
       <c r="E415" s="16"/>
       <c r="F415" s="16"/>
       <c r="G415" s="13"/>
@@ -15532,7 +15773,7 @@
       <c r="A416" s="13"/>
       <c r="B416" s="13"/>
       <c r="C416" s="16"/>
-      <c r="D416" s="13"/>
+      <c r="D416" s="16"/>
       <c r="E416" s="16"/>
       <c r="F416" s="16"/>
       <c r="G416" s="13"/>
@@ -15560,7 +15801,7 @@
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="C417" s="16"/>
-      <c r="D417" s="13"/>
+      <c r="D417" s="16"/>
       <c r="E417" s="16"/>
       <c r="F417" s="16"/>
       <c r="G417" s="13"/>
@@ -15588,7 +15829,7 @@
       <c r="A418" s="13"/>
       <c r="B418" s="13"/>
       <c r="C418" s="16"/>
-      <c r="D418" s="13"/>
+      <c r="D418" s="16"/>
       <c r="E418" s="16"/>
       <c r="F418" s="16"/>
       <c r="G418" s="13"/>
@@ -15616,7 +15857,7 @@
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="16"/>
-      <c r="D419" s="13"/>
+      <c r="D419" s="16"/>
       <c r="E419" s="16"/>
       <c r="F419" s="16"/>
       <c r="G419" s="13"/>
@@ -15644,7 +15885,7 @@
       <c r="A420" s="13"/>
       <c r="B420" s="13"/>
       <c r="C420" s="16"/>
-      <c r="D420" s="13"/>
+      <c r="D420" s="16"/>
       <c r="E420" s="16"/>
       <c r="F420" s="16"/>
       <c r="G420" s="13"/>
@@ -15672,7 +15913,7 @@
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="16"/>
-      <c r="D421" s="13"/>
+      <c r="D421" s="16"/>
       <c r="E421" s="16"/>
       <c r="F421" s="16"/>
       <c r="G421" s="13"/>
@@ -15700,7 +15941,7 @@
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="16"/>
-      <c r="D422" s="13"/>
+      <c r="D422" s="16"/>
       <c r="E422" s="16"/>
       <c r="F422" s="16"/>
       <c r="G422" s="13"/>
@@ -15728,7 +15969,7 @@
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="16"/>
-      <c r="D423" s="13"/>
+      <c r="D423" s="16"/>
       <c r="E423" s="16"/>
       <c r="F423" s="16"/>
       <c r="G423" s="13"/>
@@ -15756,7 +15997,7 @@
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="16"/>
-      <c r="D424" s="13"/>
+      <c r="D424" s="16"/>
       <c r="E424" s="16"/>
       <c r="F424" s="16"/>
       <c r="G424" s="13"/>
@@ -15784,7 +16025,7 @@
       <c r="A425" s="13"/>
       <c r="B425" s="13"/>
       <c r="C425" s="16"/>
-      <c r="D425" s="13"/>
+      <c r="D425" s="16"/>
       <c r="E425" s="16"/>
       <c r="F425" s="16"/>
       <c r="G425" s="13"/>
@@ -15812,7 +16053,7 @@
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="C426" s="16"/>
-      <c r="D426" s="13"/>
+      <c r="D426" s="16"/>
       <c r="E426" s="16"/>
       <c r="F426" s="16"/>
       <c r="G426" s="13"/>
@@ -15840,7 +16081,7 @@
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="16"/>
-      <c r="D427" s="13"/>
+      <c r="D427" s="16"/>
       <c r="E427" s="16"/>
       <c r="F427" s="16"/>
       <c r="G427" s="13"/>
@@ -15868,7 +16109,7 @@
       <c r="A428" s="13"/>
       <c r="B428" s="13"/>
       <c r="C428" s="16"/>
-      <c r="D428" s="13"/>
+      <c r="D428" s="16"/>
       <c r="E428" s="16"/>
       <c r="F428" s="16"/>
       <c r="G428" s="13"/>
@@ -15896,7 +16137,7 @@
       <c r="A429" s="13"/>
       <c r="B429" s="13"/>
       <c r="C429" s="16"/>
-      <c r="D429" s="13"/>
+      <c r="D429" s="16"/>
       <c r="E429" s="16"/>
       <c r="F429" s="16"/>
       <c r="G429" s="13"/>
@@ -15924,7 +16165,7 @@
       <c r="A430" s="13"/>
       <c r="B430" s="13"/>
       <c r="C430" s="16"/>
-      <c r="D430" s="13"/>
+      <c r="D430" s="16"/>
       <c r="E430" s="16"/>
       <c r="F430" s="16"/>
       <c r="G430" s="13"/>
@@ -15952,7 +16193,7 @@
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="16"/>
-      <c r="D431" s="13"/>
+      <c r="D431" s="16"/>
       <c r="E431" s="16"/>
       <c r="F431" s="16"/>
       <c r="G431" s="13"/>
@@ -15980,7 +16221,7 @@
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
       <c r="C432" s="16"/>
-      <c r="D432" s="13"/>
+      <c r="D432" s="16"/>
       <c r="E432" s="16"/>
       <c r="F432" s="16"/>
       <c r="G432" s="13"/>
@@ -16008,7 +16249,7 @@
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
       <c r="C433" s="16"/>
-      <c r="D433" s="13"/>
+      <c r="D433" s="16"/>
       <c r="E433" s="16"/>
       <c r="F433" s="16"/>
       <c r="G433" s="13"/>
@@ -16036,7 +16277,7 @@
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
       <c r="C434" s="16"/>
-      <c r="D434" s="13"/>
+      <c r="D434" s="16"/>
       <c r="E434" s="16"/>
       <c r="F434" s="16"/>
       <c r="G434" s="13"/>
@@ -16064,7 +16305,7 @@
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="16"/>
-      <c r="D435" s="13"/>
+      <c r="D435" s="16"/>
       <c r="E435" s="16"/>
       <c r="F435" s="16"/>
       <c r="G435" s="13"/>
@@ -16092,7 +16333,7 @@
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
       <c r="C436" s="16"/>
-      <c r="D436" s="13"/>
+      <c r="D436" s="16"/>
       <c r="E436" s="16"/>
       <c r="F436" s="16"/>
       <c r="G436" s="13"/>
@@ -16120,7 +16361,7 @@
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
       <c r="C437" s="16"/>
-      <c r="D437" s="13"/>
+      <c r="D437" s="16"/>
       <c r="E437" s="16"/>
       <c r="F437" s="16"/>
       <c r="G437" s="13"/>
@@ -16148,7 +16389,7 @@
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="16"/>
-      <c r="D438" s="13"/>
+      <c r="D438" s="16"/>
       <c r="E438" s="16"/>
       <c r="F438" s="16"/>
       <c r="G438" s="13"/>
@@ -16176,7 +16417,7 @@
       <c r="A439" s="13"/>
       <c r="B439" s="13"/>
       <c r="C439" s="16"/>
-      <c r="D439" s="13"/>
+      <c r="D439" s="16"/>
       <c r="E439" s="16"/>
       <c r="F439" s="16"/>
       <c r="G439" s="13"/>
@@ -16204,7 +16445,7 @@
       <c r="A440" s="13"/>
       <c r="B440" s="13"/>
       <c r="C440" s="16"/>
-      <c r="D440" s="13"/>
+      <c r="D440" s="16"/>
       <c r="E440" s="16"/>
       <c r="F440" s="16"/>
       <c r="G440" s="13"/>
@@ -16232,7 +16473,7 @@
       <c r="A441" s="13"/>
       <c r="B441" s="13"/>
       <c r="C441" s="16"/>
-      <c r="D441" s="13"/>
+      <c r="D441" s="16"/>
       <c r="E441" s="16"/>
       <c r="F441" s="16"/>
       <c r="G441" s="13"/>
@@ -16260,7 +16501,7 @@
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="16"/>
-      <c r="D442" s="13"/>
+      <c r="D442" s="16"/>
       <c r="E442" s="16"/>
       <c r="F442" s="16"/>
       <c r="G442" s="13"/>
@@ -16288,7 +16529,7 @@
       <c r="A443" s="13"/>
       <c r="B443" s="13"/>
       <c r="C443" s="16"/>
-      <c r="D443" s="13"/>
+      <c r="D443" s="16"/>
       <c r="E443" s="16"/>
       <c r="F443" s="16"/>
       <c r="G443" s="13"/>
@@ -16316,7 +16557,7 @@
       <c r="A444" s="13"/>
       <c r="B444" s="13"/>
       <c r="C444" s="16"/>
-      <c r="D444" s="13"/>
+      <c r="D444" s="16"/>
       <c r="E444" s="16"/>
       <c r="F444" s="16"/>
       <c r="G444" s="13"/>
@@ -16344,7 +16585,7 @@
       <c r="A445" s="13"/>
       <c r="B445" s="13"/>
       <c r="C445" s="16"/>
-      <c r="D445" s="13"/>
+      <c r="D445" s="16"/>
       <c r="E445" s="16"/>
       <c r="F445" s="16"/>
       <c r="G445" s="13"/>
@@ -16372,7 +16613,7 @@
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="16"/>
-      <c r="D446" s="13"/>
+      <c r="D446" s="16"/>
       <c r="E446" s="16"/>
       <c r="F446" s="16"/>
       <c r="G446" s="13"/>
@@ -16400,7 +16641,7 @@
       <c r="A447" s="13"/>
       <c r="B447" s="13"/>
       <c r="C447" s="16"/>
-      <c r="D447" s="13"/>
+      <c r="D447" s="16"/>
       <c r="E447" s="16"/>
       <c r="F447" s="16"/>
       <c r="G447" s="13"/>
@@ -16428,7 +16669,7 @@
       <c r="A448" s="13"/>
       <c r="B448" s="13"/>
       <c r="C448" s="16"/>
-      <c r="D448" s="13"/>
+      <c r="D448" s="16"/>
       <c r="E448" s="16"/>
       <c r="F448" s="16"/>
       <c r="G448" s="13"/>
@@ -16456,7 +16697,7 @@
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="16"/>
-      <c r="D449" s="13"/>
+      <c r="D449" s="16"/>
       <c r="E449" s="16"/>
       <c r="F449" s="16"/>
       <c r="G449" s="13"/>
@@ -16484,7 +16725,7 @@
       <c r="A450" s="13"/>
       <c r="B450" s="13"/>
       <c r="C450" s="16"/>
-      <c r="D450" s="13"/>
+      <c r="D450" s="16"/>
       <c r="E450" s="16"/>
       <c r="F450" s="16"/>
       <c r="G450" s="13"/>
@@ -16512,7 +16753,7 @@
       <c r="A451" s="13"/>
       <c r="B451" s="13"/>
       <c r="C451" s="16"/>
-      <c r="D451" s="13"/>
+      <c r="D451" s="16"/>
       <c r="E451" s="16"/>
       <c r="F451" s="16"/>
       <c r="G451" s="13"/>
@@ -16540,7 +16781,7 @@
       <c r="A452" s="13"/>
       <c r="B452" s="13"/>
       <c r="C452" s="16"/>
-      <c r="D452" s="13"/>
+      <c r="D452" s="16"/>
       <c r="E452" s="16"/>
       <c r="F452" s="16"/>
       <c r="G452" s="13"/>
@@ -16568,7 +16809,7 @@
       <c r="A453" s="13"/>
       <c r="B453" s="13"/>
       <c r="C453" s="16"/>
-      <c r="D453" s="13"/>
+      <c r="D453" s="16"/>
       <c r="E453" s="16"/>
       <c r="F453" s="16"/>
       <c r="G453" s="13"/>
@@ -16596,7 +16837,7 @@
       <c r="A454" s="13"/>
       <c r="B454" s="13"/>
       <c r="C454" s="16"/>
-      <c r="D454" s="13"/>
+      <c r="D454" s="16"/>
       <c r="E454" s="16"/>
       <c r="F454" s="16"/>
       <c r="G454" s="13"/>
@@ -16624,7 +16865,7 @@
       <c r="A455" s="13"/>
       <c r="B455" s="13"/>
       <c r="C455" s="16"/>
-      <c r="D455" s="13"/>
+      <c r="D455" s="16"/>
       <c r="E455" s="16"/>
       <c r="F455" s="16"/>
       <c r="G455" s="13"/>
@@ -16652,7 +16893,7 @@
       <c r="A456" s="13"/>
       <c r="B456" s="13"/>
       <c r="C456" s="16"/>
-      <c r="D456" s="13"/>
+      <c r="D456" s="16"/>
       <c r="E456" s="16"/>
       <c r="F456" s="16"/>
       <c r="G456" s="13"/>
@@ -16680,7 +16921,7 @@
       <c r="A457" s="13"/>
       <c r="B457" s="13"/>
       <c r="C457" s="16"/>
-      <c r="D457" s="13"/>
+      <c r="D457" s="16"/>
       <c r="E457" s="16"/>
       <c r="F457" s="16"/>
       <c r="G457" s="13"/>
@@ -16708,7 +16949,7 @@
       <c r="A458" s="13"/>
       <c r="B458" s="13"/>
       <c r="C458" s="16"/>
-      <c r="D458" s="13"/>
+      <c r="D458" s="16"/>
       <c r="E458" s="16"/>
       <c r="F458" s="16"/>
       <c r="G458" s="13"/>
@@ -16736,7 +16977,7 @@
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="16"/>
-      <c r="D459" s="13"/>
+      <c r="D459" s="16"/>
       <c r="E459" s="16"/>
       <c r="F459" s="16"/>
       <c r="G459" s="13"/>
@@ -16764,7 +17005,7 @@
       <c r="A460" s="13"/>
       <c r="B460" s="13"/>
       <c r="C460" s="16"/>
-      <c r="D460" s="13"/>
+      <c r="D460" s="16"/>
       <c r="E460" s="16"/>
       <c r="F460" s="16"/>
       <c r="G460" s="13"/>
@@ -16792,7 +17033,7 @@
       <c r="A461" s="13"/>
       <c r="B461" s="13"/>
       <c r="C461" s="16"/>
-      <c r="D461" s="13"/>
+      <c r="D461" s="16"/>
       <c r="E461" s="16"/>
       <c r="F461" s="16"/>
       <c r="G461" s="13"/>
@@ -16820,7 +17061,7 @@
       <c r="A462" s="13"/>
       <c r="B462" s="13"/>
       <c r="C462" s="16"/>
-      <c r="D462" s="13"/>
+      <c r="D462" s="16"/>
       <c r="E462" s="16"/>
       <c r="F462" s="16"/>
       <c r="G462" s="13"/>
@@ -16848,7 +17089,7 @@
       <c r="A463" s="13"/>
       <c r="B463" s="13"/>
       <c r="C463" s="16"/>
-      <c r="D463" s="13"/>
+      <c r="D463" s="16"/>
       <c r="E463" s="16"/>
       <c r="F463" s="16"/>
       <c r="G463" s="13"/>
@@ -16876,7 +17117,7 @@
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="16"/>
-      <c r="D464" s="13"/>
+      <c r="D464" s="16"/>
       <c r="E464" s="16"/>
       <c r="F464" s="16"/>
       <c r="G464" s="13"/>
@@ -16904,7 +17145,7 @@
       <c r="A465" s="13"/>
       <c r="B465" s="13"/>
       <c r="C465" s="16"/>
-      <c r="D465" s="13"/>
+      <c r="D465" s="16"/>
       <c r="E465" s="16"/>
       <c r="F465" s="16"/>
       <c r="G465" s="13"/>
@@ -16932,7 +17173,7 @@
       <c r="A466" s="13"/>
       <c r="B466" s="13"/>
       <c r="C466" s="16"/>
-      <c r="D466" s="13"/>
+      <c r="D466" s="16"/>
       <c r="E466" s="16"/>
       <c r="F466" s="16"/>
       <c r="G466" s="13"/>
@@ -16960,7 +17201,7 @@
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
       <c r="C467" s="16"/>
-      <c r="D467" s="13"/>
+      <c r="D467" s="16"/>
       <c r="E467" s="16"/>
       <c r="F467" s="16"/>
       <c r="G467" s="13"/>
@@ -16988,7 +17229,7 @@
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="16"/>
-      <c r="D468" s="13"/>
+      <c r="D468" s="16"/>
       <c r="E468" s="16"/>
       <c r="F468" s="16"/>
       <c r="G468" s="13"/>
@@ -17016,7 +17257,7 @@
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
       <c r="C469" s="16"/>
-      <c r="D469" s="13"/>
+      <c r="D469" s="16"/>
       <c r="E469" s="16"/>
       <c r="F469" s="16"/>
       <c r="G469" s="13"/>
@@ -17044,7 +17285,7 @@
       <c r="A470" s="13"/>
       <c r="B470" s="13"/>
       <c r="C470" s="16"/>
-      <c r="D470" s="13"/>
+      <c r="D470" s="16"/>
       <c r="E470" s="16"/>
       <c r="F470" s="16"/>
       <c r="G470" s="13"/>
@@ -17072,7 +17313,7 @@
       <c r="A471" s="13"/>
       <c r="B471" s="13"/>
       <c r="C471" s="16"/>
-      <c r="D471" s="13"/>
+      <c r="D471" s="16"/>
       <c r="E471" s="16"/>
       <c r="F471" s="16"/>
       <c r="G471" s="13"/>
@@ -17100,7 +17341,7 @@
       <c r="A472" s="13"/>
       <c r="B472" s="13"/>
       <c r="C472" s="16"/>
-      <c r="D472" s="13"/>
+      <c r="D472" s="16"/>
       <c r="E472" s="16"/>
       <c r="F472" s="16"/>
       <c r="G472" s="13"/>
@@ -17128,7 +17369,7 @@
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="16"/>
-      <c r="D473" s="13"/>
+      <c r="D473" s="16"/>
       <c r="E473" s="16"/>
       <c r="F473" s="16"/>
       <c r="G473" s="13"/>
@@ -17156,7 +17397,7 @@
       <c r="A474" s="13"/>
       <c r="B474" s="13"/>
       <c r="C474" s="16"/>
-      <c r="D474" s="13"/>
+      <c r="D474" s="16"/>
       <c r="E474" s="16"/>
       <c r="F474" s="16"/>
       <c r="G474" s="13"/>
@@ -17184,7 +17425,7 @@
       <c r="A475" s="13"/>
       <c r="B475" s="13"/>
       <c r="C475" s="16"/>
-      <c r="D475" s="13"/>
+      <c r="D475" s="16"/>
       <c r="E475" s="16"/>
       <c r="F475" s="16"/>
       <c r="G475" s="13"/>
@@ -17212,7 +17453,7 @@
       <c r="A476" s="13"/>
       <c r="B476" s="13"/>
       <c r="C476" s="16"/>
-      <c r="D476" s="13"/>
+      <c r="D476" s="16"/>
       <c r="E476" s="16"/>
       <c r="F476" s="16"/>
       <c r="G476" s="13"/>
@@ -17240,7 +17481,7 @@
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="16"/>
-      <c r="D477" s="13"/>
+      <c r="D477" s="16"/>
       <c r="E477" s="16"/>
       <c r="F477" s="16"/>
       <c r="G477" s="13"/>
@@ -17268,7 +17509,7 @@
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
       <c r="C478" s="16"/>
-      <c r="D478" s="13"/>
+      <c r="D478" s="16"/>
       <c r="E478" s="16"/>
       <c r="F478" s="16"/>
       <c r="G478" s="13"/>
@@ -17296,7 +17537,7 @@
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
       <c r="C479" s="16"/>
-      <c r="D479" s="13"/>
+      <c r="D479" s="16"/>
       <c r="E479" s="16"/>
       <c r="F479" s="16"/>
       <c r="G479" s="13"/>
@@ -17324,7 +17565,7 @@
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
       <c r="C480" s="16"/>
-      <c r="D480" s="13"/>
+      <c r="D480" s="16"/>
       <c r="E480" s="16"/>
       <c r="F480" s="16"/>
       <c r="G480" s="13"/>
@@ -17352,7 +17593,7 @@
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="16"/>
-      <c r="D481" s="13"/>
+      <c r="D481" s="16"/>
       <c r="E481" s="16"/>
       <c r="F481" s="16"/>
       <c r="G481" s="13"/>
@@ -17380,7 +17621,7 @@
       <c r="A482" s="13"/>
       <c r="B482" s="13"/>
       <c r="C482" s="16"/>
-      <c r="D482" s="13"/>
+      <c r="D482" s="16"/>
       <c r="E482" s="16"/>
       <c r="F482" s="16"/>
       <c r="G482" s="13"/>
@@ -17408,7 +17649,7 @@
       <c r="A483" s="13"/>
       <c r="B483" s="13"/>
       <c r="C483" s="16"/>
-      <c r="D483" s="13"/>
+      <c r="D483" s="16"/>
       <c r="E483" s="16"/>
       <c r="F483" s="16"/>
       <c r="G483" s="13"/>
@@ -17436,7 +17677,7 @@
       <c r="A484" s="13"/>
       <c r="B484" s="13"/>
       <c r="C484" s="16"/>
-      <c r="D484" s="13"/>
+      <c r="D484" s="16"/>
       <c r="E484" s="16"/>
       <c r="F484" s="16"/>
       <c r="G484" s="13"/>
@@ -17464,7 +17705,7 @@
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="16"/>
-      <c r="D485" s="13"/>
+      <c r="D485" s="16"/>
       <c r="E485" s="16"/>
       <c r="F485" s="16"/>
       <c r="G485" s="13"/>
@@ -17492,7 +17733,7 @@
       <c r="A486" s="13"/>
       <c r="B486" s="13"/>
       <c r="C486" s="16"/>
-      <c r="D486" s="13"/>
+      <c r="D486" s="16"/>
       <c r="E486" s="16"/>
       <c r="F486" s="16"/>
       <c r="G486" s="13"/>
@@ -17520,7 +17761,7 @@
       <c r="A487" s="13"/>
       <c r="B487" s="13"/>
       <c r="C487" s="16"/>
-      <c r="D487" s="13"/>
+      <c r="D487" s="16"/>
       <c r="E487" s="16"/>
       <c r="F487" s="16"/>
       <c r="G487" s="13"/>
@@ -17548,7 +17789,7 @@
       <c r="A488" s="13"/>
       <c r="B488" s="13"/>
       <c r="C488" s="16"/>
-      <c r="D488" s="13"/>
+      <c r="D488" s="16"/>
       <c r="E488" s="16"/>
       <c r="F488" s="16"/>
       <c r="G488" s="13"/>
@@ -17576,7 +17817,7 @@
       <c r="A489" s="13"/>
       <c r="B489" s="13"/>
       <c r="C489" s="16"/>
-      <c r="D489" s="13"/>
+      <c r="D489" s="16"/>
       <c r="E489" s="16"/>
       <c r="F489" s="16"/>
       <c r="G489" s="13"/>
@@ -17604,7 +17845,7 @@
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="16"/>
-      <c r="D490" s="13"/>
+      <c r="D490" s="16"/>
       <c r="E490" s="16"/>
       <c r="F490" s="16"/>
       <c r="G490" s="13"/>
@@ -17632,7 +17873,7 @@
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
       <c r="C491" s="16"/>
-      <c r="D491" s="13"/>
+      <c r="D491" s="16"/>
       <c r="E491" s="16"/>
       <c r="F491" s="16"/>
       <c r="G491" s="13"/>
@@ -17660,7 +17901,7 @@
       <c r="A492" s="13"/>
       <c r="B492" s="13"/>
       <c r="C492" s="16"/>
-      <c r="D492" s="13"/>
+      <c r="D492" s="16"/>
       <c r="E492" s="16"/>
       <c r="F492" s="16"/>
       <c r="G492" s="13"/>
@@ -17688,7 +17929,7 @@
       <c r="A493" s="13"/>
       <c r="B493" s="13"/>
       <c r="C493" s="16"/>
-      <c r="D493" s="13"/>
+      <c r="D493" s="16"/>
       <c r="E493" s="16"/>
       <c r="F493" s="16"/>
       <c r="G493" s="13"/>
@@ -17716,7 +17957,7 @@
       <c r="A494" s="13"/>
       <c r="B494" s="13"/>
       <c r="C494" s="16"/>
-      <c r="D494" s="13"/>
+      <c r="D494" s="16"/>
       <c r="E494" s="16"/>
       <c r="F494" s="16"/>
       <c r="G494" s="13"/>
@@ -17744,7 +17985,7 @@
       <c r="A495" s="13"/>
       <c r="B495" s="13"/>
       <c r="C495" s="16"/>
-      <c r="D495" s="13"/>
+      <c r="D495" s="16"/>
       <c r="E495" s="16"/>
       <c r="F495" s="16"/>
       <c r="G495" s="13"/>
@@ -17772,7 +18013,7 @@
       <c r="A496" s="13"/>
       <c r="B496" s="13"/>
       <c r="C496" s="16"/>
-      <c r="D496" s="13"/>
+      <c r="D496" s="16"/>
       <c r="E496" s="16"/>
       <c r="F496" s="16"/>
       <c r="G496" s="13"/>
@@ -17800,7 +18041,7 @@
       <c r="A497" s="13"/>
       <c r="B497" s="13"/>
       <c r="C497" s="16"/>
-      <c r="D497" s="13"/>
+      <c r="D497" s="16"/>
       <c r="E497" s="16"/>
       <c r="F497" s="16"/>
       <c r="G497" s="13"/>
@@ -17828,7 +18069,7 @@
       <c r="A498" s="13"/>
       <c r="B498" s="13"/>
       <c r="C498" s="16"/>
-      <c r="D498" s="13"/>
+      <c r="D498" s="16"/>
       <c r="E498" s="16"/>
       <c r="F498" s="16"/>
       <c r="G498" s="13"/>
@@ -17856,7 +18097,7 @@
       <c r="A499" s="13"/>
       <c r="B499" s="13"/>
       <c r="C499" s="16"/>
-      <c r="D499" s="13"/>
+      <c r="D499" s="16"/>
       <c r="E499" s="16"/>
       <c r="F499" s="16"/>
       <c r="G499" s="13"/>
@@ -17884,7 +18125,7 @@
       <c r="A500" s="13"/>
       <c r="B500" s="13"/>
       <c r="C500" s="16"/>
-      <c r="D500" s="13"/>
+      <c r="D500" s="16"/>
       <c r="E500" s="16"/>
       <c r="F500" s="16"/>
       <c r="G500" s="13"/>
@@ -17912,7 +18153,7 @@
       <c r="A501" s="13"/>
       <c r="B501" s="13"/>
       <c r="C501" s="16"/>
-      <c r="D501" s="13"/>
+      <c r="D501" s="16"/>
       <c r="E501" s="16"/>
       <c r="F501" s="16"/>
       <c r="G501" s="13"/>
@@ -17940,7 +18181,7 @@
       <c r="A502" s="13"/>
       <c r="B502" s="13"/>
       <c r="C502" s="16"/>
-      <c r="D502" s="13"/>
+      <c r="D502" s="16"/>
       <c r="E502" s="16"/>
       <c r="F502" s="16"/>
       <c r="G502" s="13"/>
@@ -17968,7 +18209,7 @@
       <c r="A503" s="13"/>
       <c r="B503" s="13"/>
       <c r="C503" s="16"/>
-      <c r="D503" s="13"/>
+      <c r="D503" s="16"/>
       <c r="E503" s="16"/>
       <c r="F503" s="16"/>
       <c r="G503" s="13"/>
@@ -17996,7 +18237,7 @@
       <c r="A504" s="13"/>
       <c r="B504" s="13"/>
       <c r="C504" s="16"/>
-      <c r="D504" s="13"/>
+      <c r="D504" s="16"/>
       <c r="E504" s="16"/>
       <c r="F504" s="16"/>
       <c r="G504" s="13"/>
@@ -18024,7 +18265,7 @@
       <c r="A505" s="13"/>
       <c r="B505" s="13"/>
       <c r="C505" s="16"/>
-      <c r="D505" s="13"/>
+      <c r="D505" s="16"/>
       <c r="E505" s="16"/>
       <c r="F505" s="16"/>
       <c r="G505" s="13"/>
@@ -18052,7 +18293,7 @@
       <c r="A506" s="13"/>
       <c r="B506" s="13"/>
       <c r="C506" s="16"/>
-      <c r="D506" s="13"/>
+      <c r="D506" s="16"/>
       <c r="E506" s="16"/>
       <c r="F506" s="16"/>
       <c r="G506" s="13"/>
@@ -18080,7 +18321,7 @@
       <c r="A507" s="13"/>
       <c r="B507" s="13"/>
       <c r="C507" s="16"/>
-      <c r="D507" s="13"/>
+      <c r="D507" s="16"/>
       <c r="E507" s="16"/>
       <c r="F507" s="16"/>
       <c r="G507" s="13"/>
@@ -18108,7 +18349,7 @@
       <c r="A508" s="13"/>
       <c r="B508" s="13"/>
       <c r="C508" s="16"/>
-      <c r="D508" s="13"/>
+      <c r="D508" s="16"/>
       <c r="E508" s="16"/>
       <c r="F508" s="16"/>
       <c r="G508" s="13"/>
@@ -18136,7 +18377,7 @@
       <c r="A509" s="13"/>
       <c r="B509" s="13"/>
       <c r="C509" s="16"/>
-      <c r="D509" s="13"/>
+      <c r="D509" s="16"/>
       <c r="E509" s="16"/>
       <c r="F509" s="16"/>
       <c r="G509" s="13"/>
@@ -18164,7 +18405,7 @@
       <c r="A510" s="13"/>
       <c r="B510" s="13"/>
       <c r="C510" s="16"/>
-      <c r="D510" s="13"/>
+      <c r="D510" s="16"/>
       <c r="E510" s="16"/>
       <c r="F510" s="16"/>
       <c r="G510" s="13"/>
@@ -18192,7 +18433,7 @@
       <c r="A511" s="13"/>
       <c r="B511" s="13"/>
       <c r="C511" s="16"/>
-      <c r="D511" s="13"/>
+      <c r="D511" s="16"/>
       <c r="E511" s="16"/>
       <c r="F511" s="16"/>
       <c r="G511" s="13"/>
@@ -18220,7 +18461,7 @@
       <c r="A512" s="13"/>
       <c r="B512" s="13"/>
       <c r="C512" s="16"/>
-      <c r="D512" s="13"/>
+      <c r="D512" s="16"/>
       <c r="E512" s="16"/>
       <c r="F512" s="16"/>
       <c r="G512" s="13"/>
@@ -18248,7 +18489,7 @@
       <c r="A513" s="13"/>
       <c r="B513" s="13"/>
       <c r="C513" s="16"/>
-      <c r="D513" s="13"/>
+      <c r="D513" s="16"/>
       <c r="E513" s="16"/>
       <c r="F513" s="16"/>
       <c r="G513" s="13"/>
@@ -18276,7 +18517,7 @@
       <c r="A514" s="13"/>
       <c r="B514" s="13"/>
       <c r="C514" s="16"/>
-      <c r="D514" s="13"/>
+      <c r="D514" s="16"/>
       <c r="E514" s="16"/>
       <c r="F514" s="16"/>
       <c r="G514" s="13"/>
@@ -18304,7 +18545,7 @@
       <c r="A515" s="13"/>
       <c r="B515" s="13"/>
       <c r="C515" s="16"/>
-      <c r="D515" s="13"/>
+      <c r="D515" s="16"/>
       <c r="E515" s="16"/>
       <c r="F515" s="16"/>
       <c r="G515" s="13"/>
@@ -18332,7 +18573,7 @@
       <c r="A516" s="13"/>
       <c r="B516" s="13"/>
       <c r="C516" s="16"/>
-      <c r="D516" s="13"/>
+      <c r="D516" s="16"/>
       <c r="E516" s="16"/>
       <c r="F516" s="16"/>
       <c r="G516" s="13"/>
@@ -18360,7 +18601,7 @@
       <c r="A517" s="13"/>
       <c r="B517" s="13"/>
       <c r="C517" s="16"/>
-      <c r="D517" s="13"/>
+      <c r="D517" s="16"/>
       <c r="E517" s="16"/>
       <c r="F517" s="16"/>
       <c r="G517" s="13"/>
@@ -18388,7 +18629,7 @@
       <c r="A518" s="13"/>
       <c r="B518" s="13"/>
       <c r="C518" s="16"/>
-      <c r="D518" s="13"/>
+      <c r="D518" s="16"/>
       <c r="E518" s="16"/>
       <c r="F518" s="16"/>
       <c r="G518" s="13"/>
@@ -18416,7 +18657,7 @@
       <c r="A519" s="13"/>
       <c r="B519" s="13"/>
       <c r="C519" s="16"/>
-      <c r="D519" s="13"/>
+      <c r="D519" s="16"/>
       <c r="E519" s="16"/>
       <c r="F519" s="16"/>
       <c r="G519" s="13"/>
@@ -18444,7 +18685,7 @@
       <c r="A520" s="13"/>
       <c r="B520" s="13"/>
       <c r="C520" s="16"/>
-      <c r="D520" s="13"/>
+      <c r="D520" s="16"/>
       <c r="E520" s="16"/>
       <c r="F520" s="16"/>
       <c r="G520" s="13"/>
@@ -18472,7 +18713,7 @@
       <c r="A521" s="13"/>
       <c r="B521" s="13"/>
       <c r="C521" s="16"/>
-      <c r="D521" s="13"/>
+      <c r="D521" s="16"/>
       <c r="E521" s="16"/>
       <c r="F521" s="16"/>
       <c r="G521" s="13"/>
@@ -18500,7 +18741,7 @@
       <c r="A522" s="13"/>
       <c r="B522" s="13"/>
       <c r="C522" s="16"/>
-      <c r="D522" s="13"/>
+      <c r="D522" s="16"/>
       <c r="E522" s="16"/>
       <c r="F522" s="16"/>
       <c r="G522" s="13"/>
@@ -18528,7 +18769,7 @@
       <c r="A523" s="13"/>
       <c r="B523" s="13"/>
       <c r="C523" s="16"/>
-      <c r="D523" s="13"/>
+      <c r="D523" s="16"/>
       <c r="E523" s="16"/>
       <c r="F523" s="16"/>
       <c r="G523" s="13"/>
@@ -18556,7 +18797,7 @@
       <c r="A524" s="13"/>
       <c r="B524" s="13"/>
       <c r="C524" s="16"/>
-      <c r="D524" s="13"/>
+      <c r="D524" s="16"/>
       <c r="E524" s="16"/>
       <c r="F524" s="16"/>
       <c r="G524" s="13"/>
@@ -18584,7 +18825,7 @@
       <c r="A525" s="13"/>
       <c r="B525" s="13"/>
       <c r="C525" s="16"/>
-      <c r="D525" s="13"/>
+      <c r="D525" s="16"/>
       <c r="E525" s="16"/>
       <c r="F525" s="16"/>
       <c r="G525" s="13"/>
@@ -18612,7 +18853,7 @@
       <c r="A526" s="13"/>
       <c r="B526" s="13"/>
       <c r="C526" s="16"/>
-      <c r="D526" s="13"/>
+      <c r="D526" s="16"/>
       <c r="E526" s="16"/>
       <c r="F526" s="16"/>
       <c r="G526" s="13"/>
@@ -18640,7 +18881,7 @@
       <c r="A527" s="13"/>
       <c r="B527" s="13"/>
       <c r="C527" s="16"/>
-      <c r="D527" s="13"/>
+      <c r="D527" s="16"/>
       <c r="E527" s="16"/>
       <c r="F527" s="16"/>
       <c r="G527" s="13"/>
@@ -18668,7 +18909,7 @@
       <c r="A528" s="13"/>
       <c r="B528" s="13"/>
       <c r="C528" s="16"/>
-      <c r="D528" s="13"/>
+      <c r="D528" s="16"/>
       <c r="E528" s="16"/>
       <c r="F528" s="16"/>
       <c r="G528" s="13"/>
@@ -18696,7 +18937,7 @@
       <c r="A529" s="13"/>
       <c r="B529" s="13"/>
       <c r="C529" s="16"/>
-      <c r="D529" s="13"/>
+      <c r="D529" s="16"/>
       <c r="E529" s="16"/>
       <c r="F529" s="16"/>
       <c r="G529" s="13"/>
@@ -18724,7 +18965,7 @@
       <c r="A530" s="13"/>
       <c r="B530" s="13"/>
       <c r="C530" s="16"/>
-      <c r="D530" s="13"/>
+      <c r="D530" s="16"/>
       <c r="E530" s="16"/>
       <c r="F530" s="16"/>
       <c r="G530" s="13"/>
@@ -18752,7 +18993,7 @@
       <c r="A531" s="13"/>
       <c r="B531" s="13"/>
       <c r="C531" s="16"/>
-      <c r="D531" s="13"/>
+      <c r="D531" s="16"/>
       <c r="E531" s="16"/>
       <c r="F531" s="16"/>
       <c r="G531" s="13"/>
@@ -18780,7 +19021,7 @@
       <c r="A532" s="13"/>
       <c r="B532" s="13"/>
       <c r="C532" s="16"/>
-      <c r="D532" s="13"/>
+      <c r="D532" s="16"/>
       <c r="E532" s="16"/>
       <c r="F532" s="16"/>
       <c r="G532" s="13"/>
@@ -18808,7 +19049,7 @@
       <c r="A533" s="13"/>
       <c r="B533" s="13"/>
       <c r="C533" s="16"/>
-      <c r="D533" s="13"/>
+      <c r="D533" s="16"/>
       <c r="E533" s="16"/>
       <c r="F533" s="16"/>
       <c r="G533" s="13"/>
@@ -18836,7 +19077,7 @@
       <c r="A534" s="13"/>
       <c r="B534" s="13"/>
       <c r="C534" s="16"/>
-      <c r="D534" s="13"/>
+      <c r="D534" s="16"/>
       <c r="E534" s="16"/>
       <c r="F534" s="16"/>
       <c r="G534" s="13"/>
@@ -18864,7 +19105,7 @@
       <c r="A535" s="13"/>
       <c r="B535" s="13"/>
       <c r="C535" s="16"/>
-      <c r="D535" s="13"/>
+      <c r="D535" s="16"/>
       <c r="E535" s="16"/>
       <c r="F535" s="16"/>
       <c r="G535" s="13"/>
@@ -18892,7 +19133,7 @@
       <c r="A536" s="13"/>
       <c r="B536" s="13"/>
       <c r="C536" s="16"/>
-      <c r="D536" s="13"/>
+      <c r="D536" s="16"/>
       <c r="E536" s="16"/>
       <c r="F536" s="16"/>
       <c r="G536" s="13"/>
@@ -18920,7 +19161,7 @@
       <c r="A537" s="13"/>
       <c r="B537" s="13"/>
       <c r="C537" s="16"/>
-      <c r="D537" s="13"/>
+      <c r="D537" s="16"/>
       <c r="E537" s="16"/>
       <c r="F537" s="16"/>
       <c r="G537" s="13"/>
@@ -18948,7 +19189,7 @@
       <c r="A538" s="13"/>
       <c r="B538" s="13"/>
       <c r="C538" s="16"/>
-      <c r="D538" s="13"/>
+      <c r="D538" s="16"/>
       <c r="E538" s="16"/>
       <c r="F538" s="16"/>
       <c r="G538" s="13"/>
@@ -18976,7 +19217,7 @@
       <c r="A539" s="13"/>
       <c r="B539" s="13"/>
       <c r="C539" s="16"/>
-      <c r="D539" s="13"/>
+      <c r="D539" s="16"/>
       <c r="E539" s="16"/>
       <c r="F539" s="16"/>
       <c r="G539" s="13"/>
@@ -19004,7 +19245,7 @@
       <c r="A540" s="13"/>
       <c r="B540" s="13"/>
       <c r="C540" s="16"/>
-      <c r="D540" s="13"/>
+      <c r="D540" s="16"/>
       <c r="E540" s="16"/>
       <c r="F540" s="16"/>
       <c r="G540" s="13"/>
@@ -19032,7 +19273,7 @@
       <c r="A541" s="13"/>
       <c r="B541" s="13"/>
       <c r="C541" s="16"/>
-      <c r="D541" s="13"/>
+      <c r="D541" s="16"/>
       <c r="E541" s="16"/>
       <c r="F541" s="16"/>
       <c r="G541" s="13"/>
@@ -19060,7 +19301,7 @@
       <c r="A542" s="13"/>
       <c r="B542" s="13"/>
       <c r="C542" s="16"/>
-      <c r="D542" s="13"/>
+      <c r="D542" s="16"/>
       <c r="E542" s="16"/>
       <c r="F542" s="16"/>
       <c r="G542" s="13"/>
@@ -19088,7 +19329,7 @@
       <c r="A543" s="13"/>
       <c r="B543" s="13"/>
       <c r="C543" s="16"/>
-      <c r="D543" s="13"/>
+      <c r="D543" s="16"/>
       <c r="E543" s="16"/>
       <c r="F543" s="16"/>
       <c r="G543" s="13"/>
@@ -19116,7 +19357,7 @@
       <c r="A544" s="13"/>
       <c r="B544" s="13"/>
       <c r="C544" s="16"/>
-      <c r="D544" s="13"/>
+      <c r="D544" s="16"/>
       <c r="E544" s="16"/>
       <c r="F544" s="16"/>
       <c r="G544" s="13"/>
@@ -19144,7 +19385,7 @@
       <c r="A545" s="13"/>
       <c r="B545" s="13"/>
       <c r="C545" s="16"/>
-      <c r="D545" s="13"/>
+      <c r="D545" s="16"/>
       <c r="E545" s="16"/>
       <c r="F545" s="16"/>
       <c r="G545" s="13"/>
@@ -19172,7 +19413,7 @@
       <c r="A546" s="13"/>
       <c r="B546" s="13"/>
       <c r="C546" s="16"/>
-      <c r="D546" s="13"/>
+      <c r="D546" s="16"/>
       <c r="E546" s="16"/>
       <c r="F546" s="16"/>
       <c r="G546" s="13"/>
@@ -19200,7 +19441,7 @@
       <c r="A547" s="13"/>
       <c r="B547" s="13"/>
       <c r="C547" s="16"/>
-      <c r="D547" s="13"/>
+      <c r="D547" s="16"/>
       <c r="E547" s="16"/>
       <c r="F547" s="16"/>
       <c r="G547" s="13"/>
@@ -19228,7 +19469,7 @@
       <c r="A548" s="13"/>
       <c r="B548" s="13"/>
       <c r="C548" s="16"/>
-      <c r="D548" s="13"/>
+      <c r="D548" s="16"/>
       <c r="E548" s="16"/>
       <c r="F548" s="16"/>
       <c r="G548" s="13"/>
@@ -19256,7 +19497,7 @@
       <c r="A549" s="13"/>
       <c r="B549" s="13"/>
       <c r="C549" s="16"/>
-      <c r="D549" s="13"/>
+      <c r="D549" s="16"/>
       <c r="E549" s="16"/>
       <c r="F549" s="16"/>
       <c r="G549" s="13"/>
@@ -19284,7 +19525,7 @@
       <c r="A550" s="13"/>
       <c r="B550" s="13"/>
       <c r="C550" s="16"/>
-      <c r="D550" s="13"/>
+      <c r="D550" s="16"/>
       <c r="E550" s="16"/>
       <c r="F550" s="16"/>
       <c r="G550" s="13"/>
@@ -19312,7 +19553,7 @@
       <c r="A551" s="13"/>
       <c r="B551" s="13"/>
       <c r="C551" s="16"/>
-      <c r="D551" s="13"/>
+      <c r="D551" s="16"/>
       <c r="E551" s="16"/>
       <c r="F551" s="16"/>
       <c r="G551" s="13"/>
@@ -19340,7 +19581,7 @@
       <c r="A552" s="13"/>
       <c r="B552" s="13"/>
       <c r="C552" s="16"/>
-      <c r="D552" s="13"/>
+      <c r="D552" s="16"/>
       <c r="E552" s="16"/>
       <c r="F552" s="16"/>
       <c r="G552" s="13"/>
@@ -19368,7 +19609,7 @@
       <c r="A553" s="13"/>
       <c r="B553" s="13"/>
       <c r="C553" s="16"/>
-      <c r="D553" s="13"/>
+      <c r="D553" s="16"/>
       <c r="E553" s="16"/>
       <c r="F553" s="16"/>
       <c r="G553" s="13"/>
@@ -19396,7 +19637,7 @@
       <c r="A554" s="13"/>
       <c r="B554" s="13"/>
       <c r="C554" s="16"/>
-      <c r="D554" s="13"/>
+      <c r="D554" s="16"/>
       <c r="E554" s="16"/>
       <c r="F554" s="16"/>
       <c r="G554" s="13"/>
@@ -19424,7 +19665,7 @@
       <c r="A555" s="13"/>
       <c r="B555" s="13"/>
       <c r="C555" s="16"/>
-      <c r="D555" s="13"/>
+      <c r="D555" s="16"/>
       <c r="E555" s="16"/>
       <c r="F555" s="16"/>
       <c r="G555" s="13"/>
@@ -19452,7 +19693,7 @@
       <c r="A556" s="13"/>
       <c r="B556" s="13"/>
       <c r="C556" s="16"/>
-      <c r="D556" s="13"/>
+      <c r="D556" s="16"/>
       <c r="E556" s="16"/>
       <c r="F556" s="16"/>
       <c r="G556" s="13"/>
@@ -19480,7 +19721,7 @@
       <c r="A557" s="13"/>
       <c r="B557" s="13"/>
       <c r="C557" s="16"/>
-      <c r="D557" s="13"/>
+      <c r="D557" s="16"/>
       <c r="E557" s="16"/>
       <c r="F557" s="16"/>
       <c r="G557" s="13"/>
@@ -19508,7 +19749,7 @@
       <c r="A558" s="13"/>
       <c r="B558" s="13"/>
       <c r="C558" s="16"/>
-      <c r="D558" s="13"/>
+      <c r="D558" s="16"/>
       <c r="E558" s="16"/>
       <c r="F558" s="16"/>
       <c r="G558" s="13"/>
@@ -19536,7 +19777,7 @@
       <c r="A559" s="13"/>
       <c r="B559" s="13"/>
       <c r="C559" s="16"/>
-      <c r="D559" s="13"/>
+      <c r="D559" s="16"/>
       <c r="E559" s="16"/>
       <c r="F559" s="16"/>
       <c r="G559" s="13"/>
@@ -19564,7 +19805,7 @@
       <c r="A560" s="13"/>
       <c r="B560" s="13"/>
       <c r="C560" s="16"/>
-      <c r="D560" s="13"/>
+      <c r="D560" s="16"/>
       <c r="E560" s="16"/>
       <c r="F560" s="16"/>
       <c r="G560" s="13"/>
@@ -19592,7 +19833,7 @@
       <c r="A561" s="13"/>
       <c r="B561" s="13"/>
       <c r="C561" s="16"/>
-      <c r="D561" s="13"/>
+      <c r="D561" s="16"/>
       <c r="E561" s="16"/>
       <c r="F561" s="16"/>
       <c r="G561" s="13"/>
@@ -19620,7 +19861,7 @@
       <c r="A562" s="13"/>
       <c r="B562" s="13"/>
       <c r="C562" s="16"/>
-      <c r="D562" s="13"/>
+      <c r="D562" s="16"/>
       <c r="E562" s="16"/>
       <c r="F562" s="16"/>
       <c r="G562" s="13"/>
@@ -19648,7 +19889,7 @@
       <c r="A563" s="13"/>
       <c r="B563" s="13"/>
       <c r="C563" s="16"/>
-      <c r="D563" s="13"/>
+      <c r="D563" s="16"/>
       <c r="E563" s="16"/>
       <c r="F563" s="16"/>
       <c r="G563" s="13"/>
@@ -19676,7 +19917,7 @@
       <c r="A564" s="13"/>
       <c r="B564" s="13"/>
       <c r="C564" s="16"/>
-      <c r="D564" s="13"/>
+      <c r="D564" s="16"/>
       <c r="E564" s="16"/>
       <c r="F564" s="16"/>
       <c r="G564" s="13"/>
@@ -19704,7 +19945,7 @@
       <c r="A565" s="13"/>
       <c r="B565" s="13"/>
       <c r="C565" s="16"/>
-      <c r="D565" s="13"/>
+      <c r="D565" s="16"/>
       <c r="E565" s="16"/>
       <c r="F565" s="16"/>
       <c r="G565" s="13"/>
@@ -19732,7 +19973,7 @@
       <c r="A566" s="13"/>
       <c r="B566" s="13"/>
       <c r="C566" s="16"/>
-      <c r="D566" s="13"/>
+      <c r="D566" s="16"/>
       <c r="E566" s="16"/>
       <c r="F566" s="16"/>
       <c r="G566" s="13"/>
@@ -19760,7 +20001,7 @@
       <c r="A567" s="13"/>
       <c r="B567" s="13"/>
       <c r="C567" s="16"/>
-      <c r="D567" s="13"/>
+      <c r="D567" s="16"/>
       <c r="E567" s="16"/>
       <c r="F567" s="16"/>
       <c r="G567" s="13"/>
@@ -19788,7 +20029,7 @@
       <c r="A568" s="13"/>
       <c r="B568" s="13"/>
       <c r="C568" s="16"/>
-      <c r="D568" s="13"/>
+      <c r="D568" s="16"/>
       <c r="E568" s="16"/>
       <c r="F568" s="16"/>
       <c r="G568" s="13"/>
@@ -19816,7 +20057,7 @@
       <c r="A569" s="13"/>
       <c r="B569" s="13"/>
       <c r="C569" s="16"/>
-      <c r="D569" s="13"/>
+      <c r="D569" s="16"/>
       <c r="E569" s="16"/>
       <c r="F569" s="16"/>
       <c r="G569" s="13"/>
@@ -19844,7 +20085,7 @@
       <c r="A570" s="13"/>
       <c r="B570" s="13"/>
       <c r="C570" s="16"/>
-      <c r="D570" s="13"/>
+      <c r="D570" s="16"/>
       <c r="E570" s="16"/>
       <c r="F570" s="16"/>
       <c r="G570" s="13"/>
@@ -19872,7 +20113,7 @@
       <c r="A571" s="13"/>
       <c r="B571" s="13"/>
       <c r="C571" s="16"/>
-      <c r="D571" s="13"/>
+      <c r="D571" s="16"/>
       <c r="E571" s="16"/>
       <c r="F571" s="16"/>
       <c r="G571" s="13"/>
@@ -19900,7 +20141,7 @@
       <c r="A572" s="13"/>
       <c r="B572" s="13"/>
       <c r="C572" s="16"/>
-      <c r="D572" s="13"/>
+      <c r="D572" s="16"/>
       <c r="E572" s="16"/>
       <c r="F572" s="16"/>
       <c r="G572" s="13"/>
@@ -19928,7 +20169,7 @@
       <c r="A573" s="13"/>
       <c r="B573" s="13"/>
       <c r="C573" s="16"/>
-      <c r="D573" s="13"/>
+      <c r="D573" s="16"/>
       <c r="E573" s="16"/>
       <c r="F573" s="16"/>
       <c r="G573" s="13"/>
@@ -19956,7 +20197,7 @@
       <c r="A574" s="13"/>
       <c r="B574" s="13"/>
       <c r="C574" s="16"/>
-      <c r="D574" s="13"/>
+      <c r="D574" s="16"/>
       <c r="E574" s="16"/>
       <c r="F574" s="16"/>
       <c r="G574" s="13"/>
@@ -19984,7 +20225,7 @@
       <c r="A575" s="13"/>
       <c r="B575" s="13"/>
       <c r="C575" s="16"/>
-      <c r="D575" s="13"/>
+      <c r="D575" s="16"/>
       <c r="E575" s="16"/>
       <c r="F575" s="16"/>
       <c r="G575" s="13"/>
@@ -20012,7 +20253,7 @@
       <c r="A576" s="13"/>
       <c r="B576" s="13"/>
       <c r="C576" s="16"/>
-      <c r="D576" s="13"/>
+      <c r="D576" s="16"/>
       <c r="E576" s="16"/>
       <c r="F576" s="16"/>
       <c r="G576" s="13"/>
@@ -20040,7 +20281,7 @@
       <c r="A577" s="13"/>
       <c r="B577" s="13"/>
       <c r="C577" s="16"/>
-      <c r="D577" s="13"/>
+      <c r="D577" s="16"/>
       <c r="E577" s="16"/>
       <c r="F577" s="16"/>
       <c r="G577" s="13"/>
@@ -20068,7 +20309,7 @@
       <c r="A578" s="13"/>
       <c r="B578" s="13"/>
       <c r="C578" s="16"/>
-      <c r="D578" s="13"/>
+      <c r="D578" s="16"/>
       <c r="E578" s="16"/>
       <c r="F578" s="16"/>
       <c r="G578" s="13"/>
@@ -20096,7 +20337,7 @@
       <c r="A579" s="13"/>
       <c r="B579" s="13"/>
       <c r="C579" s="16"/>
-      <c r="D579" s="13"/>
+      <c r="D579" s="16"/>
       <c r="E579" s="16"/>
       <c r="F579" s="16"/>
       <c r="G579" s="13"/>
@@ -20124,7 +20365,7 @@
       <c r="A580" s="13"/>
       <c r="B580" s="13"/>
       <c r="C580" s="16"/>
-      <c r="D580" s="13"/>
+      <c r="D580" s="16"/>
       <c r="E580" s="16"/>
       <c r="F580" s="16"/>
       <c r="G580" s="13"/>
@@ -20152,7 +20393,7 @@
       <c r="A581" s="13"/>
       <c r="B581" s="13"/>
       <c r="C581" s="16"/>
-      <c r="D581" s="13"/>
+      <c r="D581" s="16"/>
       <c r="E581" s="16"/>
       <c r="F581" s="16"/>
       <c r="G581" s="13"/>
@@ -20180,7 +20421,7 @@
       <c r="A582" s="13"/>
       <c r="B582" s="13"/>
       <c r="C582" s="16"/>
-      <c r="D582" s="13"/>
+      <c r="D582" s="16"/>
       <c r="E582" s="16"/>
       <c r="F582" s="16"/>
       <c r="G582" s="13"/>
@@ -20208,7 +20449,7 @@
       <c r="A583" s="13"/>
       <c r="B583" s="13"/>
       <c r="C583" s="16"/>
-      <c r="D583" s="13"/>
+      <c r="D583" s="16"/>
       <c r="E583" s="16"/>
       <c r="F583" s="16"/>
       <c r="G583" s="13"/>
@@ -20236,7 +20477,7 @@
       <c r="A584" s="13"/>
       <c r="B584" s="13"/>
       <c r="C584" s="16"/>
-      <c r="D584" s="13"/>
+      <c r="D584" s="16"/>
       <c r="E584" s="16"/>
       <c r="F584" s="16"/>
       <c r="G584" s="13"/>
@@ -20264,7 +20505,7 @@
       <c r="A585" s="13"/>
       <c r="B585" s="13"/>
       <c r="C585" s="16"/>
-      <c r="D585" s="13"/>
+      <c r="D585" s="16"/>
       <c r="E585" s="16"/>
       <c r="F585" s="16"/>
       <c r="G585" s="13"/>
@@ -20292,7 +20533,7 @@
       <c r="A586" s="13"/>
       <c r="B586" s="13"/>
       <c r="C586" s="16"/>
-      <c r="D586" s="13"/>
+      <c r="D586" s="16"/>
       <c r="E586" s="16"/>
       <c r="F586" s="16"/>
       <c r="G586" s="13"/>
@@ -20320,7 +20561,7 @@
       <c r="A587" s="13"/>
       <c r="B587" s="13"/>
       <c r="C587" s="16"/>
-      <c r="D587" s="13"/>
+      <c r="D587" s="16"/>
       <c r="E587" s="16"/>
       <c r="F587" s="16"/>
       <c r="G587" s="13"/>
@@ -20348,7 +20589,7 @@
       <c r="A588" s="13"/>
       <c r="B588" s="13"/>
       <c r="C588" s="16"/>
-      <c r="D588" s="13"/>
+      <c r="D588" s="16"/>
       <c r="E588" s="16"/>
       <c r="F588" s="16"/>
       <c r="G588" s="13"/>
@@ -20376,7 +20617,7 @@
       <c r="A589" s="13"/>
       <c r="B589" s="13"/>
       <c r="C589" s="16"/>
-      <c r="D589" s="13"/>
+      <c r="D589" s="16"/>
       <c r="E589" s="16"/>
       <c r="F589" s="16"/>
       <c r="G589" s="13"/>
@@ -20404,7 +20645,7 @@
       <c r="A590" s="13"/>
       <c r="B590" s="13"/>
       <c r="C590" s="16"/>
-      <c r="D590" s="13"/>
+      <c r="D590" s="16"/>
       <c r="E590" s="16"/>
       <c r="F590" s="16"/>
       <c r="G590" s="13"/>
@@ -20432,7 +20673,7 @@
       <c r="A591" s="13"/>
       <c r="B591" s="13"/>
       <c r="C591" s="16"/>
-      <c r="D591" s="13"/>
+      <c r="D591" s="16"/>
       <c r="E591" s="16"/>
       <c r="F591" s="16"/>
       <c r="G591" s="13"/>
@@ -20460,7 +20701,7 @@
       <c r="A592" s="13"/>
       <c r="B592" s="13"/>
       <c r="C592" s="16"/>
-      <c r="D592" s="13"/>
+      <c r="D592" s="16"/>
       <c r="E592" s="16"/>
       <c r="F592" s="16"/>
       <c r="G592" s="13"/>
@@ -20488,7 +20729,7 @@
       <c r="A593" s="13"/>
       <c r="B593" s="13"/>
       <c r="C593" s="16"/>
-      <c r="D593" s="13"/>
+      <c r="D593" s="16"/>
       <c r="E593" s="16"/>
       <c r="F593" s="16"/>
       <c r="G593" s="13"/>
@@ -20516,7 +20757,7 @@
       <c r="A594" s="13"/>
       <c r="B594" s="13"/>
       <c r="C594" s="16"/>
-      <c r="D594" s="13"/>
+      <c r="D594" s="16"/>
       <c r="E594" s="16"/>
       <c r="F594" s="16"/>
       <c r="G594" s="13"/>
@@ -20544,7 +20785,7 @@
       <c r="A595" s="13"/>
       <c r="B595" s="13"/>
       <c r="C595" s="16"/>
-      <c r="D595" s="13"/>
+      <c r="D595" s="16"/>
       <c r="E595" s="16"/>
       <c r="F595" s="16"/>
       <c r="G595" s="13"/>
@@ -20572,7 +20813,7 @@
       <c r="A596" s="13"/>
       <c r="B596" s="13"/>
       <c r="C596" s="16"/>
-      <c r="D596" s="13"/>
+      <c r="D596" s="16"/>
       <c r="E596" s="16"/>
       <c r="F596" s="16"/>
       <c r="G596" s="13"/>
@@ -20600,7 +20841,7 @@
       <c r="A597" s="13"/>
       <c r="B597" s="13"/>
       <c r="C597" s="16"/>
-      <c r="D597" s="13"/>
+      <c r="D597" s="16"/>
       <c r="E597" s="16"/>
       <c r="F597" s="16"/>
       <c r="G597" s="13"/>
@@ -20628,7 +20869,7 @@
       <c r="A598" s="13"/>
       <c r="B598" s="13"/>
       <c r="C598" s="16"/>
-      <c r="D598" s="13"/>
+      <c r="D598" s="16"/>
       <c r="E598" s="16"/>
       <c r="F598" s="16"/>
       <c r="G598" s="13"/>
@@ -20656,7 +20897,7 @@
       <c r="A599" s="13"/>
       <c r="B599" s="13"/>
       <c r="C599" s="16"/>
-      <c r="D599" s="13"/>
+      <c r="D599" s="16"/>
       <c r="E599" s="16"/>
       <c r="F599" s="16"/>
       <c r="G599" s="13"/>
@@ -20684,7 +20925,7 @@
       <c r="A600" s="13"/>
       <c r="B600" s="13"/>
       <c r="C600" s="16"/>
-      <c r="D600" s="13"/>
+      <c r="D600" s="16"/>
       <c r="E600" s="16"/>
       <c r="F600" s="16"/>
       <c r="G600" s="13"/>
@@ -20712,7 +20953,7 @@
       <c r="A601" s="13"/>
       <c r="B601" s="13"/>
       <c r="C601" s="16"/>
-      <c r="D601" s="13"/>
+      <c r="D601" s="16"/>
       <c r="E601" s="16"/>
       <c r="F601" s="16"/>
       <c r="G601" s="13"/>
@@ -20740,7 +20981,7 @@
       <c r="A602" s="13"/>
       <c r="B602" s="13"/>
       <c r="C602" s="16"/>
-      <c r="D602" s="13"/>
+      <c r="D602" s="16"/>
       <c r="E602" s="16"/>
       <c r="F602" s="16"/>
       <c r="G602" s="13"/>
@@ -20768,7 +21009,7 @@
       <c r="A603" s="13"/>
       <c r="B603" s="13"/>
       <c r="C603" s="16"/>
-      <c r="D603" s="13"/>
+      <c r="D603" s="16"/>
       <c r="E603" s="16"/>
       <c r="F603" s="16"/>
       <c r="G603" s="13"/>
@@ -20796,7 +21037,7 @@
       <c r="A604" s="13"/>
       <c r="B604" s="13"/>
       <c r="C604" s="16"/>
-      <c r="D604" s="13"/>
+      <c r="D604" s="16"/>
       <c r="E604" s="16"/>
       <c r="F604" s="16"/>
       <c r="G604" s="13"/>
@@ -20824,7 +21065,7 @@
       <c r="A605" s="13"/>
       <c r="B605" s="13"/>
       <c r="C605" s="16"/>
-      <c r="D605" s="13"/>
+      <c r="D605" s="16"/>
       <c r="E605" s="16"/>
       <c r="F605" s="16"/>
       <c r="G605" s="13"/>
@@ -20852,7 +21093,7 @@
       <c r="A606" s="13"/>
       <c r="B606" s="13"/>
       <c r="C606" s="16"/>
-      <c r="D606" s="13"/>
+      <c r="D606" s="16"/>
       <c r="E606" s="16"/>
       <c r="F606" s="16"/>
       <c r="G606" s="13"/>
@@ -20880,7 +21121,7 @@
       <c r="A607" s="13"/>
       <c r="B607" s="13"/>
       <c r="C607" s="16"/>
-      <c r="D607" s="13"/>
+      <c r="D607" s="16"/>
       <c r="E607" s="16"/>
       <c r="F607" s="16"/>
       <c r="G607" s="13"/>
@@ -20908,7 +21149,7 @@
       <c r="A608" s="13"/>
       <c r="B608" s="13"/>
       <c r="C608" s="16"/>
-      <c r="D608" s="13"/>
+      <c r="D608" s="16"/>
       <c r="E608" s="16"/>
       <c r="F608" s="16"/>
       <c r="G608" s="13"/>
@@ -20936,7 +21177,7 @@
       <c r="A609" s="13"/>
       <c r="B609" s="13"/>
       <c r="C609" s="16"/>
-      <c r="D609" s="13"/>
+      <c r="D609" s="16"/>
       <c r="E609" s="16"/>
       <c r="F609" s="16"/>
       <c r="G609" s="13"/>
@@ -20964,7 +21205,7 @@
       <c r="A610" s="13"/>
       <c r="B610" s="13"/>
       <c r="C610" s="16"/>
-      <c r="D610" s="13"/>
+      <c r="D610" s="16"/>
       <c r="E610" s="16"/>
       <c r="F610" s="16"/>
       <c r="G610" s="13"/>
@@ -20992,7 +21233,7 @@
       <c r="A611" s="13"/>
       <c r="B611" s="13"/>
       <c r="C611" s="16"/>
-      <c r="D611" s="13"/>
+      <c r="D611" s="16"/>
       <c r="E611" s="16"/>
       <c r="F611" s="16"/>
       <c r="G611" s="13"/>
@@ -21020,7 +21261,7 @@
       <c r="A612" s="13"/>
       <c r="B612" s="13"/>
       <c r="C612" s="16"/>
-      <c r="D612" s="13"/>
+      <c r="D612" s="16"/>
       <c r="E612" s="16"/>
       <c r="F612" s="16"/>
       <c r="G612" s="13"/>
@@ -21048,7 +21289,7 @@
       <c r="A613" s="13"/>
       <c r="B613" s="13"/>
       <c r="C613" s="16"/>
-      <c r="D613" s="13"/>
+      <c r="D613" s="16"/>
       <c r="E613" s="16"/>
       <c r="F613" s="16"/>
       <c r="G613" s="13"/>
@@ -21076,7 +21317,7 @@
       <c r="A614" s="13"/>
       <c r="B614" s="13"/>
       <c r="C614" s="16"/>
-      <c r="D614" s="13"/>
+      <c r="D614" s="16"/>
       <c r="E614" s="16"/>
       <c r="F614" s="16"/>
       <c r="G614" s="13"/>
@@ -21104,7 +21345,7 @@
       <c r="A615" s="13"/>
       <c r="B615" s="13"/>
       <c r="C615" s="16"/>
-      <c r="D615" s="13"/>
+      <c r="D615" s="16"/>
       <c r="E615" s="16"/>
       <c r="F615" s="16"/>
       <c r="G615" s="13"/>
@@ -21132,7 +21373,7 @@
       <c r="A616" s="13"/>
       <c r="B616" s="13"/>
       <c r="C616" s="16"/>
-      <c r="D616" s="13"/>
+      <c r="D616" s="16"/>
       <c r="E616" s="16"/>
       <c r="F616" s="16"/>
       <c r="G616" s="13"/>
@@ -21160,7 +21401,7 @@
       <c r="A617" s="13"/>
       <c r="B617" s="13"/>
       <c r="C617" s="16"/>
-      <c r="D617" s="13"/>
+      <c r="D617" s="16"/>
       <c r="E617" s="16"/>
       <c r="F617" s="16"/>
       <c r="G617" s="13"/>
@@ -21188,7 +21429,7 @@
       <c r="A618" s="13"/>
       <c r="B618" s="13"/>
       <c r="C618" s="16"/>
-      <c r="D618" s="13"/>
+      <c r="D618" s="16"/>
       <c r="E618" s="16"/>
       <c r="F618" s="16"/>
       <c r="G618" s="13"/>
@@ -21216,7 +21457,7 @@
       <c r="A619" s="13"/>
       <c r="B619" s="13"/>
       <c r="C619" s="16"/>
-      <c r="D619" s="13"/>
+      <c r="D619" s="16"/>
       <c r="E619" s="16"/>
       <c r="F619" s="16"/>
       <c r="G619" s="13"/>
@@ -21244,7 +21485,7 @@
       <c r="A620" s="13"/>
       <c r="B620" s="13"/>
       <c r="C620" s="16"/>
-      <c r="D620" s="13"/>
+      <c r="D620" s="16"/>
       <c r="E620" s="16"/>
       <c r="F620" s="16"/>
       <c r="G620" s="13"/>
@@ -21272,7 +21513,7 @@
       <c r="A621" s="13"/>
       <c r="B621" s="13"/>
       <c r="C621" s="16"/>
-      <c r="D621" s="13"/>
+      <c r="D621" s="16"/>
       <c r="E621" s="16"/>
       <c r="F621" s="16"/>
       <c r="G621" s="13"/>
@@ -21300,7 +21541,7 @@
       <c r="A622" s="13"/>
       <c r="B622" s="13"/>
       <c r="C622" s="16"/>
-      <c r="D622" s="13"/>
+      <c r="D622" s="16"/>
       <c r="E622" s="16"/>
       <c r="F622" s="16"/>
       <c r="G622" s="13"/>
@@ -21328,7 +21569,7 @@
       <c r="A623" s="13"/>
       <c r="B623" s="13"/>
       <c r="C623" s="16"/>
-      <c r="D623" s="13"/>
+      <c r="D623" s="16"/>
       <c r="E623" s="16"/>
       <c r="F623" s="16"/>
       <c r="G623" s="13"/>
@@ -21356,7 +21597,7 @@
       <c r="A624" s="13"/>
       <c r="B624" s="13"/>
       <c r="C624" s="16"/>
-      <c r="D624" s="13"/>
+      <c r="D624" s="16"/>
       <c r="E624" s="16"/>
       <c r="F624" s="16"/>
       <c r="G624" s="13"/>
@@ -21384,7 +21625,7 @@
       <c r="A625" s="13"/>
       <c r="B625" s="13"/>
       <c r="C625" s="16"/>
-      <c r="D625" s="13"/>
+      <c r="D625" s="16"/>
       <c r="E625" s="16"/>
       <c r="F625" s="16"/>
       <c r="G625" s="13"/>
@@ -21412,7 +21653,7 @@
       <c r="A626" s="13"/>
       <c r="B626" s="13"/>
       <c r="C626" s="16"/>
-      <c r="D626" s="13"/>
+      <c r="D626" s="16"/>
       <c r="E626" s="16"/>
       <c r="F626" s="16"/>
       <c r="G626" s="13"/>
@@ -21440,7 +21681,7 @@
       <c r="A627" s="13"/>
       <c r="B627" s="13"/>
       <c r="C627" s="16"/>
-      <c r="D627" s="13"/>
+      <c r="D627" s="16"/>
       <c r="E627" s="16"/>
       <c r="F627" s="16"/>
       <c r="G627" s="13"/>
@@ -21468,7 +21709,7 @@
       <c r="A628" s="13"/>
       <c r="B628" s="13"/>
       <c r="C628" s="16"/>
-      <c r="D628" s="13"/>
+      <c r="D628" s="16"/>
       <c r="E628" s="16"/>
       <c r="F628" s="16"/>
       <c r="G628" s="13"/>
@@ -21496,7 +21737,7 @@
       <c r="A629" s="13"/>
       <c r="B629" s="13"/>
       <c r="C629" s="16"/>
-      <c r="D629" s="13"/>
+      <c r="D629" s="16"/>
       <c r="E629" s="16"/>
       <c r="F629" s="16"/>
       <c r="G629" s="13"/>
@@ -21524,7 +21765,7 @@
       <c r="A630" s="13"/>
       <c r="B630" s="13"/>
       <c r="C630" s="16"/>
-      <c r="D630" s="13"/>
+      <c r="D630" s="16"/>
       <c r="E630" s="16"/>
       <c r="F630" s="16"/>
       <c r="G630" s="13"/>
@@ -21552,7 +21793,7 @@
       <c r="A631" s="13"/>
       <c r="B631" s="13"/>
       <c r="C631" s="16"/>
-      <c r="D631" s="13"/>
+      <c r="D631" s="16"/>
       <c r="E631" s="16"/>
       <c r="F631" s="16"/>
       <c r="G631" s="13"/>
@@ -21580,7 +21821,7 @@
       <c r="A632" s="13"/>
       <c r="B632" s="13"/>
       <c r="C632" s="16"/>
-      <c r="D632" s="13"/>
+      <c r="D632" s="16"/>
       <c r="E632" s="16"/>
       <c r="F632" s="16"/>
       <c r="G632" s="13"/>
@@ -21608,7 +21849,7 @@
       <c r="A633" s="13"/>
       <c r="B633" s="13"/>
       <c r="C633" s="16"/>
-      <c r="D633" s="13"/>
+      <c r="D633" s="16"/>
       <c r="E633" s="16"/>
       <c r="F633" s="16"/>
       <c r="G633" s="13"/>
@@ -21636,7 +21877,7 @@
       <c r="A634" s="13"/>
       <c r="B634" s="13"/>
       <c r="C634" s="16"/>
-      <c r="D634" s="13"/>
+      <c r="D634" s="16"/>
       <c r="E634" s="16"/>
       <c r="F634" s="16"/>
       <c r="G634" s="13"/>
@@ -21664,7 +21905,7 @@
       <c r="A635" s="13"/>
       <c r="B635" s="13"/>
       <c r="C635" s="16"/>
-      <c r="D635" s="13"/>
+      <c r="D635" s="16"/>
       <c r="E635" s="16"/>
       <c r="F635" s="16"/>
       <c r="G635" s="13"/>
@@ -21692,7 +21933,7 @@
       <c r="A636" s="13"/>
       <c r="B636" s="13"/>
       <c r="C636" s="16"/>
-      <c r="D636" s="13"/>
+      <c r="D636" s="16"/>
       <c r="E636" s="16"/>
       <c r="F636" s="16"/>
       <c r="G636" s="13"/>
@@ -21720,7 +21961,7 @@
       <c r="A637" s="13"/>
       <c r="B637" s="13"/>
       <c r="C637" s="16"/>
-      <c r="D637" s="13"/>
+      <c r="D637" s="16"/>
       <c r="E637" s="16"/>
       <c r="F637" s="16"/>
       <c r="G637" s="13"/>
@@ -21748,7 +21989,7 @@
       <c r="A638" s="13"/>
       <c r="B638" s="13"/>
       <c r="C638" s="16"/>
-      <c r="D638" s="13"/>
+      <c r="D638" s="16"/>
       <c r="E638" s="16"/>
       <c r="F638" s="16"/>
       <c r="G638" s="13"/>
@@ -21776,7 +22017,7 @@
       <c r="A639" s="13"/>
       <c r="B639" s="13"/>
       <c r="C639" s="16"/>
-      <c r="D639" s="13"/>
+      <c r="D639" s="16"/>
       <c r="E639" s="16"/>
       <c r="F639" s="16"/>
       <c r="G639" s="13"/>
@@ -21804,7 +22045,7 @@
       <c r="A640" s="13"/>
       <c r="B640" s="13"/>
       <c r="C640" s="16"/>
-      <c r="D640" s="13"/>
+      <c r="D640" s="16"/>
       <c r="E640" s="16"/>
       <c r="F640" s="16"/>
       <c r="G640" s="13"/>
@@ -21832,7 +22073,7 @@
       <c r="A641" s="13"/>
       <c r="B641" s="13"/>
       <c r="C641" s="16"/>
-      <c r="D641" s="13"/>
+      <c r="D641" s="16"/>
       <c r="E641" s="16"/>
       <c r="F641" s="16"/>
       <c r="G641" s="13"/>
@@ -21860,7 +22101,7 @@
       <c r="A642" s="13"/>
       <c r="B642" s="13"/>
       <c r="C642" s="16"/>
-      <c r="D642" s="13"/>
+      <c r="D642" s="16"/>
       <c r="E642" s="16"/>
       <c r="F642" s="16"/>
       <c r="G642" s="13"/>
@@ -21888,7 +22129,7 @@
       <c r="A643" s="13"/>
       <c r="B643" s="13"/>
       <c r="C643" s="16"/>
-      <c r="D643" s="13"/>
+      <c r="D643" s="16"/>
       <c r="E643" s="16"/>
       <c r="F643" s="16"/>
       <c r="G643" s="13"/>
@@ -21916,7 +22157,7 @@
       <c r="A644" s="13"/>
       <c r="B644" s="13"/>
       <c r="C644" s="16"/>
-      <c r="D644" s="13"/>
+      <c r="D644" s="16"/>
       <c r="E644" s="16"/>
       <c r="F644" s="16"/>
       <c r="G644" s="13"/>
@@ -21944,7 +22185,7 @@
       <c r="A645" s="13"/>
       <c r="B645" s="13"/>
       <c r="C645" s="16"/>
-      <c r="D645" s="13"/>
+      <c r="D645" s="16"/>
       <c r="E645" s="16"/>
       <c r="F645" s="16"/>
       <c r="G645" s="13"/>
@@ -21972,7 +22213,7 @@
       <c r="A646" s="13"/>
       <c r="B646" s="13"/>
       <c r="C646" s="16"/>
-      <c r="D646" s="13"/>
+      <c r="D646" s="16"/>
       <c r="E646" s="16"/>
       <c r="F646" s="16"/>
       <c r="G646" s="13"/>
@@ -22000,7 +22241,7 @@
       <c r="A647" s="13"/>
       <c r="B647" s="13"/>
       <c r="C647" s="16"/>
-      <c r="D647" s="13"/>
+      <c r="D647" s="16"/>
       <c r="E647" s="16"/>
       <c r="F647" s="16"/>
       <c r="G647" s="13"/>
@@ -22028,7 +22269,7 @@
       <c r="A648" s="13"/>
       <c r="B648" s="13"/>
       <c r="C648" s="16"/>
-      <c r="D648" s="13"/>
+      <c r="D648" s="16"/>
       <c r="E648" s="16"/>
       <c r="F648" s="16"/>
       <c r="G648" s="13"/>
@@ -22056,7 +22297,7 @@
       <c r="A649" s="13"/>
       <c r="B649" s="13"/>
       <c r="C649" s="16"/>
-      <c r="D649" s="13"/>
+      <c r="D649" s="16"/>
       <c r="E649" s="16"/>
       <c r="F649" s="16"/>
       <c r="G649" s="13"/>
@@ -22084,7 +22325,7 @@
       <c r="A650" s="13"/>
       <c r="B650" s="13"/>
       <c r="C650" s="16"/>
-      <c r="D650" s="13"/>
+      <c r="D650" s="16"/>
       <c r="E650" s="16"/>
       <c r="F650" s="16"/>
       <c r="G650" s="13"/>
@@ -22112,7 +22353,7 @@
       <c r="A651" s="13"/>
       <c r="B651" s="13"/>
       <c r="C651" s="16"/>
-      <c r="D651" s="13"/>
+      <c r="D651" s="16"/>
       <c r="E651" s="16"/>
       <c r="F651" s="16"/>
       <c r="G651" s="13"/>
@@ -22140,7 +22381,7 @@
       <c r="A652" s="13"/>
       <c r="B652" s="13"/>
       <c r="C652" s="16"/>
-      <c r="D652" s="13"/>
+      <c r="D652" s="16"/>
       <c r="E652" s="16"/>
       <c r="F652" s="16"/>
       <c r="G652" s="13"/>
@@ -22168,7 +22409,7 @@
       <c r="A653" s="13"/>
       <c r="B653" s="13"/>
       <c r="C653" s="16"/>
-      <c r="D653" s="13"/>
+      <c r="D653" s="16"/>
       <c r="E653" s="16"/>
       <c r="F653" s="16"/>
       <c r="G653" s="13"/>
@@ -22196,7 +22437,7 @@
       <c r="A654" s="13"/>
       <c r="B654" s="13"/>
       <c r="C654" s="16"/>
-      <c r="D654" s="13"/>
+      <c r="D654" s="16"/>
       <c r="E654" s="16"/>
       <c r="F654" s="16"/>
       <c r="G654" s="13"/>
@@ -22224,7 +22465,7 @@
       <c r="A655" s="13"/>
       <c r="B655" s="13"/>
       <c r="C655" s="16"/>
-      <c r="D655" s="13"/>
+      <c r="D655" s="16"/>
       <c r="E655" s="16"/>
       <c r="F655" s="16"/>
       <c r="G655" s="13"/>
@@ -22252,7 +22493,7 @@
       <c r="A656" s="13"/>
       <c r="B656" s="13"/>
       <c r="C656" s="16"/>
-      <c r="D656" s="13"/>
+      <c r="D656" s="16"/>
       <c r="E656" s="16"/>
       <c r="F656" s="16"/>
       <c r="G656" s="13"/>
@@ -22280,7 +22521,7 @@
       <c r="A657" s="13"/>
       <c r="B657" s="13"/>
       <c r="C657" s="16"/>
-      <c r="D657" s="13"/>
+      <c r="D657" s="16"/>
       <c r="E657" s="16"/>
       <c r="F657" s="16"/>
       <c r="G657" s="13"/>
@@ -22308,7 +22549,7 @@
       <c r="A658" s="13"/>
       <c r="B658" s="13"/>
       <c r="C658" s="16"/>
-      <c r="D658" s="13"/>
+      <c r="D658" s="16"/>
       <c r="E658" s="16"/>
       <c r="F658" s="16"/>
       <c r="G658" s="13"/>
@@ -22336,7 +22577,7 @@
       <c r="A659" s="13"/>
       <c r="B659" s="13"/>
       <c r="C659" s="16"/>
-      <c r="D659" s="13"/>
+      <c r="D659" s="16"/>
       <c r="E659" s="16"/>
       <c r="F659" s="16"/>
       <c r="G659" s="13"/>
@@ -22364,7 +22605,7 @@
       <c r="A660" s="13"/>
       <c r="B660" s="13"/>
       <c r="C660" s="16"/>
-      <c r="D660" s="13"/>
+      <c r="D660" s="16"/>
       <c r="E660" s="16"/>
       <c r="F660" s="16"/>
       <c r="G660" s="13"/>
@@ -22392,7 +22633,7 @@
       <c r="A661" s="13"/>
       <c r="B661" s="13"/>
       <c r="C661" s="16"/>
-      <c r="D661" s="13"/>
+      <c r="D661" s="16"/>
       <c r="E661" s="16"/>
       <c r="F661" s="16"/>
       <c r="G661" s="13"/>
@@ -22420,7 +22661,7 @@
       <c r="A662" s="13"/>
       <c r="B662" s="13"/>
       <c r="C662" s="16"/>
-      <c r="D662" s="13"/>
+      <c r="D662" s="16"/>
       <c r="E662" s="16"/>
       <c r="F662" s="16"/>
       <c r="G662" s="13"/>
@@ -22448,7 +22689,7 @@
       <c r="A663" s="13"/>
       <c r="B663" s="13"/>
       <c r="C663" s="16"/>
-      <c r="D663" s="13"/>
+      <c r="D663" s="16"/>
       <c r="E663" s="16"/>
       <c r="F663" s="16"/>
       <c r="G663" s="13"/>
@@ -22476,7 +22717,7 @@
       <c r="A664" s="13"/>
       <c r="B664" s="13"/>
       <c r="C664" s="16"/>
-      <c r="D664" s="13"/>
+      <c r="D664" s="16"/>
       <c r="E664" s="16"/>
       <c r="F664" s="16"/>
       <c r="G664" s="13"/>
@@ -22504,7 +22745,7 @@
       <c r="A665" s="13"/>
       <c r="B665" s="13"/>
       <c r="C665" s="16"/>
-      <c r="D665" s="13"/>
+      <c r="D665" s="16"/>
       <c r="E665" s="16"/>
       <c r="F665" s="16"/>
       <c r="G665" s="13"/>
@@ -22532,7 +22773,7 @@
       <c r="A666" s="13"/>
       <c r="B666" s="13"/>
       <c r="C666" s="16"/>
-      <c r="D666" s="13"/>
+      <c r="D666" s="16"/>
       <c r="E666" s="16"/>
       <c r="F666" s="16"/>
       <c r="G666" s="13"/>
@@ -22560,7 +22801,7 @@
       <c r="A667" s="13"/>
       <c r="B667" s="13"/>
       <c r="C667" s="16"/>
-      <c r="D667" s="13"/>
+      <c r="D667" s="16"/>
       <c r="E667" s="16"/>
       <c r="F667" s="16"/>
       <c r="G667" s="13"/>
@@ -22588,7 +22829,7 @@
       <c r="A668" s="13"/>
       <c r="B668" s="13"/>
       <c r="C668" s="16"/>
-      <c r="D668" s="13"/>
+      <c r="D668" s="16"/>
       <c r="E668" s="16"/>
       <c r="F668" s="16"/>
       <c r="G668" s="13"/>
@@ -22616,7 +22857,7 @@
       <c r="A669" s="13"/>
       <c r="B669" s="13"/>
       <c r="C669" s="16"/>
-      <c r="D669" s="13"/>
+      <c r="D669" s="16"/>
       <c r="E669" s="16"/>
       <c r="F669" s="16"/>
       <c r="G669" s="13"/>
@@ -22644,7 +22885,7 @@
       <c r="A670" s="13"/>
       <c r="B670" s="13"/>
       <c r="C670" s="16"/>
-      <c r="D670" s="13"/>
+      <c r="D670" s="16"/>
       <c r="E670" s="16"/>
       <c r="F670" s="16"/>
       <c r="G670" s="13"/>
@@ -22672,7 +22913,7 @@
       <c r="A671" s="13"/>
       <c r="B671" s="13"/>
       <c r="C671" s="16"/>
-      <c r="D671" s="13"/>
+      <c r="D671" s="16"/>
       <c r="E671" s="16"/>
       <c r="F671" s="16"/>
       <c r="G671" s="13"/>
@@ -22700,7 +22941,7 @@
       <c r="A672" s="13"/>
       <c r="B672" s="13"/>
       <c r="C672" s="16"/>
-      <c r="D672" s="13"/>
+      <c r="D672" s="16"/>
       <c r="E672" s="16"/>
       <c r="F672" s="16"/>
       <c r="G672" s="13"/>
@@ -22728,7 +22969,7 @@
       <c r="A673" s="13"/>
       <c r="B673" s="13"/>
       <c r="C673" s="16"/>
-      <c r="D673" s="13"/>
+      <c r="D673" s="16"/>
       <c r="E673" s="16"/>
       <c r="F673" s="16"/>
       <c r="G673" s="13"/>
@@ -22756,7 +22997,7 @@
       <c r="A674" s="13"/>
       <c r="B674" s="13"/>
       <c r="C674" s="16"/>
-      <c r="D674" s="13"/>
+      <c r="D674" s="16"/>
       <c r="E674" s="16"/>
       <c r="F674" s="16"/>
       <c r="G674" s="13"/>
@@ -22784,7 +23025,7 @@
       <c r="A675" s="13"/>
       <c r="B675" s="13"/>
       <c r="C675" s="16"/>
-      <c r="D675" s="13"/>
+      <c r="D675" s="16"/>
       <c r="E675" s="16"/>
       <c r="F675" s="16"/>
       <c r="G675" s="13"/>
@@ -22812,7 +23053,7 @@
       <c r="A676" s="13"/>
       <c r="B676" s="13"/>
       <c r="C676" s="16"/>
-      <c r="D676" s="13"/>
+      <c r="D676" s="16"/>
       <c r="E676" s="16"/>
       <c r="F676" s="16"/>
       <c r="G676" s="13"/>
@@ -22840,7 +23081,7 @@
       <c r="A677" s="13"/>
       <c r="B677" s="13"/>
       <c r="C677" s="16"/>
-      <c r="D677" s="13"/>
+      <c r="D677" s="16"/>
       <c r="E677" s="16"/>
       <c r="F677" s="16"/>
       <c r="G677" s="13"/>
@@ -22868,7 +23109,7 @@
       <c r="A678" s="13"/>
       <c r="B678" s="13"/>
       <c r="C678" s="16"/>
-      <c r="D678" s="13"/>
+      <c r="D678" s="16"/>
       <c r="E678" s="16"/>
       <c r="F678" s="16"/>
       <c r="G678" s="13"/>
@@ -22896,7 +23137,7 @@
       <c r="A679" s="13"/>
       <c r="B679" s="13"/>
       <c r="C679" s="16"/>
-      <c r="D679" s="13"/>
+      <c r="D679" s="16"/>
       <c r="E679" s="16"/>
       <c r="F679" s="16"/>
       <c r="G679" s="13"/>
@@ -22924,7 +23165,7 @@
       <c r="A680" s="13"/>
       <c r="B680" s="13"/>
       <c r="C680" s="16"/>
-      <c r="D680" s="13"/>
+      <c r="D680" s="16"/>
       <c r="E680" s="16"/>
       <c r="F680" s="16"/>
       <c r="G680" s="13"/>
@@ -22952,7 +23193,7 @@
       <c r="A681" s="13"/>
       <c r="B681" s="13"/>
       <c r="C681" s="16"/>
-      <c r="D681" s="13"/>
+      <c r="D681" s="16"/>
       <c r="E681" s="16"/>
       <c r="F681" s="16"/>
       <c r="G681" s="13"/>
@@ -22980,7 +23221,7 @@
       <c r="A682" s="13"/>
       <c r="B682" s="13"/>
       <c r="C682" s="16"/>
-      <c r="D682" s="13"/>
+      <c r="D682" s="16"/>
       <c r="E682" s="16"/>
       <c r="F682" s="16"/>
       <c r="G682" s="13"/>
@@ -23008,7 +23249,7 @@
       <c r="A683" s="13"/>
       <c r="B683" s="13"/>
       <c r="C683" s="16"/>
-      <c r="D683" s="13"/>
+      <c r="D683" s="16"/>
       <c r="E683" s="16"/>
       <c r="F683" s="16"/>
       <c r="G683" s="13"/>
@@ -23036,7 +23277,7 @@
       <c r="A684" s="13"/>
       <c r="B684" s="13"/>
       <c r="C684" s="16"/>
-      <c r="D684" s="13"/>
+      <c r="D684" s="16"/>
       <c r="E684" s="16"/>
       <c r="F684" s="16"/>
       <c r="G684" s="13"/>
@@ -23064,7 +23305,7 @@
       <c r="A685" s="13"/>
       <c r="B685" s="13"/>
       <c r="C685" s="16"/>
-      <c r="D685" s="13"/>
+      <c r="D685" s="16"/>
       <c r="E685" s="16"/>
       <c r="F685" s="16"/>
       <c r="G685" s="13"/>
@@ -23092,7 +23333,7 @@
       <c r="A686" s="13"/>
       <c r="B686" s="13"/>
       <c r="C686" s="16"/>
-      <c r="D686" s="13"/>
+      <c r="D686" s="16"/>
       <c r="E686" s="16"/>
       <c r="F686" s="16"/>
       <c r="G686" s="13"/>
@@ -23120,7 +23361,7 @@
       <c r="A687" s="13"/>
       <c r="B687" s="13"/>
       <c r="C687" s="16"/>
-      <c r="D687" s="13"/>
+      <c r="D687" s="16"/>
       <c r="E687" s="16"/>
       <c r="F687" s="16"/>
       <c r="G687" s="13"/>
@@ -23148,7 +23389,7 @@
       <c r="A688" s="13"/>
       <c r="B688" s="13"/>
       <c r="C688" s="16"/>
-      <c r="D688" s="13"/>
+      <c r="D688" s="16"/>
       <c r="E688" s="16"/>
       <c r="F688" s="16"/>
       <c r="G688" s="13"/>
@@ -23176,7 +23417,7 @@
       <c r="A689" s="13"/>
       <c r="B689" s="13"/>
       <c r="C689" s="16"/>
-      <c r="D689" s="13"/>
+      <c r="D689" s="16"/>
       <c r="E689" s="16"/>
       <c r="F689" s="16"/>
       <c r="G689" s="13"/>
@@ -23204,7 +23445,7 @@
       <c r="A690" s="13"/>
       <c r="B690" s="13"/>
       <c r="C690" s="16"/>
-      <c r="D690" s="13"/>
+      <c r="D690" s="16"/>
       <c r="E690" s="16"/>
       <c r="F690" s="16"/>
       <c r="G690" s="13"/>
@@ -23232,7 +23473,7 @@
       <c r="A691" s="13"/>
       <c r="B691" s="13"/>
       <c r="C691" s="16"/>
-      <c r="D691" s="13"/>
+      <c r="D691" s="16"/>
       <c r="E691" s="16"/>
       <c r="F691" s="16"/>
       <c r="G691" s="13"/>
@@ -23260,7 +23501,7 @@
       <c r="A692" s="13"/>
       <c r="B692" s="13"/>
       <c r="C692" s="16"/>
-      <c r="D692" s="13"/>
+      <c r="D692" s="16"/>
       <c r="E692" s="16"/>
       <c r="F692" s="16"/>
       <c r="G692" s="13"/>
@@ -23288,7 +23529,7 @@
       <c r="A693" s="13"/>
       <c r="B693" s="13"/>
       <c r="C693" s="16"/>
-      <c r="D693" s="13"/>
+      <c r="D693" s="16"/>
       <c r="E693" s="16"/>
       <c r="F693" s="16"/>
       <c r="G693" s="13"/>
@@ -23316,7 +23557,7 @@
       <c r="A694" s="13"/>
       <c r="B694" s="13"/>
       <c r="C694" s="16"/>
-      <c r="D694" s="13"/>
+      <c r="D694" s="16"/>
       <c r="E694" s="16"/>
       <c r="F694" s="16"/>
       <c r="G694" s="13"/>
@@ -23344,7 +23585,7 @@
       <c r="A695" s="13"/>
       <c r="B695" s="13"/>
       <c r="C695" s="16"/>
-      <c r="D695" s="13"/>
+      <c r="D695" s="16"/>
       <c r="E695" s="16"/>
       <c r="F695" s="16"/>
       <c r="G695" s="13"/>
@@ -23372,7 +23613,7 @@
       <c r="A696" s="13"/>
       <c r="B696" s="13"/>
       <c r="C696" s="16"/>
-      <c r="D696" s="13"/>
+      <c r="D696" s="16"/>
       <c r="E696" s="16"/>
       <c r="F696" s="16"/>
       <c r="G696" s="13"/>
@@ -23400,7 +23641,7 @@
       <c r="A697" s="13"/>
       <c r="B697" s="13"/>
       <c r="C697" s="16"/>
-      <c r="D697" s="13"/>
+      <c r="D697" s="16"/>
       <c r="E697" s="16"/>
       <c r="F697" s="16"/>
       <c r="G697" s="13"/>
@@ -23428,7 +23669,7 @@
       <c r="A698" s="13"/>
       <c r="B698" s="13"/>
       <c r="C698" s="16"/>
-      <c r="D698" s="13"/>
+      <c r="D698" s="16"/>
       <c r="E698" s="16"/>
       <c r="F698" s="16"/>
       <c r="G698" s="13"/>
@@ -23456,7 +23697,7 @@
       <c r="A699" s="13"/>
       <c r="B699" s="13"/>
       <c r="C699" s="16"/>
-      <c r="D699" s="13"/>
+      <c r="D699" s="16"/>
       <c r="E699" s="16"/>
       <c r="F699" s="16"/>
       <c r="G699" s="13"/>
@@ -23484,7 +23725,7 @@
       <c r="A700" s="13"/>
       <c r="B700" s="13"/>
       <c r="C700" s="16"/>
-      <c r="D700" s="13"/>
+      <c r="D700" s="16"/>
       <c r="E700" s="16"/>
       <c r="F700" s="16"/>
       <c r="G700" s="13"/>
@@ -23512,7 +23753,7 @@
       <c r="A701" s="13"/>
       <c r="B701" s="13"/>
       <c r="C701" s="16"/>
-      <c r="D701" s="13"/>
+      <c r="D701" s="16"/>
       <c r="E701" s="16"/>
       <c r="F701" s="16"/>
       <c r="G701" s="13"/>
@@ -23540,7 +23781,7 @@
       <c r="A702" s="13"/>
       <c r="B702" s="13"/>
       <c r="C702" s="16"/>
-      <c r="D702" s="13"/>
+      <c r="D702" s="16"/>
       <c r="E702" s="16"/>
       <c r="F702" s="16"/>
       <c r="G702" s="13"/>
@@ -23568,7 +23809,7 @@
       <c r="A703" s="13"/>
       <c r="B703" s="13"/>
       <c r="C703" s="16"/>
-      <c r="D703" s="13"/>
+      <c r="D703" s="16"/>
       <c r="E703" s="16"/>
       <c r="F703" s="16"/>
       <c r="G703" s="13"/>
@@ -23596,7 +23837,7 @@
       <c r="A704" s="13"/>
       <c r="B704" s="13"/>
       <c r="C704" s="16"/>
-      <c r="D704" s="13"/>
+      <c r="D704" s="16"/>
       <c r="E704" s="16"/>
       <c r="F704" s="16"/>
       <c r="G704" s="13"/>
@@ -23624,7 +23865,7 @@
       <c r="A705" s="13"/>
       <c r="B705" s="13"/>
       <c r="C705" s="16"/>
-      <c r="D705" s="13"/>
+      <c r="D705" s="16"/>
       <c r="E705" s="16"/>
       <c r="F705" s="16"/>
       <c r="G705" s="13"/>
@@ -23652,7 +23893,7 @@
       <c r="A706" s="13"/>
       <c r="B706" s="13"/>
       <c r="C706" s="16"/>
-      <c r="D706" s="13"/>
+      <c r="D706" s="16"/>
       <c r="E706" s="16"/>
       <c r="F706" s="16"/>
       <c r="G706" s="13"/>
@@ -23680,7 +23921,7 @@
       <c r="A707" s="13"/>
       <c r="B707" s="13"/>
       <c r="C707" s="16"/>
-      <c r="D707" s="13"/>
+      <c r="D707" s="16"/>
       <c r="E707" s="16"/>
       <c r="F707" s="16"/>
       <c r="G707" s="13"/>
@@ -23708,7 +23949,7 @@
       <c r="A708" s="13"/>
       <c r="B708" s="13"/>
       <c r="C708" s="16"/>
-      <c r="D708" s="13"/>
+      <c r="D708" s="16"/>
       <c r="E708" s="16"/>
       <c r="F708" s="16"/>
       <c r="G708" s="13"/>
@@ -23736,7 +23977,7 @@
       <c r="A709" s="13"/>
       <c r="B709" s="13"/>
       <c r="C709" s="16"/>
-      <c r="D709" s="13"/>
+      <c r="D709" s="16"/>
       <c r="E709" s="16"/>
       <c r="F709" s="16"/>
       <c r="G709" s="13"/>
@@ -23764,7 +24005,7 @@
       <c r="A710" s="13"/>
       <c r="B710" s="13"/>
       <c r="C710" s="16"/>
-      <c r="D710" s="13"/>
+      <c r="D710" s="16"/>
       <c r="E710" s="16"/>
       <c r="F710" s="16"/>
       <c r="G710" s="13"/>
@@ -23792,7 +24033,7 @@
       <c r="A711" s="13"/>
       <c r="B711" s="13"/>
       <c r="C711" s="16"/>
-      <c r="D711" s="13"/>
+      <c r="D711" s="16"/>
       <c r="E711" s="16"/>
       <c r="F711" s="16"/>
       <c r="G711" s="13"/>
@@ -23820,7 +24061,7 @@
       <c r="A712" s="13"/>
       <c r="B712" s="13"/>
       <c r="C712" s="16"/>
-      <c r="D712" s="13"/>
+      <c r="D712" s="16"/>
       <c r="E712" s="16"/>
       <c r="F712" s="16"/>
       <c r="G712" s="13"/>
@@ -23848,7 +24089,7 @@
       <c r="A713" s="13"/>
       <c r="B713" s="13"/>
       <c r="C713" s="16"/>
-      <c r="D713" s="13"/>
+      <c r="D713" s="16"/>
       <c r="E713" s="16"/>
       <c r="F713" s="16"/>
       <c r="G713" s="13"/>
@@ -23876,7 +24117,7 @@
       <c r="A714" s="13"/>
       <c r="B714" s="13"/>
       <c r="C714" s="16"/>
-      <c r="D714" s="13"/>
+      <c r="D714" s="16"/>
       <c r="E714" s="16"/>
       <c r="F714" s="16"/>
       <c r="G714" s="13"/>
@@ -23904,7 +24145,7 @@
       <c r="A715" s="13"/>
       <c r="B715" s="13"/>
       <c r="C715" s="16"/>
-      <c r="D715" s="13"/>
+      <c r="D715" s="16"/>
       <c r="E715" s="16"/>
       <c r="F715" s="16"/>
       <c r="G715" s="13"/>
@@ -23932,7 +24173,7 @@
       <c r="A716" s="13"/>
       <c r="B716" s="13"/>
       <c r="C716" s="16"/>
-      <c r="D716" s="13"/>
+      <c r="D716" s="16"/>
       <c r="E716" s="16"/>
       <c r="F716" s="16"/>
       <c r="G716" s="13"/>
@@ -23960,7 +24201,7 @@
       <c r="A717" s="13"/>
       <c r="B717" s="13"/>
       <c r="C717" s="16"/>
-      <c r="D717" s="13"/>
+      <c r="D717" s="16"/>
       <c r="E717" s="16"/>
       <c r="F717" s="16"/>
       <c r="G717" s="13"/>
@@ -23988,7 +24229,7 @@
       <c r="A718" s="13"/>
       <c r="B718" s="13"/>
       <c r="C718" s="16"/>
-      <c r="D718" s="13"/>
+      <c r="D718" s="16"/>
       <c r="E718" s="16"/>
       <c r="F718" s="16"/>
       <c r="G718" s="13"/>
@@ -24016,7 +24257,7 @@
       <c r="A719" s="13"/>
       <c r="B719" s="13"/>
       <c r="C719" s="16"/>
-      <c r="D719" s="13"/>
+      <c r="D719" s="16"/>
       <c r="E719" s="16"/>
       <c r="F719" s="16"/>
       <c r="G719" s="13"/>
@@ -24044,7 +24285,7 @@
       <c r="A720" s="13"/>
       <c r="B720" s="13"/>
       <c r="C720" s="16"/>
-      <c r="D720" s="13"/>
+      <c r="D720" s="16"/>
       <c r="E720" s="16"/>
       <c r="F720" s="16"/>
       <c r="G720" s="13"/>
@@ -24072,7 +24313,7 @@
       <c r="A721" s="13"/>
       <c r="B721" s="13"/>
       <c r="C721" s="16"/>
-      <c r="D721" s="13"/>
+      <c r="D721" s="16"/>
       <c r="E721" s="16"/>
       <c r="F721" s="16"/>
       <c r="G721" s="13"/>
@@ -24100,7 +24341,7 @@
       <c r="A722" s="13"/>
       <c r="B722" s="13"/>
       <c r="C722" s="16"/>
-      <c r="D722" s="13"/>
+      <c r="D722" s="16"/>
       <c r="E722" s="16"/>
       <c r="F722" s="16"/>
       <c r="G722" s="13"/>
@@ -24128,7 +24369,7 @@
       <c r="A723" s="13"/>
       <c r="B723" s="13"/>
       <c r="C723" s="16"/>
-      <c r="D723" s="13"/>
+      <c r="D723" s="16"/>
       <c r="E723" s="16"/>
       <c r="F723" s="16"/>
       <c r="G723" s="13"/>
@@ -24156,7 +24397,7 @@
       <c r="A724" s="13"/>
       <c r="B724" s="13"/>
       <c r="C724" s="16"/>
-      <c r="D724" s="13"/>
+      <c r="D724" s="16"/>
       <c r="E724" s="16"/>
       <c r="F724" s="16"/>
       <c r="G724" s="13"/>
@@ -24184,7 +24425,7 @@
       <c r="A725" s="13"/>
       <c r="B725" s="13"/>
       <c r="C725" s="16"/>
-      <c r="D725" s="13"/>
+      <c r="D725" s="16"/>
       <c r="E725" s="16"/>
       <c r="F725" s="16"/>
       <c r="G725" s="13"/>
@@ -24212,7 +24453,7 @@
       <c r="A726" s="13"/>
       <c r="B726" s="13"/>
       <c r="C726" s="16"/>
-      <c r="D726" s="13"/>
+      <c r="D726" s="16"/>
       <c r="E726" s="16"/>
       <c r="F726" s="16"/>
       <c r="G726" s="13"/>
@@ -24240,7 +24481,7 @@
       <c r="A727" s="13"/>
       <c r="B727" s="13"/>
       <c r="C727" s="16"/>
-      <c r="D727" s="13"/>
+      <c r="D727" s="16"/>
       <c r="E727" s="16"/>
       <c r="F727" s="16"/>
       <c r="G727" s="13"/>
@@ -24268,7 +24509,7 @@
       <c r="A728" s="13"/>
       <c r="B728" s="13"/>
       <c r="C728" s="16"/>
-      <c r="D728" s="13"/>
+      <c r="D728" s="16"/>
       <c r="E728" s="16"/>
       <c r="F728" s="16"/>
       <c r="G728" s="13"/>
@@ -24296,7 +24537,7 @@
       <c r="A729" s="13"/>
       <c r="B729" s="13"/>
       <c r="C729" s="16"/>
-      <c r="D729" s="13"/>
+      <c r="D729" s="16"/>
       <c r="E729" s="16"/>
       <c r="F729" s="16"/>
       <c r="G729" s="13"/>
@@ -24324,7 +24565,7 @@
       <c r="A730" s="13"/>
       <c r="B730" s="13"/>
       <c r="C730" s="16"/>
-      <c r="D730" s="13"/>
+      <c r="D730" s="16"/>
       <c r="E730" s="16"/>
       <c r="F730" s="16"/>
       <c r="G730" s="13"/>
@@ -24352,7 +24593,7 @@
       <c r="A731" s="13"/>
       <c r="B731" s="13"/>
       <c r="C731" s="16"/>
-      <c r="D731" s="13"/>
+      <c r="D731" s="16"/>
       <c r="E731" s="16"/>
       <c r="F731" s="16"/>
       <c r="G731" s="13"/>
@@ -24380,7 +24621,7 @@
       <c r="A732" s="13"/>
       <c r="B732" s="13"/>
       <c r="C732" s="16"/>
-      <c r="D732" s="13"/>
+      <c r="D732" s="16"/>
       <c r="E732" s="16"/>
       <c r="F732" s="16"/>
       <c r="G732" s="13"/>
@@ -24408,7 +24649,7 @@
       <c r="A733" s="13"/>
       <c r="B733" s="13"/>
       <c r="C733" s="16"/>
-      <c r="D733" s="13"/>
+      <c r="D733" s="16"/>
       <c r="E733" s="16"/>
       <c r="F733" s="16"/>
       <c r="G733" s="13"/>
@@ -24436,7 +24677,7 @@
       <c r="A734" s="13"/>
       <c r="B734" s="13"/>
       <c r="C734" s="16"/>
-      <c r="D734" s="13"/>
+      <c r="D734" s="16"/>
       <c r="E734" s="16"/>
       <c r="F734" s="16"/>
       <c r="G734" s="13"/>
@@ -24464,7 +24705,7 @@
       <c r="A735" s="13"/>
       <c r="B735" s="13"/>
       <c r="C735" s="16"/>
-      <c r="D735" s="13"/>
+      <c r="D735" s="16"/>
       <c r="E735" s="16"/>
       <c r="F735" s="16"/>
       <c r="G735" s="13"/>
@@ -24492,7 +24733,7 @@
       <c r="A736" s="13"/>
       <c r="B736" s="13"/>
       <c r="C736" s="16"/>
-      <c r="D736" s="13"/>
+      <c r="D736" s="16"/>
       <c r="E736" s="16"/>
       <c r="F736" s="16"/>
       <c r="G736" s="13"/>
@@ -24520,7 +24761,7 @@
       <c r="A737" s="13"/>
       <c r="B737" s="13"/>
       <c r="C737" s="16"/>
-      <c r="D737" s="13"/>
+      <c r="D737" s="16"/>
       <c r="E737" s="16"/>
       <c r="F737" s="16"/>
       <c r="G737" s="13"/>
@@ -24548,7 +24789,7 @@
       <c r="A738" s="13"/>
       <c r="B738" s="13"/>
       <c r="C738" s="16"/>
-      <c r="D738" s="13"/>
+      <c r="D738" s="16"/>
       <c r="E738" s="16"/>
       <c r="F738" s="16"/>
       <c r="G738" s="13"/>
@@ -24576,7 +24817,7 @@
       <c r="A739" s="13"/>
       <c r="B739" s="13"/>
       <c r="C739" s="16"/>
-      <c r="D739" s="13"/>
+      <c r="D739" s="16"/>
       <c r="E739" s="16"/>
       <c r="F739" s="16"/>
       <c r="G739" s="13"/>
@@ -24604,7 +24845,7 @@
       <c r="A740" s="13"/>
       <c r="B740" s="13"/>
       <c r="C740" s="16"/>
-      <c r="D740" s="13"/>
+      <c r="D740" s="16"/>
       <c r="E740" s="16"/>
       <c r="F740" s="16"/>
       <c r="G740" s="13"/>
@@ -24632,7 +24873,7 @@
       <c r="A741" s="13"/>
       <c r="B741" s="13"/>
       <c r="C741" s="16"/>
-      <c r="D741" s="13"/>
+      <c r="D741" s="16"/>
       <c r="E741" s="16"/>
       <c r="F741" s="16"/>
       <c r="G741" s="13"/>
@@ -24660,7 +24901,7 @@
       <c r="A742" s="13"/>
       <c r="B742" s="13"/>
       <c r="C742" s="16"/>
-      <c r="D742" s="13"/>
+      <c r="D742" s="16"/>
       <c r="E742" s="16"/>
       <c r="F742" s="16"/>
       <c r="G742" s="13"/>
@@ -24688,7 +24929,7 @@
       <c r="A743" s="13"/>
       <c r="B743" s="13"/>
       <c r="C743" s="16"/>
-      <c r="D743" s="13"/>
+      <c r="D743" s="16"/>
       <c r="E743" s="16"/>
       <c r="F743" s="16"/>
       <c r="G743" s="13"/>
@@ -24716,7 +24957,7 @@
       <c r="A744" s="13"/>
       <c r="B744" s="13"/>
       <c r="C744" s="16"/>
-      <c r="D744" s="13"/>
+      <c r="D744" s="16"/>
       <c r="E744" s="16"/>
       <c r="F744" s="16"/>
       <c r="G744" s="13"/>
@@ -24744,7 +24985,7 @@
       <c r="A745" s="13"/>
       <c r="B745" s="13"/>
       <c r="C745" s="16"/>
-      <c r="D745" s="13"/>
+      <c r="D745" s="16"/>
       <c r="E745" s="16"/>
       <c r="F745" s="16"/>
       <c r="G745" s="13"/>
@@ -24772,7 +25013,7 @@
       <c r="A746" s="13"/>
       <c r="B746" s="13"/>
       <c r="C746" s="16"/>
-      <c r="D746" s="13"/>
+      <c r="D746" s="16"/>
       <c r="E746" s="16"/>
       <c r="F746" s="16"/>
       <c r="G746" s="13"/>
@@ -24800,7 +25041,7 @@
       <c r="A747" s="13"/>
       <c r="B747" s="13"/>
       <c r="C747" s="16"/>
-      <c r="D747" s="13"/>
+      <c r="D747" s="16"/>
       <c r="E747" s="16"/>
       <c r="F747" s="16"/>
       <c r="G747" s="13"/>
@@ -24828,7 +25069,7 @@
       <c r="A748" s="13"/>
       <c r="B748" s="13"/>
       <c r="C748" s="16"/>
-      <c r="D748" s="13"/>
+      <c r="D748" s="16"/>
       <c r="E748" s="16"/>
       <c r="F748" s="16"/>
       <c r="G748" s="13"/>
@@ -24856,7 +25097,7 @@
       <c r="A749" s="13"/>
       <c r="B749" s="13"/>
       <c r="C749" s="16"/>
-      <c r="D749" s="13"/>
+      <c r="D749" s="16"/>
       <c r="E749" s="16"/>
       <c r="F749" s="16"/>
       <c r="G749" s="13"/>
@@ -24884,7 +25125,7 @@
       <c r="A750" s="13"/>
       <c r="B750" s="13"/>
       <c r="C750" s="16"/>
-      <c r="D750" s="13"/>
+      <c r="D750" s="16"/>
       <c r="E750" s="16"/>
       <c r="F750" s="16"/>
       <c r="G750" s="13"/>
@@ -24912,7 +25153,7 @@
       <c r="A751" s="13"/>
       <c r="B751" s="13"/>
       <c r="C751" s="16"/>
-      <c r="D751" s="13"/>
+      <c r="D751" s="16"/>
       <c r="E751" s="16"/>
       <c r="F751" s="16"/>
       <c r="G751" s="13"/>
@@ -24940,7 +25181,7 @@
       <c r="A752" s="13"/>
       <c r="B752" s="13"/>
       <c r="C752" s="16"/>
-      <c r="D752" s="13"/>
+      <c r="D752" s="16"/>
       <c r="E752" s="16"/>
       <c r="F752" s="16"/>
       <c r="G752" s="13"/>
@@ -24968,7 +25209,7 @@
       <c r="A753" s="13"/>
       <c r="B753" s="13"/>
       <c r="C753" s="16"/>
-      <c r="D753" s="13"/>
+      <c r="D753" s="16"/>
       <c r="E753" s="16"/>
       <c r="F753" s="16"/>
       <c r="G753" s="13"/>
@@ -24996,7 +25237,7 @@
       <c r="A754" s="13"/>
       <c r="B754" s="13"/>
       <c r="C754" s="16"/>
-      <c r="D754" s="13"/>
+      <c r="D754" s="16"/>
       <c r="E754" s="16"/>
       <c r="F754" s="16"/>
       <c r="G754" s="13"/>
@@ -25024,7 +25265,7 @@
       <c r="A755" s="13"/>
       <c r="B755" s="13"/>
       <c r="C755" s="16"/>
-      <c r="D755" s="13"/>
+      <c r="D755" s="16"/>
       <c r="E755" s="16"/>
       <c r="F755" s="16"/>
       <c r="G755" s="13"/>
@@ -25052,7 +25293,7 @@
       <c r="A756" s="13"/>
       <c r="B756" s="13"/>
       <c r="C756" s="16"/>
-      <c r="D756" s="13"/>
+      <c r="D756" s="16"/>
       <c r="E756" s="16"/>
       <c r="F756" s="16"/>
       <c r="G756" s="13"/>
@@ -25080,7 +25321,7 @@
       <c r="A757" s="13"/>
       <c r="B757" s="13"/>
       <c r="C757" s="16"/>
-      <c r="D757" s="13"/>
+      <c r="D757" s="16"/>
       <c r="E757" s="16"/>
       <c r="F757" s="16"/>
       <c r="G757" s="13"/>
@@ -25108,7 +25349,7 @@
       <c r="A758" s="13"/>
       <c r="B758" s="13"/>
       <c r="C758" s="16"/>
-      <c r="D758" s="13"/>
+      <c r="D758" s="16"/>
       <c r="E758" s="16"/>
       <c r="F758" s="16"/>
       <c r="G758" s="13"/>
@@ -25136,7 +25377,7 @@
       <c r="A759" s="13"/>
       <c r="B759" s="13"/>
       <c r="C759" s="16"/>
-      <c r="D759" s="13"/>
+      <c r="D759" s="16"/>
       <c r="E759" s="16"/>
       <c r="F759" s="16"/>
       <c r="G759" s="13"/>
@@ -25164,7 +25405,7 @@
       <c r="A760" s="13"/>
       <c r="B760" s="13"/>
       <c r="C760" s="16"/>
-      <c r="D760" s="13"/>
+      <c r="D760" s="16"/>
       <c r="E760" s="16"/>
       <c r="F760" s="16"/>
       <c r="G760" s="13"/>
@@ -25192,7 +25433,7 @@
       <c r="A761" s="13"/>
       <c r="B761" s="13"/>
       <c r="C761" s="16"/>
-      <c r="D761" s="13"/>
+      <c r="D761" s="16"/>
       <c r="E761" s="16"/>
       <c r="F761" s="16"/>
       <c r="G761" s="13"/>
@@ -25220,7 +25461,7 @@
       <c r="A762" s="13"/>
       <c r="B762" s="13"/>
       <c r="C762" s="16"/>
-      <c r="D762" s="13"/>
+      <c r="D762" s="16"/>
       <c r="E762" s="16"/>
       <c r="F762" s="16"/>
       <c r="G762" s="13"/>
@@ -25248,7 +25489,7 @@
       <c r="A763" s="13"/>
       <c r="B763" s="13"/>
       <c r="C763" s="16"/>
-      <c r="D763" s="13"/>
+      <c r="D763" s="16"/>
       <c r="E763" s="16"/>
       <c r="F763" s="16"/>
       <c r="G763" s="13"/>
@@ -25276,7 +25517,7 @@
       <c r="A764" s="13"/>
       <c r="B764" s="13"/>
       <c r="C764" s="16"/>
-      <c r="D764" s="13"/>
+      <c r="D764" s="16"/>
       <c r="E764" s="16"/>
       <c r="F764" s="16"/>
       <c r="G764" s="13"/>
@@ -25304,7 +25545,7 @@
       <c r="A765" s="13"/>
       <c r="B765" s="13"/>
       <c r="C765" s="16"/>
-      <c r="D765" s="13"/>
+      <c r="D765" s="16"/>
       <c r="E765" s="16"/>
       <c r="F765" s="16"/>
       <c r="G765" s="13"/>
@@ -25332,7 +25573,7 @@
       <c r="A766" s="13"/>
       <c r="B766" s="13"/>
       <c r="C766" s="16"/>
-      <c r="D766" s="13"/>
+      <c r="D766" s="16"/>
       <c r="E766" s="16"/>
       <c r="F766" s="16"/>
       <c r="G766" s="13"/>
@@ -25360,7 +25601,7 @@
       <c r="A767" s="13"/>
       <c r="B767" s="13"/>
       <c r="C767" s="16"/>
-      <c r="D767" s="13"/>
+      <c r="D767" s="16"/>
       <c r="E767" s="16"/>
       <c r="F767" s="16"/>
       <c r="G767" s="13"/>
@@ -25388,7 +25629,7 @@
       <c r="A768" s="13"/>
       <c r="B768" s="13"/>
       <c r="C768" s="16"/>
-      <c r="D768" s="13"/>
+      <c r="D768" s="16"/>
       <c r="E768" s="16"/>
       <c r="F768" s="16"/>
       <c r="G768" s="13"/>
@@ -25416,7 +25657,7 @@
       <c r="A769" s="13"/>
       <c r="B769" s="13"/>
       <c r="C769" s="16"/>
-      <c r="D769" s="13"/>
+      <c r="D769" s="16"/>
       <c r="E769" s="16"/>
       <c r="F769" s="16"/>
       <c r="G769" s="13"/>
@@ -25444,7 +25685,7 @@
       <c r="A770" s="13"/>
       <c r="B770" s="13"/>
       <c r="C770" s="16"/>
-      <c r="D770" s="13"/>
+      <c r="D770" s="16"/>
       <c r="E770" s="16"/>
       <c r="F770" s="16"/>
       <c r="G770" s="13"/>
@@ -25472,7 +25713,7 @@
       <c r="A771" s="13"/>
       <c r="B771" s="13"/>
       <c r="C771" s="16"/>
-      <c r="D771" s="13"/>
+      <c r="D771" s="16"/>
       <c r="E771" s="16"/>
       <c r="F771" s="16"/>
       <c r="G771" s="13"/>
@@ -25500,7 +25741,7 @@
       <c r="A772" s="13"/>
       <c r="B772" s="13"/>
       <c r="C772" s="16"/>
-      <c r="D772" s="13"/>
+      <c r="D772" s="16"/>
       <c r="E772" s="16"/>
       <c r="F772" s="16"/>
       <c r="G772" s="13"/>
@@ -25528,7 +25769,7 @@
       <c r="A773" s="13"/>
       <c r="B773" s="13"/>
       <c r="C773" s="16"/>
-      <c r="D773" s="13"/>
+      <c r="D773" s="16"/>
       <c r="E773" s="16"/>
       <c r="F773" s="16"/>
       <c r="G773" s="13"/>
@@ -25556,7 +25797,7 @@
       <c r="A774" s="13"/>
       <c r="B774" s="13"/>
       <c r="C774" s="16"/>
-      <c r="D774" s="13"/>
+      <c r="D774" s="16"/>
       <c r="E774" s="16"/>
       <c r="F774" s="16"/>
       <c r="G774" s="13"/>
@@ -25584,7 +25825,7 @@
       <c r="A775" s="13"/>
       <c r="B775" s="13"/>
       <c r="C775" s="16"/>
-      <c r="D775" s="13"/>
+      <c r="D775" s="16"/>
       <c r="E775" s="16"/>
       <c r="F775" s="16"/>
       <c r="G775" s="13"/>
@@ -25612,7 +25853,7 @@
       <c r="A776" s="13"/>
       <c r="B776" s="13"/>
       <c r="C776" s="16"/>
-      <c r="D776" s="13"/>
+      <c r="D776" s="16"/>
       <c r="E776" s="16"/>
       <c r="F776" s="16"/>
       <c r="G776" s="13"/>
@@ -25640,7 +25881,7 @@
       <c r="A777" s="13"/>
       <c r="B777" s="13"/>
       <c r="C777" s="16"/>
-      <c r="D777" s="13"/>
+      <c r="D777" s="16"/>
       <c r="E777" s="16"/>
       <c r="F777" s="16"/>
       <c r="G777" s="13"/>
@@ -25668,7 +25909,7 @@
       <c r="A778" s="13"/>
       <c r="B778" s="13"/>
       <c r="C778" s="16"/>
-      <c r="D778" s="13"/>
+      <c r="D778" s="16"/>
       <c r="E778" s="16"/>
       <c r="F778" s="16"/>
       <c r="G778" s="13"/>
@@ -25696,7 +25937,7 @@
       <c r="A779" s="13"/>
       <c r="B779" s="13"/>
       <c r="C779" s="16"/>
-      <c r="D779" s="13"/>
+      <c r="D779" s="16"/>
       <c r="E779" s="16"/>
       <c r="F779" s="16"/>
       <c r="G779" s="13"/>
@@ -25724,7 +25965,7 @@
       <c r="A780" s="13"/>
       <c r="B780" s="13"/>
       <c r="C780" s="16"/>
-      <c r="D780" s="13"/>
+      <c r="D780" s="16"/>
       <c r="E780" s="16"/>
       <c r="F780" s="16"/>
       <c r="G780" s="13"/>
@@ -25752,7 +25993,7 @@
       <c r="A781" s="13"/>
       <c r="B781" s="13"/>
       <c r="C781" s="16"/>
-      <c r="D781" s="13"/>
+      <c r="D781" s="16"/>
       <c r="E781" s="16"/>
       <c r="F781" s="16"/>
       <c r="G781" s="13"/>
@@ -25780,7 +26021,7 @@
       <c r="A782" s="13"/>
       <c r="B782" s="13"/>
       <c r="C782" s="16"/>
-      <c r="D782" s="13"/>
+      <c r="D782" s="16"/>
       <c r="E782" s="16"/>
       <c r="F782" s="16"/>
       <c r="G782" s="13"/>
@@ -25808,7 +26049,7 @@
       <c r="A783" s="13"/>
       <c r="B783" s="13"/>
       <c r="C783" s="16"/>
-      <c r="D783" s="13"/>
+      <c r="D783" s="16"/>
       <c r="E783" s="16"/>
       <c r="F783" s="16"/>
       <c r="G783" s="13"/>
@@ -25836,7 +26077,7 @@
       <c r="A784" s="13"/>
       <c r="B784" s="13"/>
       <c r="C784" s="16"/>
-      <c r="D784" s="13"/>
+      <c r="D784" s="16"/>
       <c r="E784" s="16"/>
       <c r="F784" s="16"/>
       <c r="G784" s="13"/>
@@ -25864,7 +26105,7 @@
       <c r="A785" s="13"/>
       <c r="B785" s="13"/>
       <c r="C785" s="16"/>
-      <c r="D785" s="13"/>
+      <c r="D785" s="16"/>
       <c r="E785" s="16"/>
       <c r="F785" s="16"/>
       <c r="G785" s="13"/>
@@ -25892,7 +26133,7 @@
       <c r="A786" s="13"/>
       <c r="B786" s="13"/>
       <c r="C786" s="16"/>
-      <c r="D786" s="13"/>
+      <c r="D786" s="16"/>
       <c r="E786" s="16"/>
       <c r="F786" s="16"/>
       <c r="G786" s="13"/>
@@ -25920,7 +26161,7 @@
       <c r="A787" s="13"/>
       <c r="B787" s="13"/>
       <c r="C787" s="16"/>
-      <c r="D787" s="13"/>
+      <c r="D787" s="16"/>
       <c r="E787" s="16"/>
       <c r="F787" s="16"/>
       <c r="G787" s="13"/>
@@ -25948,7 +26189,7 @@
       <c r="A788" s="13"/>
       <c r="B788" s="13"/>
       <c r="C788" s="16"/>
-      <c r="D788" s="13"/>
+      <c r="D788" s="16"/>
       <c r="E788" s="16"/>
       <c r="F788" s="16"/>
       <c r="G788" s="13"/>
@@ -25976,7 +26217,7 @@
       <c r="A789" s="13"/>
       <c r="B789" s="13"/>
       <c r="C789" s="16"/>
-      <c r="D789" s="13"/>
+      <c r="D789" s="16"/>
       <c r="E789" s="16"/>
       <c r="F789" s="16"/>
       <c r="G789" s="13"/>
@@ -26004,7 +26245,7 @@
       <c r="A790" s="13"/>
       <c r="B790" s="13"/>
       <c r="C790" s="16"/>
-      <c r="D790" s="13"/>
+      <c r="D790" s="16"/>
       <c r="E790" s="16"/>
       <c r="F790" s="16"/>
       <c r="G790" s="13"/>
@@ -26032,7 +26273,7 @@
       <c r="A791" s="13"/>
       <c r="B791" s="13"/>
       <c r="C791" s="16"/>
-      <c r="D791" s="13"/>
+      <c r="D791" s="16"/>
       <c r="E791" s="16"/>
       <c r="F791" s="16"/>
       <c r="G791" s="13"/>
@@ -26060,7 +26301,7 @@
       <c r="A792" s="13"/>
       <c r="B792" s="13"/>
       <c r="C792" s="16"/>
-      <c r="D792" s="13"/>
+      <c r="D792" s="16"/>
       <c r="E792" s="16"/>
       <c r="F792" s="16"/>
       <c r="G792" s="13"/>
@@ -26088,7 +26329,7 @@
       <c r="A793" s="13"/>
       <c r="B793" s="13"/>
       <c r="C793" s="16"/>
-      <c r="D793" s="13"/>
+      <c r="D793" s="16"/>
       <c r="E793" s="16"/>
       <c r="F793" s="16"/>
       <c r="G793" s="13"/>
@@ -26116,7 +26357,7 @@
       <c r="A794" s="13"/>
       <c r="B794" s="13"/>
       <c r="C794" s="16"/>
-      <c r="D794" s="13"/>
+      <c r="D794" s="16"/>
       <c r="E794" s="16"/>
       <c r="F794" s="16"/>
       <c r="G794" s="13"/>
@@ -26144,7 +26385,7 @@
       <c r="A795" s="13"/>
       <c r="B795" s="13"/>
       <c r="C795" s="16"/>
-      <c r="D795" s="13"/>
+      <c r="D795" s="16"/>
       <c r="E795" s="16"/>
       <c r="F795" s="16"/>
       <c r="G795" s="13"/>
@@ -26172,7 +26413,7 @@
       <c r="A796" s="13"/>
       <c r="B796" s="13"/>
       <c r="C796" s="16"/>
-      <c r="D796" s="13"/>
+      <c r="D796" s="16"/>
       <c r="E796" s="16"/>
       <c r="F796" s="16"/>
       <c r="G796" s="13"/>
@@ -26200,7 +26441,7 @@
       <c r="A797" s="13"/>
       <c r="B797" s="13"/>
       <c r="C797" s="16"/>
-      <c r="D797" s="13"/>
+      <c r="D797" s="16"/>
       <c r="E797" s="16"/>
       <c r="F797" s="16"/>
       <c r="G797" s="13"/>
@@ -26228,7 +26469,7 @@
       <c r="A798" s="13"/>
       <c r="B798" s="13"/>
       <c r="C798" s="16"/>
-      <c r="D798" s="13"/>
+      <c r="D798" s="16"/>
       <c r="E798" s="16"/>
       <c r="F798" s="16"/>
       <c r="G798" s="13"/>
@@ -26256,7 +26497,7 @@
       <c r="A799" s="13"/>
       <c r="B799" s="13"/>
       <c r="C799" s="16"/>
-      <c r="D799" s="13"/>
+      <c r="D799" s="16"/>
       <c r="E799" s="16"/>
       <c r="F799" s="16"/>
       <c r="G799" s="13"/>
@@ -26284,7 +26525,7 @@
       <c r="A800" s="13"/>
       <c r="B800" s="13"/>
       <c r="C800" s="16"/>
-      <c r="D800" s="13"/>
+      <c r="D800" s="16"/>
       <c r="E800" s="16"/>
       <c r="F800" s="16"/>
       <c r="G800" s="13"/>
@@ -26312,7 +26553,7 @@
       <c r="A801" s="13"/>
       <c r="B801" s="13"/>
       <c r="C801" s="16"/>
-      <c r="D801" s="13"/>
+      <c r="D801" s="16"/>
       <c r="E801" s="16"/>
       <c r="F801" s="16"/>
       <c r="G801" s="13"/>
@@ -26340,7 +26581,7 @@
       <c r="A802" s="13"/>
       <c r="B802" s="13"/>
       <c r="C802" s="16"/>
-      <c r="D802" s="13"/>
+      <c r="D802" s="16"/>
       <c r="E802" s="16"/>
       <c r="F802" s="16"/>
       <c r="G802" s="13"/>
@@ -26368,7 +26609,7 @@
       <c r="A803" s="13"/>
       <c r="B803" s="13"/>
       <c r="C803" s="16"/>
-      <c r="D803" s="13"/>
+      <c r="D803" s="16"/>
       <c r="E803" s="16"/>
       <c r="F803" s="16"/>
       <c r="G803" s="13"/>
@@ -26396,7 +26637,7 @@
       <c r="A804" s="13"/>
       <c r="B804" s="13"/>
       <c r="C804" s="16"/>
-      <c r="D804" s="13"/>
+      <c r="D804" s="16"/>
       <c r="E804" s="16"/>
       <c r="F804" s="16"/>
       <c r="G804" s="13"/>
@@ -26424,7 +26665,7 @@
       <c r="A805" s="13"/>
       <c r="B805" s="13"/>
       <c r="C805" s="16"/>
-      <c r="D805" s="13"/>
+      <c r="D805" s="16"/>
       <c r="E805" s="16"/>
       <c r="F805" s="16"/>
       <c r="G805" s="13"/>
@@ -26452,7 +26693,7 @@
       <c r="A806" s="13"/>
       <c r="B806" s="13"/>
       <c r="C806" s="16"/>
-      <c r="D806" s="13"/>
+      <c r="D806" s="16"/>
       <c r="E806" s="16"/>
       <c r="F806" s="16"/>
       <c r="G806" s="13"/>
@@ -26480,7 +26721,7 @@
       <c r="A807" s="13"/>
       <c r="B807" s="13"/>
       <c r="C807" s="16"/>
-      <c r="D807" s="13"/>
+      <c r="D807" s="16"/>
       <c r="E807" s="16"/>
       <c r="F807" s="16"/>
       <c r="G807" s="13"/>
@@ -26508,7 +26749,7 @@
       <c r="A808" s="13"/>
       <c r="B808" s="13"/>
       <c r="C808" s="16"/>
-      <c r="D808" s="13"/>
+      <c r="D808" s="16"/>
       <c r="E808" s="16"/>
       <c r="F808" s="16"/>
       <c r="G808" s="13"/>
@@ -26536,7 +26777,7 @@
       <c r="A809" s="13"/>
       <c r="B809" s="13"/>
       <c r="C809" s="16"/>
-      <c r="D809" s="13"/>
+      <c r="D809" s="16"/>
       <c r="E809" s="16"/>
       <c r="F809" s="16"/>
       <c r="G809" s="13"/>
@@ -26564,7 +26805,7 @@
       <c r="A810" s="13"/>
       <c r="B810" s="13"/>
       <c r="C810" s="16"/>
-      <c r="D810" s="13"/>
+      <c r="D810" s="16"/>
       <c r="E810" s="16"/>
       <c r="F810" s="16"/>
       <c r="G810" s="13"/>
@@ -26592,7 +26833,7 @@
       <c r="A811" s="13"/>
       <c r="B811" s="13"/>
       <c r="C811" s="16"/>
-      <c r="D811" s="13"/>
+      <c r="D811" s="16"/>
       <c r="E811" s="16"/>
       <c r="F811" s="16"/>
       <c r="G811" s="13"/>
@@ -26620,7 +26861,7 @@
       <c r="A812" s="13"/>
       <c r="B812" s="13"/>
       <c r="C812" s="16"/>
-      <c r="D812" s="13"/>
+      <c r="D812" s="16"/>
       <c r="E812" s="16"/>
       <c r="F812" s="16"/>
       <c r="G812" s="13"/>
@@ -26648,7 +26889,7 @@
       <c r="A813" s="13"/>
       <c r="B813" s="13"/>
       <c r="C813" s="16"/>
-      <c r="D813" s="13"/>
+      <c r="D813" s="16"/>
       <c r="E813" s="16"/>
       <c r="F813" s="16"/>
       <c r="G813" s="13"/>
@@ -26676,7 +26917,7 @@
       <c r="A814" s="13"/>
       <c r="B814" s="13"/>
       <c r="C814" s="16"/>
-      <c r="D814" s="13"/>
+      <c r="D814" s="16"/>
       <c r="E814" s="16"/>
       <c r="F814" s="16"/>
       <c r="G814" s="13"/>
@@ -26704,7 +26945,7 @@
       <c r="A815" s="13"/>
       <c r="B815" s="13"/>
       <c r="C815" s="16"/>
-      <c r="D815" s="13"/>
+      <c r="D815" s="16"/>
       <c r="E815" s="16"/>
       <c r="F815" s="16"/>
       <c r="G815" s="13"/>
@@ -26732,7 +26973,7 @@
       <c r="A816" s="13"/>
       <c r="B816" s="13"/>
       <c r="C816" s="16"/>
-      <c r="D816" s="13"/>
+      <c r="D816" s="16"/>
       <c r="E816" s="16"/>
       <c r="F816" s="16"/>
       <c r="G816" s="13"/>
@@ -26760,7 +27001,7 @@
       <c r="A817" s="13"/>
       <c r="B817" s="13"/>
       <c r="C817" s="16"/>
-      <c r="D817" s="13"/>
+      <c r="D817" s="16"/>
       <c r="E817" s="16"/>
       <c r="F817" s="16"/>
       <c r="G817" s="13"/>
@@ -26788,7 +27029,7 @@
       <c r="A818" s="13"/>
       <c r="B818" s="13"/>
       <c r="C818" s="16"/>
-      <c r="D818" s="13"/>
+      <c r="D818" s="16"/>
       <c r="E818" s="16"/>
       <c r="F818" s="16"/>
       <c r="G818" s="13"/>
@@ -26816,7 +27057,7 @@
       <c r="A819" s="13"/>
       <c r="B819" s="13"/>
       <c r="C819" s="16"/>
-      <c r="D819" s="13"/>
+      <c r="D819" s="16"/>
       <c r="E819" s="16"/>
       <c r="F819" s="16"/>
       <c r="G819" s="13"/>
@@ -26844,7 +27085,7 @@
       <c r="A820" s="13"/>
       <c r="B820" s="13"/>
       <c r="C820" s="16"/>
-      <c r="D820" s="13"/>
+      <c r="D820" s="16"/>
       <c r="E820" s="16"/>
       <c r="F820" s="16"/>
       <c r="G820" s="13"/>
@@ -26872,7 +27113,7 @@
       <c r="A821" s="13"/>
       <c r="B821" s="13"/>
       <c r="C821" s="16"/>
-      <c r="D821" s="13"/>
+      <c r="D821" s="16"/>
       <c r="E821" s="16"/>
       <c r="F821" s="16"/>
       <c r="G821" s="13"/>
@@ -26900,7 +27141,7 @@
       <c r="A822" s="13"/>
       <c r="B822" s="13"/>
       <c r="C822" s="16"/>
-      <c r="D822" s="13"/>
+      <c r="D822" s="16"/>
       <c r="E822" s="16"/>
       <c r="F822" s="16"/>
       <c r="G822" s="13"/>
@@ -26928,7 +27169,7 @@
       <c r="A823" s="13"/>
       <c r="B823" s="13"/>
       <c r="C823" s="16"/>
-      <c r="D823" s="13"/>
+      <c r="D823" s="16"/>
       <c r="E823" s="16"/>
       <c r="F823" s="16"/>
       <c r="G823" s="13"/>
@@ -26956,7 +27197,7 @@
       <c r="A824" s="13"/>
       <c r="B824" s="13"/>
       <c r="C824" s="16"/>
-      <c r="D824" s="13"/>
+      <c r="D824" s="16"/>
       <c r="E824" s="16"/>
       <c r="F824" s="16"/>
       <c r="G824" s="13"/>
@@ -26984,7 +27225,7 @@
       <c r="A825" s="13"/>
       <c r="B825" s="13"/>
       <c r="C825" s="16"/>
-      <c r="D825" s="13"/>
+      <c r="D825" s="16"/>
       <c r="E825" s="16"/>
       <c r="F825" s="16"/>
       <c r="G825" s="13"/>
@@ -27012,7 +27253,7 @@
       <c r="A826" s="13"/>
       <c r="B826" s="13"/>
       <c r="C826" s="16"/>
-      <c r="D826" s="13"/>
+      <c r="D826" s="16"/>
       <c r="E826" s="16"/>
       <c r="F826" s="16"/>
       <c r="G826" s="13"/>
@@ -27040,7 +27281,7 @@
       <c r="A827" s="13"/>
       <c r="B827" s="13"/>
       <c r="C827" s="16"/>
-      <c r="D827" s="13"/>
+      <c r="D827" s="16"/>
       <c r="E827" s="16"/>
       <c r="F827" s="16"/>
       <c r="G827" s="13"/>
@@ -27068,7 +27309,7 @@
       <c r="A828" s="13"/>
       <c r="B828" s="13"/>
       <c r="C828" s="16"/>
-      <c r="D828" s="13"/>
+      <c r="D828" s="16"/>
       <c r="E828" s="16"/>
       <c r="F828" s="16"/>
       <c r="G828" s="13"/>
@@ -27096,7 +27337,7 @@
       <c r="A829" s="13"/>
       <c r="B829" s="13"/>
       <c r="C829" s="16"/>
-      <c r="D829" s="13"/>
+      <c r="D829" s="16"/>
       <c r="E829" s="16"/>
       <c r="F829" s="16"/>
       <c r="G829" s="13"/>
@@ -27124,7 +27365,7 @@
       <c r="A830" s="13"/>
       <c r="B830" s="13"/>
       <c r="C830" s="16"/>
-      <c r="D830" s="13"/>
+      <c r="D830" s="16"/>
       <c r="E830" s="16"/>
       <c r="F830" s="16"/>
       <c r="G830" s="13"/>
@@ -27152,7 +27393,7 @@
       <c r="A831" s="13"/>
       <c r="B831" s="13"/>
       <c r="C831" s="16"/>
-      <c r="D831" s="13"/>
+      <c r="D831" s="16"/>
       <c r="E831" s="16"/>
       <c r="F831" s="16"/>
       <c r="G831" s="13"/>
@@ -27180,7 +27421,7 @@
       <c r="A832" s="13"/>
       <c r="B832" s="13"/>
       <c r="C832" s="16"/>
-      <c r="D832" s="13"/>
+      <c r="D832" s="16"/>
       <c r="E832" s="16"/>
       <c r="F832" s="16"/>
       <c r="G832" s="13"/>
@@ -27208,7 +27449,7 @@
       <c r="A833" s="13"/>
       <c r="B833" s="13"/>
       <c r="C833" s="16"/>
-      <c r="D833" s="13"/>
+      <c r="D833" s="16"/>
       <c r="E833" s="16"/>
       <c r="F833" s="16"/>
       <c r="G833" s="13"/>
@@ -27236,7 +27477,7 @@
       <c r="A834" s="13"/>
       <c r="B834" s="13"/>
       <c r="C834" s="16"/>
-      <c r="D834" s="13"/>
+      <c r="D834" s="16"/>
       <c r="E834" s="16"/>
       <c r="F834" s="16"/>
       <c r="G834" s="13"/>
@@ -27264,7 +27505,7 @@
       <c r="A835" s="13"/>
       <c r="B835" s="13"/>
       <c r="C835" s="16"/>
-      <c r="D835" s="13"/>
+      <c r="D835" s="16"/>
       <c r="E835" s="16"/>
       <c r="F835" s="16"/>
       <c r="G835" s="13"/>
@@ -27292,7 +27533,7 @@
       <c r="A836" s="13"/>
       <c r="B836" s="13"/>
       <c r="C836" s="16"/>
-      <c r="D836" s="13"/>
+      <c r="D836" s="16"/>
       <c r="E836" s="16"/>
       <c r="F836" s="16"/>
       <c r="G836" s="13"/>
@@ -27320,7 +27561,7 @@
       <c r="A837" s="13"/>
       <c r="B837" s="13"/>
       <c r="C837" s="16"/>
-      <c r="D837" s="13"/>
+      <c r="D837" s="16"/>
       <c r="E837" s="16"/>
       <c r="F837" s="16"/>
       <c r="G837" s="13"/>
@@ -27348,7 +27589,7 @@
       <c r="A838" s="13"/>
       <c r="B838" s="13"/>
       <c r="C838" s="16"/>
-      <c r="D838" s="13"/>
+      <c r="D838" s="16"/>
       <c r="E838" s="16"/>
       <c r="F838" s="16"/>
       <c r="G838" s="13"/>
@@ -27376,7 +27617,7 @@
       <c r="A839" s="13"/>
       <c r="B839" s="13"/>
       <c r="C839" s="16"/>
-      <c r="D839" s="13"/>
+      <c r="D839" s="16"/>
       <c r="E839" s="16"/>
       <c r="F839" s="16"/>
       <c r="G839" s="13"/>
@@ -27404,7 +27645,7 @@
       <c r="A840" s="13"/>
       <c r="B840" s="13"/>
       <c r="C840" s="16"/>
-      <c r="D840" s="13"/>
+      <c r="D840" s="16"/>
       <c r="E840" s="16"/>
       <c r="F840" s="16"/>
       <c r="G840" s="13"/>
@@ -27432,7 +27673,7 @@
       <c r="A841" s="13"/>
       <c r="B841" s="13"/>
       <c r="C841" s="16"/>
-      <c r="D841" s="13"/>
+      <c r="D841" s="16"/>
       <c r="E841" s="16"/>
       <c r="F841" s="16"/>
       <c r="G841" s="13"/>
@@ -27460,7 +27701,7 @@
       <c r="A842" s="13"/>
       <c r="B842" s="13"/>
       <c r="C842" s="16"/>
-      <c r="D842" s="13"/>
+      <c r="D842" s="16"/>
       <c r="E842" s="16"/>
       <c r="F842" s="16"/>
       <c r="G842" s="13"/>
@@ -27488,7 +27729,7 @@
       <c r="A843" s="13"/>
       <c r="B843" s="13"/>
       <c r="C843" s="16"/>
-      <c r="D843" s="13"/>
+      <c r="D843" s="16"/>
       <c r="E843" s="16"/>
       <c r="F843" s="16"/>
       <c r="G843" s="13"/>
@@ -27516,7 +27757,7 @@
       <c r="A844" s="13"/>
       <c r="B844" s="13"/>
       <c r="C844" s="16"/>
-      <c r="D844" s="13"/>
+      <c r="D844" s="16"/>
       <c r="E844" s="16"/>
       <c r="F844" s="16"/>
       <c r="G844" s="13"/>
@@ -27544,7 +27785,7 @@
       <c r="A845" s="13"/>
       <c r="B845" s="13"/>
       <c r="C845" s="16"/>
-      <c r="D845" s="13"/>
+      <c r="D845" s="16"/>
       <c r="E845" s="16"/>
       <c r="F845" s="16"/>
       <c r="G845" s="13"/>
@@ -27572,7 +27813,7 @@
       <c r="A846" s="13"/>
       <c r="B846" s="13"/>
       <c r="C846" s="16"/>
-      <c r="D846" s="13"/>
+      <c r="D846" s="16"/>
       <c r="E846" s="16"/>
       <c r="F846" s="16"/>
       <c r="G846" s="13"/>
@@ -27600,7 +27841,7 @@
       <c r="A847" s="13"/>
       <c r="B847" s="13"/>
       <c r="C847" s="16"/>
-      <c r="D847" s="13"/>
+      <c r="D847" s="16"/>
       <c r="E847" s="16"/>
       <c r="F847" s="16"/>
       <c r="G847" s="13"/>
@@ -27628,7 +27869,7 @@
       <c r="A848" s="13"/>
       <c r="B848" s="13"/>
       <c r="C848" s="16"/>
-      <c r="D848" s="13"/>
+      <c r="D848" s="16"/>
       <c r="E848" s="16"/>
       <c r="F848" s="16"/>
       <c r="G848" s="13"/>
@@ -27656,7 +27897,7 @@
       <c r="A849" s="13"/>
       <c r="B849" s="13"/>
       <c r="C849" s="16"/>
-      <c r="D849" s="13"/>
+      <c r="D849" s="16"/>
       <c r="E849" s="16"/>
       <c r="F849" s="16"/>
       <c r="G849" s="13"/>
@@ -27684,7 +27925,7 @@
       <c r="A850" s="13"/>
       <c r="B850" s="13"/>
       <c r="C850" s="16"/>
-      <c r="D850" s="13"/>
+      <c r="D850" s="16"/>
       <c r="E850" s="16"/>
       <c r="F850" s="16"/>
       <c r="G850" s="13"/>
@@ -27712,7 +27953,7 @@
       <c r="A851" s="13"/>
       <c r="B851" s="13"/>
       <c r="C851" s="16"/>
-      <c r="D851" s="13"/>
+      <c r="D851" s="16"/>
       <c r="E851" s="16"/>
       <c r="F851" s="16"/>
       <c r="G851" s="13"/>
@@ -27740,7 +27981,7 @@
       <c r="A852" s="13"/>
       <c r="B852" s="13"/>
       <c r="C852" s="16"/>
-      <c r="D852" s="13"/>
+      <c r="D852" s="16"/>
       <c r="E852" s="16"/>
       <c r="F852" s="16"/>
       <c r="G852" s="13"/>
@@ -27768,7 +28009,7 @@
       <c r="A853" s="13"/>
       <c r="B853" s="13"/>
       <c r="C853" s="16"/>
-      <c r="D853" s="13"/>
+      <c r="D853" s="16"/>
       <c r="E853" s="16"/>
       <c r="F853" s="16"/>
       <c r="G853" s="13"/>
@@ -27796,7 +28037,7 @@
       <c r="A854" s="13"/>
       <c r="B854" s="13"/>
       <c r="C854" s="16"/>
-      <c r="D854" s="13"/>
+      <c r="D854" s="16"/>
       <c r="E854" s="16"/>
       <c r="F854" s="16"/>
       <c r="G854" s="13"/>
@@ -27824,7 +28065,7 @@
       <c r="A855" s="13"/>
       <c r="B855" s="13"/>
       <c r="C855" s="16"/>
-      <c r="D855" s="13"/>
+      <c r="D855" s="16"/>
       <c r="E855" s="16"/>
       <c r="F855" s="16"/>
       <c r="G855" s="13"/>
@@ -27852,7 +28093,7 @@
       <c r="A856" s="13"/>
       <c r="B856" s="13"/>
       <c r="C856" s="16"/>
-      <c r="D856" s="13"/>
+      <c r="D856" s="16"/>
       <c r="E856" s="16"/>
       <c r="F856" s="16"/>
       <c r="G856" s="13"/>
@@ -27880,7 +28121,7 @@
       <c r="A857" s="13"/>
       <c r="B857" s="13"/>
       <c r="C857" s="16"/>
-      <c r="D857" s="13"/>
+      <c r="D857" s="16"/>
       <c r="E857" s="16"/>
       <c r="F857" s="16"/>
       <c r="G857" s="13"/>
@@ -27908,7 +28149,7 @@
       <c r="A858" s="13"/>
       <c r="B858" s="13"/>
       <c r="C858" s="16"/>
-      <c r="D858" s="13"/>
+      <c r="D858" s="16"/>
       <c r="E858" s="16"/>
       <c r="F858" s="16"/>
       <c r="G858" s="13"/>
@@ -27936,7 +28177,7 @@
       <c r="A859" s="13"/>
       <c r="B859" s="13"/>
       <c r="C859" s="16"/>
-      <c r="D859" s="13"/>
+      <c r="D859" s="16"/>
       <c r="E859" s="16"/>
       <c r="F859" s="16"/>
       <c r="G859" s="13"/>
@@ -27964,7 +28205,7 @@
       <c r="A860" s="13"/>
       <c r="B860" s="13"/>
       <c r="C860" s="16"/>
-      <c r="D860" s="13"/>
+      <c r="D860" s="16"/>
       <c r="E860" s="16"/>
       <c r="F860" s="16"/>
       <c r="G860" s="13"/>
@@ -27992,7 +28233,7 @@
       <c r="A861" s="13"/>
       <c r="B861" s="13"/>
       <c r="C861" s="16"/>
-      <c r="D861" s="13"/>
+      <c r="D861" s="16"/>
       <c r="E861" s="16"/>
       <c r="F861" s="16"/>
       <c r="G861" s="13"/>
@@ -28020,7 +28261,7 @@
       <c r="A862" s="13"/>
       <c r="B862" s="13"/>
       <c r="C862" s="16"/>
-      <c r="D862" s="13"/>
+      <c r="D862" s="16"/>
       <c r="E862" s="16"/>
       <c r="F862" s="16"/>
       <c r="G862" s="13"/>
@@ -28048,7 +28289,7 @@
       <c r="A863" s="13"/>
       <c r="B863" s="13"/>
       <c r="C863" s="16"/>
-      <c r="D863" s="13"/>
+      <c r="D863" s="16"/>
       <c r="E863" s="16"/>
       <c r="F863" s="16"/>
       <c r="G863" s="13"/>
@@ -28076,7 +28317,7 @@
       <c r="A864" s="13"/>
       <c r="B864" s="13"/>
       <c r="C864" s="16"/>
-      <c r="D864" s="13"/>
+      <c r="D864" s="16"/>
       <c r="E864" s="16"/>
       <c r="F864" s="16"/>
       <c r="G864" s="13"/>
@@ -28104,7 +28345,7 @@
       <c r="A865" s="13"/>
       <c r="B865" s="13"/>
       <c r="C865" s="16"/>
-      <c r="D865" s="13"/>
+      <c r="D865" s="16"/>
       <c r="E865" s="16"/>
       <c r="F865" s="16"/>
       <c r="G865" s="13"/>
@@ -28132,7 +28373,7 @@
       <c r="A866" s="13"/>
       <c r="B866" s="13"/>
       <c r="C866" s="16"/>
-      <c r="D866" s="13"/>
+      <c r="D866" s="16"/>
       <c r="E866" s="16"/>
       <c r="F866" s="16"/>
       <c r="G866" s="13"/>
@@ -28160,7 +28401,7 @@
       <c r="A867" s="13"/>
       <c r="B867" s="13"/>
       <c r="C867" s="16"/>
-      <c r="D867" s="13"/>
+      <c r="D867" s="16"/>
       <c r="E867" s="16"/>
       <c r="F867" s="16"/>
       <c r="G867" s="13"/>
@@ -28188,7 +28429,7 @@
       <c r="A868" s="13"/>
       <c r="B868" s="13"/>
       <c r="C868" s="16"/>
-      <c r="D868" s="13"/>
+      <c r="D868" s="16"/>
       <c r="E868" s="16"/>
       <c r="F868" s="16"/>
       <c r="G868" s="13"/>
@@ -28216,7 +28457,7 @@
       <c r="A869" s="13"/>
       <c r="B869" s="13"/>
       <c r="C869" s="16"/>
-      <c r="D869" s="13"/>
+      <c r="D869" s="16"/>
       <c r="E869" s="16"/>
       <c r="F869" s="16"/>
       <c r="G869" s="13"/>
@@ -28244,7 +28485,7 @@
       <c r="A870" s="13"/>
       <c r="B870" s="13"/>
       <c r="C870" s="16"/>
-      <c r="D870" s="13"/>
+      <c r="D870" s="16"/>
       <c r="E870" s="16"/>
       <c r="F870" s="16"/>
       <c r="G870" s="13"/>
@@ -28272,7 +28513,7 @@
       <c r="A871" s="13"/>
       <c r="B871" s="13"/>
       <c r="C871" s="16"/>
-      <c r="D871" s="13"/>
+      <c r="D871" s="16"/>
       <c r="E871" s="16"/>
       <c r="F871" s="16"/>
       <c r="G871" s="13"/>
@@ -28300,7 +28541,7 @@
       <c r="A872" s="13"/>
       <c r="B872" s="13"/>
       <c r="C872" s="16"/>
-      <c r="D872" s="13"/>
+      <c r="D872" s="16"/>
       <c r="E872" s="16"/>
       <c r="F872" s="16"/>
       <c r="G872" s="13"/>
@@ -28328,7 +28569,7 @@
       <c r="A873" s="13"/>
       <c r="B873" s="13"/>
       <c r="C873" s="16"/>
-      <c r="D873" s="13"/>
+      <c r="D873" s="16"/>
       <c r="E873" s="16"/>
       <c r="F873" s="16"/>
       <c r="G873" s="13"/>
@@ -28356,7 +28597,7 @@
       <c r="A874" s="13"/>
       <c r="B874" s="13"/>
       <c r="C874" s="16"/>
-      <c r="D874" s="13"/>
+      <c r="D874" s="16"/>
       <c r="E874" s="16"/>
       <c r="F874" s="16"/>
       <c r="G874" s="13"/>
@@ -28384,7 +28625,7 @@
       <c r="A875" s="13"/>
       <c r="B875" s="13"/>
       <c r="C875" s="16"/>
-      <c r="D875" s="13"/>
+      <c r="D875" s="16"/>
       <c r="E875" s="16"/>
       <c r="F875" s="16"/>
       <c r="G875" s="13"/>
@@ -28412,7 +28653,7 @@
       <c r="A876" s="13"/>
       <c r="B876" s="13"/>
       <c r="C876" s="16"/>
-      <c r="D876" s="13"/>
+      <c r="D876" s="16"/>
       <c r="E876" s="16"/>
       <c r="F876" s="16"/>
       <c r="G876" s="13"/>
@@ -28440,7 +28681,7 @@
       <c r="A877" s="13"/>
       <c r="B877" s="13"/>
       <c r="C877" s="16"/>
-      <c r="D877" s="13"/>
+      <c r="D877" s="16"/>
       <c r="E877" s="16"/>
       <c r="F877" s="16"/>
       <c r="G877" s="13"/>
@@ -28468,7 +28709,7 @@
       <c r="A878" s="13"/>
       <c r="B878" s="13"/>
       <c r="C878" s="16"/>
-      <c r="D878" s="13"/>
+      <c r="D878" s="16"/>
       <c r="E878" s="16"/>
       <c r="F878" s="16"/>
       <c r="G878" s="13"/>
@@ -28496,7 +28737,7 @@
       <c r="A879" s="13"/>
       <c r="B879" s="13"/>
       <c r="C879" s="16"/>
-      <c r="D879" s="13"/>
+      <c r="D879" s="16"/>
       <c r="E879" s="16"/>
       <c r="F879" s="16"/>
       <c r="G879" s="13"/>
@@ -28524,7 +28765,7 @@
       <c r="A880" s="13"/>
       <c r="B880" s="13"/>
       <c r="C880" s="16"/>
-      <c r="D880" s="13"/>
+      <c r="D880" s="16"/>
       <c r="E880" s="16"/>
       <c r="F880" s="16"/>
       <c r="G880" s="13"/>
@@ -28552,7 +28793,7 @@
       <c r="A881" s="13"/>
       <c r="B881" s="13"/>
       <c r="C881" s="16"/>
-      <c r="D881" s="13"/>
+      <c r="D881" s="16"/>
       <c r="E881" s="16"/>
       <c r="F881" s="16"/>
       <c r="G881" s="13"/>
@@ -28580,7 +28821,7 @@
       <c r="A882" s="13"/>
       <c r="B882" s="13"/>
       <c r="C882" s="16"/>
-      <c r="D882" s="13"/>
+      <c r="D882" s="16"/>
       <c r="E882" s="16"/>
       <c r="F882" s="16"/>
       <c r="G882" s="13"/>
@@ -28608,7 +28849,7 @@
       <c r="A883" s="13"/>
       <c r="B883" s="13"/>
       <c r="C883" s="16"/>
-      <c r="D883" s="13"/>
+      <c r="D883" s="16"/>
       <c r="E883" s="16"/>
       <c r="F883" s="16"/>
       <c r="G883" s="13"/>
@@ -28636,7 +28877,7 @@
       <c r="A884" s="13"/>
       <c r="B884" s="13"/>
       <c r="C884" s="16"/>
-      <c r="D884" s="13"/>
+      <c r="D884" s="16"/>
       <c r="E884" s="16"/>
       <c r="F884" s="16"/>
       <c r="G884" s="13"/>
@@ -28664,7 +28905,7 @@
       <c r="A885" s="13"/>
       <c r="B885" s="13"/>
       <c r="C885" s="16"/>
-      <c r="D885" s="13"/>
+      <c r="D885" s="16"/>
       <c r="E885" s="16"/>
       <c r="F885" s="16"/>
       <c r="G885" s="13"/>
@@ -28692,7 +28933,7 @@
       <c r="A886" s="13"/>
       <c r="B886" s="13"/>
       <c r="C886" s="16"/>
-      <c r="D886" s="13"/>
+      <c r="D886" s="16"/>
       <c r="E886" s="16"/>
       <c r="F886" s="16"/>
       <c r="G886" s="13"/>
@@ -28720,7 +28961,7 @@
       <c r="A887" s="13"/>
       <c r="B887" s="13"/>
       <c r="C887" s="16"/>
-      <c r="D887" s="13"/>
+      <c r="D887" s="16"/>
       <c r="E887" s="16"/>
       <c r="F887" s="16"/>
       <c r="G887" s="13"/>
@@ -28748,7 +28989,7 @@
       <c r="A888" s="13"/>
       <c r="B888" s="13"/>
       <c r="C888" s="16"/>
-      <c r="D888" s="13"/>
+      <c r="D888" s="16"/>
       <c r="E888" s="16"/>
       <c r="F888" s="16"/>
       <c r="G888" s="13"/>
@@ -28776,7 +29017,7 @@
       <c r="A889" s="13"/>
       <c r="B889" s="13"/>
       <c r="C889" s="16"/>
-      <c r="D889" s="13"/>
+      <c r="D889" s="16"/>
       <c r="E889" s="16"/>
       <c r="F889" s="16"/>
       <c r="G889" s="13"/>
@@ -28804,7 +29045,7 @@
       <c r="A890" s="13"/>
       <c r="B890" s="13"/>
       <c r="C890" s="16"/>
-      <c r="D890" s="13"/>
+      <c r="D890" s="16"/>
       <c r="E890" s="16"/>
       <c r="F890" s="16"/>
       <c r="G890" s="13"/>
@@ -28832,7 +29073,7 @@
       <c r="A891" s="13"/>
       <c r="B891" s="13"/>
       <c r="C891" s="16"/>
-      <c r="D891" s="13"/>
+      <c r="D891" s="16"/>
       <c r="E891" s="16"/>
       <c r="F891" s="16"/>
       <c r="G891" s="13"/>
@@ -28860,7 +29101,7 @@
       <c r="A892" s="13"/>
       <c r="B892" s="13"/>
       <c r="C892" s="16"/>
-      <c r="D892" s="13"/>
+      <c r="D892" s="16"/>
       <c r="E892" s="16"/>
       <c r="F892" s="16"/>
       <c r="G892" s="13"/>
@@ -28888,7 +29129,7 @@
       <c r="A893" s="13"/>
       <c r="B893" s="13"/>
       <c r="C893" s="16"/>
-      <c r="D893" s="13"/>
+      <c r="D893" s="16"/>
       <c r="E893" s="16"/>
       <c r="F893" s="16"/>
       <c r="G893" s="13"/>
@@ -28916,7 +29157,7 @@
       <c r="A894" s="13"/>
       <c r="B894" s="13"/>
       <c r="C894" s="16"/>
-      <c r="D894" s="13"/>
+      <c r="D894" s="16"/>
       <c r="E894" s="16"/>
       <c r="F894" s="16"/>
       <c r="G894" s="13"/>
@@ -28944,7 +29185,7 @@
       <c r="A895" s="13"/>
       <c r="B895" s="13"/>
       <c r="C895" s="16"/>
-      <c r="D895" s="13"/>
+      <c r="D895" s="16"/>
       <c r="E895" s="16"/>
       <c r="F895" s="16"/>
       <c r="G895" s="13"/>
@@ -28972,7 +29213,7 @@
       <c r="A896" s="13"/>
       <c r="B896" s="13"/>
       <c r="C896" s="16"/>
-      <c r="D896" s="13"/>
+      <c r="D896" s="16"/>
       <c r="E896" s="16"/>
       <c r="F896" s="16"/>
       <c r="G896" s="13"/>
@@ -29000,7 +29241,7 @@
       <c r="A897" s="13"/>
       <c r="B897" s="13"/>
       <c r="C897" s="16"/>
-      <c r="D897" s="13"/>
+      <c r="D897" s="16"/>
       <c r="E897" s="16"/>
       <c r="F897" s="16"/>
       <c r="G897" s="13"/>
@@ -29028,7 +29269,7 @@
       <c r="A898" s="13"/>
       <c r="B898" s="13"/>
       <c r="C898" s="16"/>
-      <c r="D898" s="13"/>
+      <c r="D898" s="16"/>
       <c r="E898" s="16"/>
       <c r="F898" s="16"/>
       <c r="G898" s="13"/>
@@ -29056,7 +29297,7 @@
       <c r="A899" s="13"/>
       <c r="B899" s="13"/>
       <c r="C899" s="16"/>
-      <c r="D899" s="13"/>
+      <c r="D899" s="16"/>
       <c r="E899" s="16"/>
       <c r="F899" s="16"/>
       <c r="G899" s="13"/>
@@ -29084,7 +29325,7 @@
       <c r="A900" s="13"/>
       <c r="B900" s="13"/>
       <c r="C900" s="16"/>
-      <c r="D900" s="13"/>
+      <c r="D900" s="16"/>
       <c r="E900" s="16"/>
       <c r="F900" s="16"/>
       <c r="G900" s="13"/>
@@ -29112,7 +29353,7 @@
       <c r="A901" s="13"/>
       <c r="B901" s="13"/>
       <c r="C901" s="16"/>
-      <c r="D901" s="13"/>
+      <c r="D901" s="16"/>
       <c r="E901" s="16"/>
       <c r="F901" s="16"/>
       <c r="G901" s="13"/>
@@ -29140,7 +29381,7 @@
       <c r="A902" s="13"/>
       <c r="B902" s="13"/>
       <c r="C902" s="16"/>
-      <c r="D902" s="13"/>
+      <c r="D902" s="16"/>
       <c r="E902" s="16"/>
       <c r="F902" s="16"/>
       <c r="G902" s="13"/>
@@ -29168,7 +29409,7 @@
       <c r="A903" s="13"/>
       <c r="B903" s="13"/>
       <c r="C903" s="16"/>
-      <c r="D903" s="13"/>
+      <c r="D903" s="16"/>
       <c r="E903" s="16"/>
       <c r="F903" s="16"/>
       <c r="G903" s="13"/>
@@ -29196,7 +29437,7 @@
       <c r="A904" s="13"/>
       <c r="B904" s="13"/>
       <c r="C904" s="16"/>
-      <c r="D904" s="13"/>
+      <c r="D904" s="16"/>
       <c r="E904" s="16"/>
       <c r="F904" s="16"/>
       <c r="G904" s="13"/>
@@ -29224,7 +29465,7 @@
       <c r="A905" s="13"/>
       <c r="B905" s="13"/>
       <c r="C905" s="16"/>
-      <c r="D905" s="13"/>
+      <c r="D905" s="16"/>
       <c r="E905" s="16"/>
       <c r="F905" s="16"/>
       <c r="G905" s="13"/>
@@ -29252,7 +29493,7 @@
       <c r="A906" s="13"/>
       <c r="B906" s="13"/>
       <c r="C906" s="16"/>
-      <c r="D906" s="13"/>
+      <c r="D906" s="16"/>
       <c r="E906" s="16"/>
       <c r="F906" s="16"/>
       <c r="G906" s="13"/>
@@ -29280,7 +29521,7 @@
       <c r="A907" s="13"/>
       <c r="B907" s="13"/>
       <c r="C907" s="16"/>
-      <c r="D907" s="13"/>
+      <c r="D907" s="16"/>
       <c r="E907" s="16"/>
       <c r="F907" s="16"/>
       <c r="G907" s="13"/>
@@ -29308,7 +29549,7 @@
       <c r="A908" s="13"/>
       <c r="B908" s="13"/>
       <c r="C908" s="16"/>
-      <c r="D908" s="13"/>
+      <c r="D908" s="16"/>
       <c r="E908" s="16"/>
       <c r="F908" s="16"/>
       <c r="G908" s="13"/>
@@ -29336,7 +29577,7 @@
       <c r="A909" s="13"/>
       <c r="B909" s="13"/>
       <c r="C909" s="16"/>
-      <c r="D909" s="13"/>
+      <c r="D909" s="16"/>
       <c r="E909" s="16"/>
       <c r="F909" s="16"/>
       <c r="G909" s="13"/>
@@ -29364,7 +29605,7 @@
       <c r="A910" s="13"/>
       <c r="B910" s="13"/>
       <c r="C910" s="16"/>
-      <c r="D910" s="13"/>
+      <c r="D910" s="16"/>
       <c r="E910" s="16"/>
       <c r="F910" s="16"/>
       <c r="G910" s="13"/>
@@ -29392,7 +29633,7 @@
       <c r="A911" s="13"/>
       <c r="B911" s="13"/>
       <c r="C911" s="16"/>
-      <c r="D911" s="13"/>
+      <c r="D911" s="16"/>
       <c r="E911" s="16"/>
       <c r="F911" s="16"/>
       <c r="G911" s="13"/>
@@ -29420,7 +29661,7 @@
       <c r="A912" s="13"/>
       <c r="B912" s="13"/>
       <c r="C912" s="16"/>
-      <c r="D912" s="13"/>
+      <c r="D912" s="16"/>
       <c r="E912" s="16"/>
       <c r="F912" s="16"/>
       <c r="G912" s="13"/>
@@ -29448,7 +29689,7 @@
       <c r="A913" s="13"/>
       <c r="B913" s="13"/>
       <c r="C913" s="16"/>
-      <c r="D913" s="13"/>
+      <c r="D913" s="16"/>
       <c r="E913" s="16"/>
       <c r="F913" s="16"/>
       <c r="G913" s="13"/>
@@ -29476,7 +29717,7 @@
       <c r="A914" s="13"/>
       <c r="B914" s="13"/>
       <c r="C914" s="16"/>
-      <c r="D914" s="13"/>
+      <c r="D914" s="16"/>
       <c r="E914" s="16"/>
       <c r="F914" s="16"/>
       <c r="G914" s="13"/>
@@ -29504,7 +29745,7 @@
       <c r="A915" s="13"/>
       <c r="B915" s="13"/>
       <c r="C915" s="16"/>
-      <c r="D915" s="13"/>
+      <c r="D915" s="16"/>
       <c r="E915" s="16"/>
       <c r="F915" s="16"/>
       <c r="G915" s="13"/>
@@ -29532,7 +29773,7 @@
       <c r="A916" s="13"/>
       <c r="B916" s="13"/>
       <c r="C916" s="16"/>
-      <c r="D916" s="13"/>
+      <c r="D916" s="16"/>
       <c r="E916" s="16"/>
       <c r="F916" s="16"/>
       <c r="G916" s="13"/>
@@ -29560,7 +29801,7 @@
       <c r="A917" s="13"/>
       <c r="B917" s="13"/>
       <c r="C917" s="16"/>
-      <c r="D917" s="13"/>
+      <c r="D917" s="16"/>
       <c r="E917" s="16"/>
       <c r="F917" s="16"/>
       <c r="G917" s="13"/>
@@ -29588,7 +29829,7 @@
       <c r="A918" s="13"/>
       <c r="B918" s="13"/>
       <c r="C918" s="16"/>
-      <c r="D918" s="13"/>
+      <c r="D918" s="16"/>
       <c r="E918" s="16"/>
       <c r="F918" s="16"/>
       <c r="G918" s="13"/>
@@ -29616,7 +29857,7 @@
       <c r="A919" s="13"/>
       <c r="B919" s="13"/>
       <c r="C919" s="16"/>
-      <c r="D919" s="13"/>
+      <c r="D919" s="16"/>
       <c r="E919" s="16"/>
       <c r="F919" s="16"/>
       <c r="G919" s="13"/>
@@ -29644,7 +29885,7 @@
       <c r="A920" s="13"/>
       <c r="B920" s="13"/>
       <c r="C920" s="16"/>
-      <c r="D920" s="13"/>
+      <c r="D920" s="16"/>
       <c r="E920" s="16"/>
       <c r="F920" s="16"/>
       <c r="G920" s="13"/>
@@ -29672,7 +29913,7 @@
       <c r="A921" s="13"/>
       <c r="B921" s="13"/>
       <c r="C921" s="16"/>
-      <c r="D921" s="13"/>
+      <c r="D921" s="16"/>
       <c r="E921" s="16"/>
       <c r="F921" s="16"/>
       <c r="G921" s="13"/>
@@ -29700,7 +29941,7 @@
       <c r="A922" s="13"/>
       <c r="B922" s="13"/>
       <c r="C922" s="16"/>
-      <c r="D922" s="13"/>
+      <c r="D922" s="16"/>
       <c r="E922" s="16"/>
       <c r="F922" s="16"/>
       <c r="G922" s="13"/>
@@ -29728,7 +29969,7 @@
       <c r="A923" s="13"/>
       <c r="B923" s="13"/>
       <c r="C923" s="16"/>
-      <c r="D923" s="13"/>
+      <c r="D923" s="16"/>
       <c r="E923" s="16"/>
       <c r="F923" s="16"/>
       <c r="G923" s="13"/>
@@ -29756,7 +29997,7 @@
       <c r="A924" s="13"/>
       <c r="B924" s="13"/>
       <c r="C924" s="16"/>
-      <c r="D924" s="13"/>
+      <c r="D924" s="16"/>
       <c r="E924" s="16"/>
       <c r="F924" s="16"/>
       <c r="G924" s="13"/>
@@ -29784,7 +30025,7 @@
       <c r="A925" s="13"/>
       <c r="B925" s="13"/>
       <c r="C925" s="16"/>
-      <c r="D925" s="13"/>
+      <c r="D925" s="16"/>
       <c r="E925" s="16"/>
       <c r="F925" s="16"/>
       <c r="G925" s="13"/>
@@ -29812,7 +30053,7 @@
       <c r="A926" s="13"/>
       <c r="B926" s="13"/>
       <c r="C926" s="16"/>
-      <c r="D926" s="13"/>
+      <c r="D926" s="16"/>
       <c r="E926" s="16"/>
       <c r="F926" s="16"/>
       <c r="G926" s="13"/>
@@ -29840,7 +30081,7 @@
       <c r="A927" s="13"/>
       <c r="B927" s="13"/>
       <c r="C927" s="16"/>
-      <c r="D927" s="13"/>
+      <c r="D927" s="16"/>
       <c r="E927" s="16"/>
       <c r="F927" s="16"/>
       <c r="G927" s="13"/>
@@ -29868,7 +30109,7 @@
       <c r="A928" s="13"/>
       <c r="B928" s="13"/>
       <c r="C928" s="16"/>
-      <c r="D928" s="13"/>
+      <c r="D928" s="16"/>
       <c r="E928" s="16"/>
       <c r="F928" s="16"/>
       <c r="G928" s="13"/>
@@ -29896,7 +30137,7 @@
       <c r="A929" s="13"/>
       <c r="B929" s="13"/>
       <c r="C929" s="16"/>
-      <c r="D929" s="13"/>
+      <c r="D929" s="16"/>
       <c r="E929" s="16"/>
       <c r="F929" s="16"/>
       <c r="G929" s="13"/>
@@ -29924,7 +30165,7 @@
       <c r="A930" s="13"/>
       <c r="B930" s="13"/>
       <c r="C930" s="16"/>
-      <c r="D930" s="13"/>
+      <c r="D930" s="16"/>
       <c r="E930" s="16"/>
       <c r="F930" s="16"/>
       <c r="G930" s="13"/>
@@ -29952,7 +30193,7 @@
       <c r="A931" s="13"/>
       <c r="B931" s="13"/>
       <c r="C931" s="16"/>
-      <c r="D931" s="13"/>
+      <c r="D931" s="16"/>
       <c r="E931" s="16"/>
       <c r="F931" s="16"/>
       <c r="G931" s="13"/>
@@ -29980,7 +30221,7 @@
       <c r="A932" s="13"/>
       <c r="B932" s="13"/>
       <c r="C932" s="16"/>
-      <c r="D932" s="13"/>
+      <c r="D932" s="16"/>
       <c r="E932" s="16"/>
       <c r="F932" s="16"/>
       <c r="G932" s="13"/>
@@ -30008,7 +30249,7 @@
       <c r="A933" s="13"/>
       <c r="B933" s="13"/>
       <c r="C933" s="16"/>
-      <c r="D933" s="13"/>
+      <c r="D933" s="16"/>
       <c r="E933" s="16"/>
       <c r="F933" s="16"/>
       <c r="G933" s="13"/>
@@ -30036,7 +30277,7 @@
       <c r="A934" s="13"/>
       <c r="B934" s="13"/>
       <c r="C934" s="16"/>
-      <c r="D934" s="13"/>
+      <c r="D934" s="16"/>
       <c r="E934" s="16"/>
       <c r="F934" s="16"/>
       <c r="G934" s="13"/>
@@ -30064,7 +30305,7 @@
       <c r="A935" s="13"/>
       <c r="B935" s="13"/>
       <c r="C935" s="16"/>
-      <c r="D935" s="13"/>
+      <c r="D935" s="16"/>
       <c r="E935" s="16"/>
       <c r="F935" s="16"/>
       <c r="G935" s="13"/>
@@ -30092,7 +30333,7 @@
       <c r="A936" s="13"/>
       <c r="B936" s="13"/>
       <c r="C936" s="16"/>
-      <c r="D936" s="13"/>
+      <c r="D936" s="16"/>
       <c r="E936" s="16"/>
       <c r="F936" s="16"/>
       <c r="G936" s="13"/>
@@ -30120,7 +30361,7 @@
       <c r="A937" s="13"/>
       <c r="B937" s="13"/>
       <c r="C937" s="16"/>
-      <c r="D937" s="13"/>
+      <c r="D937" s="16"/>
       <c r="E937" s="16"/>
       <c r="F937" s="16"/>
       <c r="G937" s="13"/>
@@ -30148,7 +30389,7 @@
       <c r="A938" s="13"/>
       <c r="B938" s="13"/>
       <c r="C938" s="16"/>
-      <c r="D938" s="13"/>
+      <c r="D938" s="16"/>
       <c r="E938" s="16"/>
       <c r="F938" s="16"/>
       <c r="G938" s="13"/>
@@ -30176,7 +30417,7 @@
       <c r="A939" s="13"/>
       <c r="B939" s="13"/>
       <c r="C939" s="16"/>
-      <c r="D939" s="13"/>
+      <c r="D939" s="16"/>
       <c r="E939" s="16"/>
       <c r="F939" s="16"/>
       <c r="G939" s="13"/>
@@ -30204,7 +30445,7 @@
       <c r="A940" s="13"/>
       <c r="B940" s="13"/>
       <c r="C940" s="16"/>
-      <c r="D940" s="13"/>
+      <c r="D940" s="16"/>
       <c r="E940" s="16"/>
       <c r="F940" s="16"/>
       <c r="G940" s="13"/>
@@ -30232,7 +30473,7 @@
       <c r="A941" s="13"/>
       <c r="B941" s="13"/>
       <c r="C941" s="16"/>
-      <c r="D941" s="13"/>
+      <c r="D941" s="16"/>
       <c r="E941" s="16"/>
       <c r="F941" s="16"/>
       <c r="G941" s="13"/>
@@ -30260,7 +30501,7 @@
       <c r="A942" s="13"/>
       <c r="B942" s="13"/>
       <c r="C942" s="16"/>
-      <c r="D942" s="13"/>
+      <c r="D942" s="16"/>
       <c r="E942" s="16"/>
       <c r="F942" s="16"/>
       <c r="G942" s="13"/>
@@ -30288,7 +30529,7 @@
       <c r="A943" s="13"/>
       <c r="B943" s="13"/>
       <c r="C943" s="16"/>
-      <c r="D943" s="13"/>
+      <c r="D943" s="16"/>
       <c r="E943" s="16"/>
       <c r="F943" s="16"/>
       <c r="G943" s="13"/>
@@ -30316,7 +30557,7 @@
       <c r="A944" s="13"/>
       <c r="B944" s="13"/>
       <c r="C944" s="16"/>
-      <c r="D944" s="13"/>
+      <c r="D944" s="16"/>
       <c r="E944" s="16"/>
       <c r="F944" s="16"/>
       <c r="G944" s="13"/>
@@ -30344,7 +30585,7 @@
       <c r="A945" s="13"/>
       <c r="B945" s="13"/>
       <c r="C945" s="16"/>
-      <c r="D945" s="13"/>
+      <c r="D945" s="16"/>
       <c r="E945" s="16"/>
       <c r="F945" s="16"/>
       <c r="G945" s="13"/>
@@ -30372,7 +30613,7 @@
       <c r="A946" s="13"/>
       <c r="B946" s="13"/>
       <c r="C946" s="16"/>
-      <c r="D946" s="13"/>
+      <c r="D946" s="16"/>
       <c r="E946" s="16"/>
       <c r="F946" s="16"/>
       <c r="G946" s="13"/>
@@ -30400,7 +30641,7 @@
       <c r="A947" s="13"/>
       <c r="B947" s="13"/>
       <c r="C947" s="16"/>
-      <c r="D947" s="13"/>
+      <c r="D947" s="16"/>
       <c r="E947" s="16"/>
       <c r="F947" s="16"/>
       <c r="G947" s="13"/>
@@ -30428,7 +30669,7 @@
       <c r="A948" s="13"/>
       <c r="B948" s="13"/>
       <c r="C948" s="16"/>
-      <c r="D948" s="13"/>
+      <c r="D948" s="16"/>
       <c r="E948" s="16"/>
       <c r="F948" s="16"/>
       <c r="G948" s="13"/>
@@ -30456,7 +30697,7 @@
       <c r="A949" s="13"/>
       <c r="B949" s="13"/>
       <c r="C949" s="16"/>
-      <c r="D949" s="13"/>
+      <c r="D949" s="16"/>
       <c r="E949" s="16"/>
       <c r="F949" s="16"/>
       <c r="G949" s="13"/>
@@ -30484,7 +30725,7 @@
       <c r="A950" s="13"/>
       <c r="B950" s="13"/>
       <c r="C950" s="16"/>
-      <c r="D950" s="13"/>
+      <c r="D950" s="16"/>
       <c r="E950" s="16"/>
       <c r="F950" s="16"/>
       <c r="G950" s="13"/>
@@ -30512,7 +30753,7 @@
       <c r="A951" s="13"/>
       <c r="B951" s="13"/>
       <c r="C951" s="16"/>
-      <c r="D951" s="13"/>
+      <c r="D951" s="16"/>
       <c r="E951" s="16"/>
       <c r="F951" s="16"/>
       <c r="G951" s="13"/>
@@ -30540,7 +30781,7 @@
       <c r="A952" s="13"/>
       <c r="B952" s="13"/>
       <c r="C952" s="16"/>
-      <c r="D952" s="13"/>
+      <c r="D952" s="16"/>
       <c r="E952" s="16"/>
       <c r="F952" s="16"/>
       <c r="G952" s="13"/>
@@ -30568,7 +30809,7 @@
       <c r="A953" s="13"/>
       <c r="B953" s="13"/>
       <c r="C953" s="16"/>
-      <c r="D953" s="13"/>
+      <c r="D953" s="16"/>
       <c r="E953" s="16"/>
       <c r="F953" s="16"/>
       <c r="G953" s="13"/>
@@ -30596,7 +30837,7 @@
       <c r="A954" s="13"/>
       <c r="B954" s="13"/>
       <c r="C954" s="16"/>
-      <c r="D954" s="13"/>
+      <c r="D954" s="16"/>
       <c r="E954" s="16"/>
       <c r="F954" s="16"/>
       <c r="G954" s="13"/>
@@ -30624,7 +30865,7 @@
       <c r="A955" s="13"/>
       <c r="B955" s="13"/>
       <c r="C955" s="16"/>
-      <c r="D955" s="13"/>
+      <c r="D955" s="16"/>
       <c r="E955" s="16"/>
       <c r="F955" s="16"/>
       <c r="G955" s="13"/>
@@ -30652,7 +30893,7 @@
       <c r="A956" s="13"/>
       <c r="B956" s="13"/>
       <c r="C956" s="16"/>
-      <c r="D956" s="13"/>
+      <c r="D956" s="16"/>
       <c r="E956" s="16"/>
       <c r="F956" s="16"/>
       <c r="G956" s="13"/>
@@ -30680,7 +30921,7 @@
       <c r="A957" s="13"/>
       <c r="B957" s="13"/>
       <c r="C957" s="16"/>
-      <c r="D957" s="13"/>
+      <c r="D957" s="16"/>
       <c r="E957" s="16"/>
       <c r="F957" s="16"/>
       <c r="G957" s="13"/>
@@ -30708,7 +30949,7 @@
       <c r="A958" s="13"/>
       <c r="B958" s="13"/>
       <c r="C958" s="16"/>
-      <c r="D958" s="13"/>
+      <c r="D958" s="16"/>
       <c r="E958" s="16"/>
       <c r="F958" s="16"/>
       <c r="G958" s="13"/>
@@ -30736,7 +30977,7 @@
       <c r="A959" s="13"/>
       <c r="B959" s="13"/>
       <c r="C959" s="16"/>
-      <c r="D959" s="13"/>
+      <c r="D959" s="16"/>
       <c r="E959" s="16"/>
       <c r="F959" s="16"/>
       <c r="G959" s="13"/>
@@ -30764,7 +31005,7 @@
       <c r="A960" s="13"/>
       <c r="B960" s="13"/>
       <c r="C960" s="16"/>
-      <c r="D960" s="13"/>
+      <c r="D960" s="16"/>
       <c r="E960" s="16"/>
       <c r="F960" s="16"/>
       <c r="G960" s="13"/>
@@ -30792,7 +31033,7 @@
       <c r="A961" s="13"/>
       <c r="B961" s="13"/>
       <c r="C961" s="16"/>
-      <c r="D961" s="13"/>
+      <c r="D961" s="16"/>
       <c r="E961" s="16"/>
       <c r="F961" s="16"/>
       <c r="G961" s="13"/>
@@ -30820,7 +31061,7 @@
       <c r="A962" s="13"/>
       <c r="B962" s="13"/>
       <c r="C962" s="16"/>
-      <c r="D962" s="13"/>
+      <c r="D962" s="16"/>
       <c r="E962" s="16"/>
       <c r="F962" s="16"/>
       <c r="G962" s="13"/>
@@ -30848,7 +31089,7 @@
       <c r="A963" s="13"/>
       <c r="B963" s="13"/>
       <c r="C963" s="16"/>
-      <c r="D963" s="13"/>
+      <c r="D963" s="16"/>
       <c r="E963" s="16"/>
       <c r="F963" s="16"/>
       <c r="G963" s="13"/>
@@ -30876,7 +31117,7 @@
       <c r="A964" s="13"/>
       <c r="B964" s="13"/>
       <c r="C964" s="16"/>
-      <c r="D964" s="13"/>
+      <c r="D964" s="16"/>
       <c r="E964" s="16"/>
       <c r="F964" s="16"/>
       <c r="G964" s="13"/>
@@ -30904,7 +31145,7 @@
       <c r="A965" s="13"/>
       <c r="B965" s="13"/>
       <c r="C965" s="16"/>
-      <c r="D965" s="13"/>
+      <c r="D965" s="16"/>
       <c r="E965" s="16"/>
       <c r="F965" s="16"/>
       <c r="G965" s="13"/>
@@ -30932,7 +31173,7 @@
       <c r="A966" s="13"/>
       <c r="B966" s="13"/>
       <c r="C966" s="16"/>
-      <c r="D966" s="13"/>
+      <c r="D966" s="16"/>
       <c r="E966" s="16"/>
       <c r="F966" s="16"/>
       <c r="G966" s="13"/>
@@ -30960,7 +31201,7 @@
       <c r="A967" s="13"/>
       <c r="B967" s="13"/>
       <c r="C967" s="16"/>
-      <c r="D967" s="13"/>
+      <c r="D967" s="16"/>
       <c r="E967" s="16"/>
       <c r="F967" s="16"/>
       <c r="G967" s="13"/>
@@ -30988,7 +31229,7 @@
       <c r="A968" s="13"/>
       <c r="B968" s="13"/>
       <c r="C968" s="16"/>
-      <c r="D968" s="13"/>
+      <c r="D968" s="16"/>
       <c r="E968" s="16"/>
       <c r="F968" s="16"/>
       <c r="G968" s="13"/>
@@ -31016,7 +31257,7 @@
       <c r="A969" s="13"/>
       <c r="B969" s="13"/>
       <c r="C969" s="16"/>
-      <c r="D969" s="13"/>
+      <c r="D969" s="16"/>
       <c r="E969" s="16"/>
       <c r="F969" s="16"/>
       <c r="G969" s="13"/>
@@ -31044,7 +31285,7 @@
       <c r="A970" s="13"/>
       <c r="B970" s="13"/>
       <c r="C970" s="16"/>
-      <c r="D970" s="13"/>
+      <c r="D970" s="16"/>
       <c r="E970" s="16"/>
       <c r="F970" s="16"/>
       <c r="G970" s="13"/>
@@ -31072,7 +31313,7 @@
       <c r="A971" s="13"/>
       <c r="B971" s="13"/>
       <c r="C971" s="16"/>
-      <c r="D971" s="13"/>
+      <c r="D971" s="16"/>
       <c r="E971" s="16"/>
       <c r="F971" s="16"/>
       <c r="G971" s="13"/>
@@ -31100,7 +31341,7 @@
       <c r="A972" s="13"/>
       <c r="B972" s="13"/>
       <c r="C972" s="16"/>
-      <c r="D972" s="13"/>
+      <c r="D972" s="16"/>
       <c r="E972" s="16"/>
       <c r="F972" s="16"/>
       <c r="G972" s="13"/>
@@ -31128,7 +31369,7 @@
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
       <c r="C973" s="16"/>
-      <c r="D973" s="13"/>
+      <c r="D973" s="16"/>
       <c r="E973" s="16"/>
       <c r="F973" s="16"/>
       <c r="G973" s="13"/>
@@ -31156,7 +31397,7 @@
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
       <c r="C974" s="16"/>
-      <c r="D974" s="13"/>
+      <c r="D974" s="16"/>
       <c r="E974" s="16"/>
       <c r="F974" s="16"/>
       <c r="G974" s="13"/>
@@ -31184,7 +31425,7 @@
       <c r="A975" s="13"/>
       <c r="B975" s="13"/>
       <c r="C975" s="16"/>
-      <c r="D975" s="13"/>
+      <c r="D975" s="16"/>
       <c r="E975" s="16"/>
       <c r="F975" s="16"/>
       <c r="G975" s="13"/>
@@ -31212,7 +31453,7 @@
       <c r="A976" s="13"/>
       <c r="B976" s="13"/>
       <c r="C976" s="16"/>
-      <c r="D976" s="13"/>
+      <c r="D976" s="16"/>
       <c r="E976" s="16"/>
       <c r="F976" s="16"/>
       <c r="G976" s="13"/>
@@ -31240,7 +31481,7 @@
       <c r="A977" s="13"/>
       <c r="B977" s="13"/>
       <c r="C977" s="16"/>
-      <c r="D977" s="13"/>
+      <c r="D977" s="16"/>
       <c r="E977" s="16"/>
       <c r="F977" s="16"/>
       <c r="G977" s="13"/>
@@ -31268,7 +31509,7 @@
       <c r="A978" s="13"/>
       <c r="B978" s="13"/>
       <c r="C978" s="16"/>
-      <c r="D978" s="13"/>
+      <c r="D978" s="16"/>
       <c r="E978" s="16"/>
       <c r="F978" s="16"/>
       <c r="G978" s="13"/>
@@ -31296,7 +31537,7 @@
       <c r="A979" s="13"/>
       <c r="B979" s="13"/>
       <c r="C979" s="16"/>
-      <c r="D979" s="13"/>
+      <c r="D979" s="16"/>
       <c r="E979" s="16"/>
       <c r="F979" s="16"/>
       <c r="G979" s="13"/>
@@ -31324,7 +31565,7 @@
       <c r="A980" s="13"/>
       <c r="B980" s="13"/>
       <c r="C980" s="16"/>
-      <c r="D980" s="13"/>
+      <c r="D980" s="16"/>
       <c r="E980" s="16"/>
       <c r="F980" s="16"/>
       <c r="G980" s="13"/>
@@ -31352,7 +31593,7 @@
       <c r="A981" s="13"/>
       <c r="B981" s="13"/>
       <c r="C981" s="16"/>
-      <c r="D981" s="13"/>
+      <c r="D981" s="16"/>
       <c r="E981" s="16"/>
       <c r="F981" s="16"/>
       <c r="G981" s="13"/>
@@ -31380,7 +31621,7 @@
       <c r="A982" s="13"/>
       <c r="B982" s="13"/>
       <c r="C982" s="16"/>
-      <c r="D982" s="13"/>
+      <c r="D982" s="16"/>
       <c r="E982" s="16"/>
       <c r="F982" s="16"/>
       <c r="G982" s="13"/>
@@ -31408,7 +31649,7 @@
       <c r="A983" s="13"/>
       <c r="B983" s="13"/>
       <c r="C983" s="16"/>
-      <c r="D983" s="13"/>
+      <c r="D983" s="16"/>
       <c r="E983" s="16"/>
       <c r="F983" s="16"/>
       <c r="G983" s="13"/>
@@ -31436,7 +31677,7 @@
       <c r="A984" s="13"/>
       <c r="B984" s="13"/>
       <c r="C984" s="16"/>
-      <c r="D984" s="13"/>
+      <c r="D984" s="16"/>
       <c r="E984" s="16"/>
       <c r="F984" s="16"/>
       <c r="G984" s="13"/>
@@ -31464,7 +31705,7 @@
       <c r="A985" s="13"/>
       <c r="B985" s="13"/>
       <c r="C985" s="16"/>
-      <c r="D985" s="13"/>
+      <c r="D985" s="16"/>
       <c r="E985" s="16"/>
       <c r="F985" s="16"/>
       <c r="G985" s="13"/>
@@ -31492,7 +31733,7 @@
       <c r="A986" s="13"/>
       <c r="B986" s="13"/>
       <c r="C986" s="16"/>
-      <c r="D986" s="13"/>
+      <c r="D986" s="16"/>
       <c r="E986" s="16"/>
       <c r="F986" s="16"/>
       <c r="G986" s="13"/>
@@ -31520,7 +31761,7 @@
       <c r="A987" s="13"/>
       <c r="B987" s="13"/>
       <c r="C987" s="16"/>
-      <c r="D987" s="13"/>
+      <c r="D987" s="16"/>
       <c r="E987" s="16"/>
       <c r="F987" s="16"/>
       <c r="G987" s="13"/>
@@ -31548,7 +31789,7 @@
       <c r="A988" s="13"/>
       <c r="B988" s="13"/>
       <c r="C988" s="16"/>
-      <c r="D988" s="13"/>
+      <c r="D988" s="16"/>
       <c r="E988" s="16"/>
       <c r="F988" s="16"/>
       <c r="G988" s="13"/>
@@ -31576,7 +31817,7 @@
       <c r="A989" s="13"/>
       <c r="B989" s="13"/>
       <c r="C989" s="16"/>
-      <c r="D989" s="13"/>
+      <c r="D989" s="16"/>
       <c r="E989" s="16"/>
       <c r="F989" s="16"/>
       <c r="G989" s="13"/>
@@ -31604,7 +31845,7 @@
       <c r="A990" s="13"/>
       <c r="B990" s="13"/>
       <c r="C990" s="16"/>
-      <c r="D990" s="13"/>
+      <c r="D990" s="16"/>
       <c r="E990" s="16"/>
       <c r="F990" s="16"/>
       <c r="G990" s="13"/>
@@ -31632,7 +31873,7 @@
       <c r="A991" s="13"/>
       <c r="B991" s="13"/>
       <c r="C991" s="16"/>
-      <c r="D991" s="13"/>
+      <c r="D991" s="16"/>
       <c r="E991" s="16"/>
       <c r="F991" s="16"/>
       <c r="G991" s="13"/>
@@ -31660,7 +31901,7 @@
       <c r="A992" s="13"/>
       <c r="B992" s="13"/>
       <c r="C992" s="16"/>
-      <c r="D992" s="13"/>
+      <c r="D992" s="16"/>
       <c r="E992" s="16"/>
       <c r="F992" s="16"/>
       <c r="G992" s="13"/>
@@ -31688,7 +31929,7 @@
       <c r="A993" s="13"/>
       <c r="B993" s="13"/>
       <c r="C993" s="16"/>
-      <c r="D993" s="13"/>
+      <c r="D993" s="16"/>
       <c r="E993" s="16"/>
       <c r="F993" s="16"/>
       <c r="G993" s="13"/>
@@ -31716,7 +31957,7 @@
       <c r="A994" s="13"/>
       <c r="B994" s="13"/>
       <c r="C994" s="16"/>
-      <c r="D994" s="13"/>
+      <c r="D994" s="16"/>
       <c r="E994" s="16"/>
       <c r="F994" s="16"/>
       <c r="G994" s="13"/>
@@ -31744,7 +31985,7 @@
       <c r="A995" s="13"/>
       <c r="B995" s="13"/>
       <c r="C995" s="16"/>
-      <c r="D995" s="13"/>
+      <c r="D995" s="16"/>
       <c r="E995" s="16"/>
       <c r="F995" s="16"/>
       <c r="G995" s="13"/>
@@ -31772,7 +32013,7 @@
       <c r="A996" s="13"/>
       <c r="B996" s="13"/>
       <c r="C996" s="16"/>
-      <c r="D996" s="13"/>
+      <c r="D996" s="16"/>
       <c r="E996" s="16"/>
       <c r="F996" s="16"/>
       <c r="G996" s="13"/>
@@ -31800,7 +32041,7 @@
       <c r="A997" s="13"/>
       <c r="B997" s="13"/>
       <c r="C997" s="16"/>
-      <c r="D997" s="13"/>
+      <c r="D997" s="16"/>
       <c r="E997" s="16"/>
       <c r="F997" s="16"/>
       <c r="G997" s="13"/>
@@ -31828,7 +32069,7 @@
       <c r="A998" s="13"/>
       <c r="B998" s="13"/>
       <c r="C998" s="16"/>
-      <c r="D998" s="13"/>
+      <c r="D998" s="16"/>
       <c r="E998" s="16"/>
       <c r="F998" s="16"/>
       <c r="G998" s="13"/>
@@ -31856,7 +32097,7 @@
       <c r="A999" s="13"/>
       <c r="B999" s="13"/>
       <c r="C999" s="16"/>
-      <c r="D999" s="13"/>
+      <c r="D999" s="16"/>
       <c r="E999" s="16"/>
       <c r="F999" s="16"/>
       <c r="G999" s="13"/>
@@ -31884,7 +32125,7 @@
       <c r="A1000" s="13"/>
       <c r="B1000" s="13"/>
       <c r="C1000" s="16"/>
-      <c r="D1000" s="13"/>
+      <c r="D1000" s="16"/>
       <c r="E1000" s="16"/>
       <c r="F1000" s="16"/>
       <c r="G1000" s="13"/>
@@ -31908,6 +32149,90 @@
       <c r="Y1000" s="13"/>
       <c r="Z1000" s="13"/>
     </row>
+    <row r="1001" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1001" s="13"/>
+      <c r="B1001" s="13"/>
+      <c r="C1001" s="16"/>
+      <c r="D1001" s="16"/>
+      <c r="E1001" s="16"/>
+      <c r="F1001" s="16"/>
+      <c r="G1001" s="13"/>
+      <c r="H1001" s="13"/>
+      <c r="I1001" s="13"/>
+      <c r="J1001" s="13"/>
+      <c r="K1001" s="13"/>
+      <c r="L1001" s="13"/>
+      <c r="M1001" s="13"/>
+      <c r="N1001" s="13"/>
+      <c r="O1001" s="13"/>
+      <c r="P1001" s="13"/>
+      <c r="Q1001" s="13"/>
+      <c r="R1001" s="13"/>
+      <c r="S1001" s="13"/>
+      <c r="T1001" s="13"/>
+      <c r="U1001" s="13"/>
+      <c r="V1001" s="13"/>
+      <c r="W1001" s="13"/>
+      <c r="X1001" s="13"/>
+      <c r="Y1001" s="13"/>
+      <c r="Z1001" s="13"/>
+    </row>
+    <row r="1002" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1002" s="13"/>
+      <c r="B1002" s="13"/>
+      <c r="C1002" s="16"/>
+      <c r="D1002" s="16"/>
+      <c r="E1002" s="16"/>
+      <c r="F1002" s="16"/>
+      <c r="G1002" s="13"/>
+      <c r="H1002" s="13"/>
+      <c r="I1002" s="13"/>
+      <c r="J1002" s="13"/>
+      <c r="K1002" s="13"/>
+      <c r="L1002" s="13"/>
+      <c r="M1002" s="13"/>
+      <c r="N1002" s="13"/>
+      <c r="O1002" s="13"/>
+      <c r="P1002" s="13"/>
+      <c r="Q1002" s="13"/>
+      <c r="R1002" s="13"/>
+      <c r="S1002" s="13"/>
+      <c r="T1002" s="13"/>
+      <c r="U1002" s="13"/>
+      <c r="V1002" s="13"/>
+      <c r="W1002" s="13"/>
+      <c r="X1002" s="13"/>
+      <c r="Y1002" s="13"/>
+      <c r="Z1002" s="13"/>
+    </row>
+    <row r="1003" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1003" s="13"/>
+      <c r="B1003" s="13"/>
+      <c r="C1003" s="16"/>
+      <c r="D1003" s="16"/>
+      <c r="E1003" s="16"/>
+      <c r="F1003" s="16"/>
+      <c r="G1003" s="13"/>
+      <c r="H1003" s="13"/>
+      <c r="I1003" s="13"/>
+      <c r="J1003" s="13"/>
+      <c r="K1003" s="13"/>
+      <c r="L1003" s="13"/>
+      <c r="M1003" s="13"/>
+      <c r="N1003" s="13"/>
+      <c r="O1003" s="13"/>
+      <c r="P1003" s="13"/>
+      <c r="Q1003" s="13"/>
+      <c r="R1003" s="13"/>
+      <c r="S1003" s="13"/>
+      <c r="T1003" s="13"/>
+      <c r="U1003" s="13"/>
+      <c r="V1003" s="13"/>
+      <c r="W1003" s="13"/>
+      <c r="X1003" s="13"/>
+      <c r="Y1003" s="13"/>
+      <c r="Z1003" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Manual_Testing.xlsx
+++ b/documentation/Manual_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhan.dang/Coder_Academy/terminal_app/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC07C6C-F833-8B4E-98B5-A41C63B42B5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354D51BF-2B23-0C40-B88A-369D4503092B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -292,12 +292,41 @@
   <si>
     <t>record not accurate</t>
   </si>
+  <si>
+    <t>5/9/19 - changed date in patient class from current date to date variable.
+Added date variable to class constructor and stored date variable after parsing from CSV</t>
+  </si>
+  <si>
+    <t>csv file that stores results not available</t>
+  </si>
+  <si>
+    <t>csv_text = File.open('cvresult2.csv', 'r')</t>
+  </si>
+  <si>
+    <t>rescue message displays &amp; application terminates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message only dispays after user enters the name</t>
+  </si>
+  <si>
+    <t>user enters a patient who does not have a record or does not enter any name</t>
+  </si>
+  <si>
+    <t>scenario 1: name = press enter
+scenario 2: name = fjksjkfs</t>
+  </si>
+  <si>
+    <t>System displays patient not found, and will prompt user if they want to return to menu</t>
+  </si>
+  <si>
+    <t>may be better if the method can loop until the user wants to go back to main menu or exit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -311,6 +340,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -401,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -445,11 +480,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -461,6 +496,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +817,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3903,8 +3941,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4546,7 +4584,9 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
       <c r="B16" s="13"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4574,7 +4614,9 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
       <c r="B17" s="13">
         <v>2</v>
       </c>
@@ -4590,7 +4632,9 @@
       <c r="F17" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -4611,9 +4655,13 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="1:26" ht="42" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+    <row r="18" spans="1:26" ht="56" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
       <c r="C18" s="16" t="s">
         <v>79</v>
       </c>
@@ -4635,8 +4683,12 @@
       <c r="I18" s="25">
         <v>43713</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -4653,14 +4705,28 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="13"/>
+    <row r="19" spans="1:26" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -4681,15 +4747,31 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+    <row r="20" spans="1:26" ht="42" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>

--- a/documentation/Manual_Testing.xlsx
+++ b/documentation/Manual_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhan.dang/Coder_Academy/terminal_app/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA493A86-F43C-DC49-8CF2-05E4B22F33C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF051B-85C2-A241-8FFB-AF946FFC963E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -785,7 +785,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -866,9 +866,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3864,7 +3862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
